--- a/data_clean/Orkla 16.12.2020.xlsx
+++ b/data_clean/Orkla 16.12.2020.xlsx
@@ -1587,7 +1587,7 @@
         <v>1.06024329507898</v>
       </c>
       <c r="K2">
-        <v>48.54566332255608</v>
+        <v>-0.01454336677443932</v>
       </c>
       <c r="L2">
         <v>-0.0009551568185754522</v>
@@ -1617,13 +1617,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L3">
         <v>-0.0261761301742989</v>
@@ -1688,13 +1688,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L4">
         <v>-0.01936722304854498</v>
@@ -1759,13 +1759,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.9997252639428548</v>
+        <v>-0.0002747360571452306</v>
       </c>
       <c r="V4">
-        <v>0.9997252639428548</v>
+        <v>-0.0002747360571452306</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L5">
         <v>-0.01897835103638106</v>
@@ -1830,13 +1830,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.9995681532663317</v>
+        <v>-0.0004318467336682508</v>
       </c>
       <c r="V5">
-        <v>0.9995681532663317</v>
+        <v>-0.0004318467336682508</v>
       </c>
       <c r="W5">
-        <v>0.9988215884987038</v>
+        <v>-0.001178411501296162</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1871,7 +1871,7 @@
         <v>0.1860183925685325</v>
       </c>
       <c r="K6">
-        <v>15.68427553350811</v>
+        <v>-0.3431572446649189</v>
       </c>
       <c r="L6">
         <v>-0.01726435615463232</v>
@@ -1901,13 +1901,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.999835041828679</v>
+        <v>-0.0001649581713210058</v>
       </c>
       <c r="V6">
-        <v>0.999835041828679</v>
+        <v>-0.0001649581713210058</v>
       </c>
       <c r="W6">
-        <v>1.000471920717319</v>
+        <v>0.0004719207173193851</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1942,7 +1942,7 @@
         <v>0.3818272268512678</v>
       </c>
       <c r="K7">
-        <v>27.63205264968813</v>
+        <v>-0.2236794735031187</v>
       </c>
       <c r="L7">
         <v>-0.01479982956997844</v>
@@ -1972,13 +1972,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.9999685742119985</v>
+        <v>-3.142578800152673E-05</v>
       </c>
       <c r="V7">
-        <v>0.9999685742119985</v>
+        <v>-3.142578800152673E-05</v>
       </c>
       <c r="W7">
-        <v>1.000471698113208</v>
+        <v>0.0004716981132075748</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -2013,7 +2013,7 @@
         <v>0.2703720098562654</v>
       </c>
       <c r="K8">
-        <v>21.2829004227554</v>
+        <v>-0.287170995772446</v>
       </c>
       <c r="L8">
         <v>-0.01360078421024869</v>
@@ -2043,13 +2043,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.9998428661219358</v>
+        <v>-0.0001571338780641529</v>
       </c>
       <c r="V8">
-        <v>0.9998428661219358</v>
+        <v>-0.0001571338780641529</v>
       </c>
       <c r="W8">
-        <v>0.9990570485619991</v>
+        <v>-0.0009429514380009385</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -2084,7 +2084,7 @@
         <v>0.2343660345444718</v>
       </c>
       <c r="K9">
-        <v>18.98675336047802</v>
+        <v>-0.3101324663952198</v>
       </c>
       <c r="L9">
         <v>-0.0132290241175839</v>
@@ -2114,13 +2114,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.9998231966053748</v>
+        <v>-0.0001768033946252245</v>
       </c>
       <c r="V9">
-        <v>0.9998231966053748</v>
+        <v>-0.0001768033946252245</v>
       </c>
       <c r="W9">
-        <v>0.9995280792826804</v>
+        <v>-0.0004719207173196072</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2155,7 +2155,7 @@
         <v>0.2190151499639423</v>
       </c>
       <c r="K10">
-        <v>17.96656505626044</v>
+        <v>-0.3203343494373956</v>
       </c>
       <c r="L10">
         <v>-0.01322631696828331</v>
@@ -2185,13 +2185,13 @@
         <v>-0.02361111111110858</v>
       </c>
       <c r="U10">
-        <v>0.9998362642040801</v>
+        <v>-0.0001637357959198837</v>
       </c>
       <c r="V10">
-        <v>0.9998362642040801</v>
+        <v>-0.0001637357959198837</v>
       </c>
       <c r="W10">
-        <v>0.9997639282341833</v>
+        <v>-0.0002360717658167477</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2226,7 +2226,7 @@
         <v>0.1411566006798788</v>
       </c>
       <c r="K11">
-        <v>12.36960821992183</v>
+        <v>-0.3763039178007817</v>
       </c>
       <c r="L11">
         <v>-0.01452544828634222</v>
@@ -2256,13 +2256,13 @@
         <v>-0.03650000000000375</v>
       </c>
       <c r="U11">
-        <v>0.9996803353858249</v>
+        <v>-0.000319664614175097</v>
       </c>
       <c r="V11">
-        <v>0.9996803353858249</v>
+        <v>-0.000319664614175097</v>
       </c>
       <c r="W11">
-        <v>0.9981109799291618</v>
+        <v>-0.001889020070838243</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2297,7 +2297,7 @@
         <v>0.2347076263519769</v>
       </c>
       <c r="K12">
-        <v>19.0091663275326</v>
+        <v>-0.309908336724674</v>
       </c>
       <c r="L12">
         <v>-0.01578644482802933</v>
@@ -2327,13 +2327,13 @@
         <v>-0.05295454545453993</v>
       </c>
       <c r="U12">
-        <v>0.9997812623307999</v>
+        <v>-0.0002187376692001086</v>
       </c>
       <c r="V12">
-        <v>0.9997812623307999</v>
+        <v>-0.0002187376692001086</v>
       </c>
       <c r="W12">
-        <v>1.000473148805299</v>
+        <v>0.0004731488052991395</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2368,7 +2368,7 @@
         <v>0.3331823902173783</v>
       </c>
       <c r="K13">
-        <v>24.99150848842612</v>
+        <v>-0.2500849151157388</v>
       </c>
       <c r="L13">
         <v>-0.0165183506015357</v>
@@ -2398,13 +2398,13 @@
         <v>-0.05833333333333712</v>
       </c>
       <c r="U13">
-        <v>0.9998570029242901</v>
+        <v>-0.0001429970757098609</v>
       </c>
       <c r="V13">
-        <v>0.9998570029242901</v>
+        <v>-0.0001429970757098609</v>
       </c>
       <c r="W13">
-        <v>1.000472925041381</v>
+        <v>0.0004729250413810782</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2439,7 +2439,7 @@
         <v>0.48866885947852</v>
       </c>
       <c r="K14">
-        <v>32.82589384248291</v>
+        <v>-0.1717410615751709</v>
       </c>
       <c r="L14">
         <v>-0.01646089035411942</v>
@@ -2469,13 +2469,13 @@
         <v>-0.0676923076922975</v>
       </c>
       <c r="U14">
-        <v>0.9999334418432979</v>
+        <v>-6.655815670209009E-05</v>
       </c>
       <c r="V14">
-        <v>0.9999334418432979</v>
+        <v>-6.655815670209009E-05</v>
       </c>
       <c r="W14">
-        <v>1.000709052233514</v>
+        <v>0.0007090522335144733</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2510,7 +2510,7 @@
         <v>0.4199376739679758</v>
       </c>
       <c r="K15">
-        <v>29.57437369729558</v>
+        <v>-0.2042562630270441</v>
       </c>
       <c r="L15">
         <v>-0.01628408617996157</v>
@@ -2540,13 +2540,13 @@
         <v>-0.08607142857142946</v>
       </c>
       <c r="U15">
-        <v>0.9998923760768876</v>
+        <v>-0.0001076239231123655</v>
       </c>
       <c r="V15">
-        <v>0.9998923760768876</v>
+        <v>-0.0001076239231123655</v>
       </c>
       <c r="W15">
-        <v>0.9992914501653283</v>
+        <v>-0.0007085498346717234</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2581,7 +2581,7 @@
         <v>0.5679901125950146</v>
       </c>
       <c r="K16">
-        <v>36.22408764140702</v>
+        <v>-0.1377591235859298</v>
       </c>
       <c r="L16">
         <v>-0.01564633218742953</v>
@@ -2611,13 +2611,13 @@
         <v>-0.09216666666665674</v>
       </c>
       <c r="U16">
-        <v>0.999953919899298</v>
+        <v>-4.608010070195068E-05</v>
       </c>
       <c r="V16">
-        <v>0.999953919899298</v>
+        <v>-4.608010070195068E-05</v>
       </c>
       <c r="W16">
-        <v>1.000709052233514</v>
+        <v>0.0007090522335144733</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2652,7 +2652,7 @@
         <v>0.49140695652017</v>
       </c>
       <c r="K17">
-        <v>32.9492198203733</v>
+        <v>-0.170507801796267</v>
       </c>
       <c r="L17">
         <v>-0.0150655061587554</v>
@@ -2682,13 +2682,13 @@
         <v>-0.0975000000000108</v>
       </c>
       <c r="U17">
-        <v>0.9999154222592879</v>
+        <v>-8.457774071213287E-05</v>
       </c>
       <c r="V17">
-        <v>0.9997010275212034</v>
+        <v>-0.0002989724787966219</v>
       </c>
       <c r="W17">
-        <v>0.9992914501653283</v>
+        <v>-0.0007085498346717234</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2723,7 +2723,7 @@
         <v>0.4692089530585519</v>
       </c>
       <c r="K18">
-        <v>31.93616211511424</v>
+        <v>-0.1806383788488576</v>
       </c>
       <c r="L18">
         <v>-0.01459466888095726</v>
@@ -2753,13 +2753,13 @@
         <v>-0.08500000000000796</v>
       </c>
       <c r="U18">
-        <v>0.9999114809241391</v>
+        <v>-8.851907586093777E-05</v>
       </c>
       <c r="V18">
-        <v>0.9997953787067935</v>
+        <v>-0.0002046212932065306</v>
       </c>
       <c r="W18">
-        <v>0.999763649255495</v>
+        <v>-0.0002363507445050095</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2794,7 +2794,7 @@
         <v>0.5643086219714188</v>
       </c>
       <c r="K19">
-        <v>36.073995504816</v>
+        <v>-0.13926004495184</v>
       </c>
       <c r="L19">
         <v>-0.01395495990802262</v>
@@ -2824,13 +2824,13 @@
         <v>-0.05875000000001762</v>
       </c>
       <c r="U19">
-        <v>0.9999475396075964</v>
+        <v>-5.246039240358602E-05</v>
       </c>
       <c r="V19">
-        <v>0.9998268234701427</v>
+        <v>-0.0001731765298572663</v>
       </c>
       <c r="W19">
-        <v>1.000472813238771</v>
+        <v>0.0004728132387707973</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2865,7 +2865,7 @@
         <v>0.7144659939390857</v>
       </c>
       <c r="K20">
-        <v>41.67280053759237</v>
+        <v>-0.08327199462407625</v>
       </c>
       <c r="L20">
         <v>-0.01291617983192448</v>
@@ -2895,13 +2895,13 @@
         <v>-0.03374999999999773</v>
       </c>
       <c r="U20">
-        <v>0.9999903357365133</v>
+        <v>-9.664263486697244E-06</v>
       </c>
       <c r="V20">
-        <v>0.9999527618567738</v>
+        <v>-4.723814322615816E-05</v>
       </c>
       <c r="W20">
-        <v>1.000708884688091</v>
+        <v>0.0007088846880907163</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2936,7 +2936,7 @@
         <v>0.8198395883023357</v>
       </c>
       <c r="K21">
-        <v>45.0501018645899</v>
+        <v>-0.04949898135410102</v>
       </c>
       <c r="L21">
         <v>-0.01148293209805661</v>
@@ -2966,13 +2966,13 @@
         <v>-0.01749999999999829</v>
       </c>
       <c r="U21">
-        <v>1.000014910722052</v>
+        <v>1.491072205173083E-05</v>
       </c>
       <c r="V21">
-        <v>0.9999527596252263</v>
+        <v>-4.72403747736605E-05</v>
       </c>
       <c r="W21">
-        <v>1.000472255017709</v>
+        <v>0.000472255017709422</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -3007,7 +3007,7 @@
         <v>0.8198395883023356</v>
       </c>
       <c r="K22">
-        <v>45.0501018645899</v>
+        <v>-0.04949898135410102</v>
       </c>
       <c r="L22">
         <v>-0.00988035944272719</v>
@@ -3037,13 +3037,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U22">
-        <v>1.000013490452133</v>
+        <v>1.349045213272504E-05</v>
       </c>
       <c r="V22">
-        <v>0.9999212623224465</v>
+        <v>-7.873767755350869E-05</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -3078,7 +3078,7 @@
         <v>0.7341250257779717</v>
       </c>
       <c r="K23">
-        <v>42.33403098768066</v>
+        <v>-0.07665969012319346</v>
       </c>
       <c r="L23">
         <v>-0.008438776909099856</v>
@@ -3108,13 +3108,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U23">
-        <v>0.9999908020885391</v>
+        <v>-9.197911460923081E-06</v>
       </c>
       <c r="V23">
-        <v>0.999952753673402</v>
+        <v>-4.724632659802719E-05</v>
       </c>
       <c r="W23">
-        <v>0.9995279679018174</v>
+        <v>-0.0004720320981825843</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -3149,7 +3149,7 @@
         <v>0.6613422838266004</v>
       </c>
       <c r="K24">
-        <v>39.80770791575343</v>
+        <v>-0.1019229208424657</v>
       </c>
       <c r="L24">
         <v>-0.007340232017386625</v>
@@ -3179,13 +3179,13 @@
         <v>0.01625000000001364</v>
       </c>
       <c r="U24">
-        <v>0.9999710729689024</v>
+        <v>-2.892703109758088E-05</v>
       </c>
       <c r="V24">
-        <v>0.9999527514410812</v>
+        <v>-4.724855891879987E-05</v>
       </c>
       <c r="W24">
-        <v>0.9995277449822904</v>
+        <v>-0.0004722550177096441</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -3220,7 +3220,7 @@
         <v>0.8178825390083233</v>
       </c>
       <c r="K25">
-        <v>44.99094531456846</v>
+        <v>-0.05009054685431541</v>
       </c>
       <c r="L25">
         <v>-0.006215814190889154</v>
@@ -3250,13 +3250,13 @@
         <v>0.02874999999997385</v>
       </c>
       <c r="U25">
-        <v>1.000002993878801</v>
+        <v>2.993878801094141E-06</v>
       </c>
       <c r="V25">
-        <v>1.000015750263817</v>
+        <v>1.575026381694933E-05</v>
       </c>
       <c r="W25">
-        <v>1.000708717221829</v>
+        <v>0.0007087172218285254</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -3291,7 +3291,7 @@
         <v>0.7369288352087955</v>
       </c>
       <c r="K26">
-        <v>42.42711735050501</v>
+        <v>-0.07572882649494983</v>
       </c>
       <c r="L26">
         <v>-0.00530818208037134</v>
@@ -3321,13 +3321,13 @@
         <v>0.04000000000000625</v>
       </c>
       <c r="U26">
-        <v>0.9999838673185318</v>
+        <v>-1.613268146816171E-05</v>
       </c>
       <c r="V26">
-        <v>1.00011025011025</v>
+        <v>0.0001102501102501208</v>
       </c>
       <c r="W26">
-        <v>0.9995278564683665</v>
+        <v>-0.0004721435316334954</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3362,7 +3362,7 @@
         <v>0.8411179100305377</v>
       </c>
       <c r="K27">
-        <v>45.6851734181754</v>
+        <v>-0.04314826581824599</v>
       </c>
       <c r="L27">
         <v>-0.004390068940398058</v>
@@ -3392,13 +3392,13 @@
         <v>0.03875000000000739</v>
       </c>
       <c r="U27">
-        <v>1.000003268963804</v>
+        <v>3.268963803870761E-06</v>
       </c>
       <c r="V27">
-        <v>1.000110237956503</v>
+        <v>0.0001102379565030009</v>
       </c>
       <c r="W27">
-        <v>1.000472366556448</v>
+        <v>0.0004723665564476676</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3433,7 +3433,7 @@
         <v>0.8411179100305375</v>
       </c>
       <c r="K28">
-        <v>45.6851734181754</v>
+        <v>-0.04314826581824605</v>
       </c>
       <c r="L28">
         <v>-0.003510032302070817</v>
@@ -3463,13 +3463,13 @@
         <v>0.03249999999999886</v>
       </c>
       <c r="U28">
-        <v>1.000003026808442</v>
+        <v>3.026808442330164E-06</v>
       </c>
       <c r="V28">
-        <v>1.000078732718169</v>
+        <v>7.873271816860594E-05</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3504,7 +3504,7 @@
         <v>0.7540649171512843</v>
       </c>
       <c r="K29">
-        <v>42.98956724908077</v>
+        <v>-0.07010432750919227</v>
       </c>
       <c r="L29">
         <v>-0.002874300356220539</v>
@@ -3534,13 +3534,13 @@
         <v>0.02124999999999488</v>
       </c>
       <c r="U29">
-        <v>0.999985947003339</v>
+        <v>-1.405299666101811E-05</v>
       </c>
       <c r="V29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29">
-        <v>0.9995278564683665</v>
+        <v>-0.0004721435316334954</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3575,7 +3575,7 @@
         <v>0.6481473011806562</v>
       </c>
       <c r="K30">
-        <v>39.32581151674693</v>
+        <v>-0.1067418848325307</v>
       </c>
       <c r="L30">
         <v>-0.002679312600567232</v>
@@ -3605,13 +3605,13 @@
         <v>0.01000000000000512</v>
       </c>
       <c r="U30">
-        <v>0.9999624925094052</v>
+        <v>-3.750749059483471E-05</v>
       </c>
       <c r="V30">
-        <v>0.9999999999999997</v>
+        <v>-3.33066907387547E-16</v>
       </c>
       <c r="W30">
-        <v>0.9992914501653283</v>
+        <v>-0.0007085498346717234</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3646,7 +3646,7 @@
         <v>0.6974322830620012</v>
       </c>
       <c r="K31">
-        <v>41.08748784981878</v>
+        <v>-0.08912512150181223</v>
       </c>
       <c r="L31">
         <v>-0.00266280394064148</v>
@@ -3676,13 +3676,13 @@
         <v>0.001250000000013074</v>
       </c>
       <c r="U31">
-        <v>0.9999728617796159</v>
+        <v>-2.713822038413749E-05</v>
       </c>
       <c r="V31">
-        <v>0.9999685093920742</v>
+        <v>-3.149060792584368E-05</v>
       </c>
       <c r="W31">
-        <v>1.000236350744505</v>
+        <v>0.0002363507445048985</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3717,7 +3717,7 @@
         <v>0.663034750768999</v>
       </c>
       <c r="K32">
-        <v>39.86896548387862</v>
+        <v>-0.1013103451612138</v>
       </c>
       <c r="L32">
         <v>-0.002831817257573746</v>
@@ -3747,13 +3747,13 @@
         <v>-1.4210854715202E-14</v>
       </c>
       <c r="U32">
-        <v>0.9998504643475524</v>
+        <v>-0.0001495356524475744</v>
       </c>
       <c r="V32">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W32">
-        <v>0.9997637051039698</v>
+        <v>-0.0002362948960301647</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3788,7 +3788,7 @@
         <v>0.5263934178413653</v>
       </c>
       <c r="K33">
-        <v>34.48609065582804</v>
+        <v>-0.1551390934417196</v>
       </c>
       <c r="L33">
         <v>-0.003526814672026815</v>
@@ -3818,13 +3818,13 @@
         <v>-0.01874999999999716</v>
       </c>
       <c r="U33">
-        <v>0.9998661849324233</v>
+        <v>-0.0001338150675767036</v>
       </c>
       <c r="V33">
-        <v>0.9999370168007686</v>
+        <v>-6.298319923137008E-05</v>
       </c>
       <c r="W33">
-        <v>0.9988182462774756</v>
+        <v>-0.001181753722524381</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3859,7 +3859,7 @@
         <v>0.5697796753074571</v>
       </c>
       <c r="K34">
-        <v>36.29679274550806</v>
+        <v>-0.1370320725449193</v>
       </c>
       <c r="L34">
         <v>-0.00439289435500633</v>
@@ -3889,13 +3889,13 @@
         <v>-0.03250000000001307</v>
       </c>
       <c r="U34">
-        <v>0.9998740395515809</v>
+        <v>-0.0001259604484190602</v>
       </c>
       <c r="V34">
-        <v>0.9999212660420438</v>
+        <v>-7.873395795621185E-05</v>
       </c>
       <c r="W34">
-        <v>1.000236630383341</v>
+        <v>0.0002366303833414296</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3930,7 +3930,7 @@
         <v>0.6154494200085742</v>
       </c>
       <c r="K35">
-        <v>38.09772143811891</v>
+        <v>-0.1190227856188109</v>
       </c>
       <c r="L35">
         <v>-0.005202968083221299</v>
@@ -3960,13 +3960,13 @@
         <v>-0.04749999999999943</v>
       </c>
       <c r="U35">
-        <v>0.9999212648022171</v>
+        <v>-7.873519778289761E-05</v>
       </c>
       <c r="V35">
-        <v>0.9998897637795275</v>
+        <v>-0.0001102362204724594</v>
       </c>
       <c r="W35">
-        <v>1.00023657440265</v>
+        <v>0.0002365744026495697</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -4001,7 +4001,7 @@
         <v>0.6154494200085742</v>
       </c>
       <c r="K36">
-        <v>38.09772143811891</v>
+        <v>-0.1190227856188109</v>
       </c>
       <c r="L36">
         <v>-0.005908000567584247</v>
@@ -4031,13 +4031,13 @@
         <v>-0.05875000000000341</v>
       </c>
       <c r="U36">
-        <v>0.9999055103229971</v>
+        <v>-9.448967700287358E-05</v>
       </c>
       <c r="V36">
-        <v>0.9998582520907816</v>
+        <v>-0.0001417479092183926</v>
       </c>
       <c r="W36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -4072,7 +4072,7 @@
         <v>0.6154494200085742</v>
       </c>
       <c r="K37">
-        <v>38.09772143811891</v>
+        <v>-0.1190227856188109</v>
       </c>
       <c r="L37">
         <v>-0.006482682088526075</v>
@@ -4102,13 +4102,13 @@
         <v>-0.06250000000001421</v>
       </c>
       <c r="U37">
-        <v>0.9998897516261636</v>
+        <v>-0.0001102483738364413</v>
       </c>
       <c r="V37">
-        <v>0.9998582319954634</v>
+        <v>-0.0001417680045365799</v>
       </c>
       <c r="W37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -4143,7 +4143,7 @@
         <v>0.466390306562577</v>
       </c>
       <c r="K38">
-        <v>31.80533207805095</v>
+        <v>-0.1819466792194905</v>
       </c>
       <c r="L38">
         <v>-0.007437298369005176</v>
@@ -4173,13 +4173,13 @@
         <v>-0.06624999999999659</v>
       </c>
       <c r="U38">
-        <v>0.9998739879658508</v>
+        <v>-0.0001260120341491922</v>
       </c>
       <c r="V38">
-        <v>0.9997951949586451</v>
+        <v>-0.0002048050413548941</v>
       </c>
       <c r="W38">
-        <v>0.9985808893093661</v>
+        <v>-0.00141911069063394</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4214,7 +4214,7 @@
         <v>0.4473808919778753</v>
       </c>
       <c r="K39">
-        <v>30.9096862102774</v>
+        <v>-0.190903137897226</v>
       </c>
       <c r="L39">
         <v>-0.008619405095760818</v>
@@ -4244,13 +4244,13 @@
         <v>-0.07625000000000171</v>
       </c>
       <c r="U39">
-        <v>0.9998818488295158</v>
+        <v>-0.0001181511704841931</v>
       </c>
       <c r="V39">
-        <v>0.9998109104661056</v>
+        <v>-0.0001890895338944043</v>
       </c>
       <c r="W39">
-        <v>0.9997631454287068</v>
+        <v>-0.000236854571293188</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -4285,7 +4285,7 @@
         <v>0.5331884647665898</v>
       </c>
       <c r="K40">
-        <v>34.7764464069172</v>
+        <v>-0.152235535930828</v>
       </c>
       <c r="L40">
         <v>-0.009658988251775649</v>
@@ -4315,13 +4315,13 @@
         <v>-0.08375000000000909</v>
       </c>
       <c r="U40">
-        <v>0.9999054678945336</v>
+        <v>-9.45321054663939E-05</v>
       </c>
       <c r="V40">
-        <v>0.9997951142631994</v>
+        <v>-0.000204885736800553</v>
       </c>
       <c r="W40">
-        <v>1.000473821369344</v>
+        <v>0.0004738213693435966</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4356,7 +4356,7 @@
         <v>0.4890184768243462</v>
       </c>
       <c r="K41">
-        <v>32.84166613347094</v>
+        <v>-0.1715833386652906</v>
       </c>
       <c r="L41">
         <v>-0.01068337154811822</v>
@@ -4386,13 +4386,13 @@
         <v>-0.07749999999998636</v>
       </c>
       <c r="U41">
-        <v>0.9999527294786851</v>
+        <v>-4.727052131492382E-05</v>
       </c>
       <c r="V41">
-        <v>0.9997950722764316</v>
+        <v>-0.0002049277235683933</v>
       </c>
       <c r="W41">
-        <v>0.9995264030310207</v>
+        <v>-0.0004735969689793063</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4427,7 +4427,7 @@
         <v>0.4497957089076476</v>
       </c>
       <c r="K42">
-        <v>31.02476480955703</v>
+        <v>-0.1897523519044297</v>
       </c>
       <c r="L42">
         <v>-0.01176676226501652</v>
@@ -4457,13 +4457,13 @@
         <v>-0.07874999999999943</v>
       </c>
       <c r="U42">
-        <v>0.9999212120734617</v>
+        <v>-7.878792653825961E-05</v>
       </c>
       <c r="V42">
-        <v>0.9997319626639759</v>
+        <v>-0.0002680373360240962</v>
       </c>
       <c r="W42">
-        <v>0.9995261786306562</v>
+        <v>-0.0004738213693438187</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4498,7 +4498,7 @@
         <v>0.4497957089076476</v>
       </c>
       <c r="K43">
-        <v>31.02476480955703</v>
+        <v>-0.1897523519044297</v>
       </c>
       <c r="L43">
         <v>-0.01277379794695678</v>
@@ -4528,13 +4528,13 @@
         <v>-0.07999999999999829</v>
       </c>
       <c r="U43">
-        <v>0.9999054470385225</v>
+        <v>-9.455296147753423E-05</v>
       </c>
       <c r="V43">
-        <v>0.9997318908007001</v>
+        <v>-0.0002681091992998708</v>
       </c>
       <c r="W43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4569,7 +4569,7 @@
         <v>0.4130840363580731</v>
       </c>
       <c r="K44">
-        <v>29.23280043717077</v>
+        <v>-0.2076719956282924</v>
       </c>
       <c r="L44">
         <v>-0.01379635578079834</v>
@@ -4599,13 +4599,13 @@
         <v>-0.08375000000000909</v>
       </c>
       <c r="U44">
-        <v>0.9998660373046706</v>
+        <v>-0.0001339626953293926</v>
       </c>
       <c r="V44">
-        <v>0.99973181889888</v>
+        <v>-0.0002681811011200352</v>
       </c>
       <c r="W44">
-        <v>0.9995259540175397</v>
+        <v>-0.0004740459824602583</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4640,7 +4640,7 @@
         <v>0.4989982971577281</v>
       </c>
       <c r="K45">
-        <v>33.28878345651798</v>
+        <v>-0.1671121654348202</v>
       </c>
       <c r="L45">
         <v>-0.01454041494131426</v>
@@ -4670,13 +4670,13 @@
         <v>-0.08749999999999147</v>
       </c>
       <c r="U45">
-        <v>0.9999054254279498</v>
+        <v>-9.457457205019892E-05</v>
       </c>
       <c r="V45">
-        <v>0.9998106449118711</v>
+        <v>-0.0001893550881288952</v>
       </c>
       <c r="W45">
-        <v>1.000474270808632</v>
+        <v>0.000474270808631605</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4711,7 +4711,7 @@
         <v>0.4576135306158531</v>
       </c>
       <c r="K46">
-        <v>31.3947092973614</v>
+        <v>-0.186052907026386</v>
       </c>
       <c r="L46">
         <v>-0.01518795435477204</v>
@@ -4741,13 +4741,13 @@
         <v>-0.08250000000002444</v>
       </c>
       <c r="U46">
-        <v>0.9998660066839018</v>
+        <v>-0.0001339933160982021</v>
       </c>
       <c r="V46">
-        <v>0.9997632613121636</v>
+        <v>-0.0002367386878363575</v>
       </c>
       <c r="W46">
-        <v>0.9995259540175397</v>
+        <v>-0.0004740459824602583</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4782,7 +4782,7 @@
         <v>0.5885646152111861</v>
       </c>
       <c r="K47">
-        <v>37.05008972096118</v>
+        <v>-0.1294991027903882</v>
       </c>
       <c r="L47">
         <v>-0.01542189183082579</v>
@@ -4812,13 +4812,13 @@
         <v>-0.06999999999999318</v>
       </c>
       <c r="U47">
-        <v>0.9999132868235389</v>
+        <v>-8.671317646113952E-05</v>
       </c>
       <c r="V47">
-        <v>0.9998263505193697</v>
+        <v>-0.0001736494806302558</v>
       </c>
       <c r="W47">
-        <v>1.000711406212948</v>
+        <v>0.0007114062129476295</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4853,7 +4853,7 @@
         <v>0.6804601131728016</v>
       </c>
       <c r="K48">
-        <v>40.49248820836665</v>
+        <v>-0.0950751179163335</v>
       </c>
       <c r="L48">
         <v>-0.01516188605584701</v>
@@ -4883,13 +4883,13 @@
         <v>-0.06124999999998693</v>
       </c>
       <c r="U48">
-        <v>0.9999369304026993</v>
+        <v>-6.306959730073558E-05</v>
       </c>
       <c r="V48">
-        <v>0.9999368437672692</v>
+        <v>-6.315623273078774E-05</v>
       </c>
       <c r="W48">
-        <v>1.000473933649289</v>
+        <v>0.0004739336492889379</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4924,7 +4924,7 @@
         <v>0.7288261647315466</v>
       </c>
       <c r="K49">
-        <v>42.15728449741037</v>
+        <v>-0.07842715502589626</v>
       </c>
       <c r="L49">
         <v>-0.01447784621177661</v>
@@ -4954,13 +4954,13 @@
         <v>-0.05249999999999488</v>
       </c>
       <c r="U49">
-        <v>0.9999290422277587</v>
+        <v>-7.095777224130906E-05</v>
       </c>
       <c r="V49">
-        <v>0.9999368397783075</v>
+        <v>-6.316022169250424E-05</v>
       </c>
       <c r="W49">
-        <v>1.000236854571293</v>
+        <v>0.000236854571293188</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4995,7 +4995,7 @@
         <v>0.9324726976105454</v>
       </c>
       <c r="K50">
-        <v>48.25282648306105</v>
+        <v>-0.01747173516938949</v>
       </c>
       <c r="L50">
         <v>-0.01318296583714761</v>
@@ -5025,13 +5025,13 @@
         <v>-0.03249999999999886</v>
       </c>
       <c r="U50">
-        <v>0.9999369219487965</v>
+        <v>-6.30780512035356E-05</v>
       </c>
       <c r="V50">
-        <v>0.9999842089472106</v>
+        <v>-1.579105278937121E-05</v>
       </c>
       <c r="W50">
-        <v>1.000947193937959</v>
+        <v>0.0009471939379588346</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -5066,7 +5066,7 @@
         <v>0.8033200572538011</v>
       </c>
       <c r="K51">
-        <v>44.5467266901663</v>
+        <v>-0.05453273309833706</v>
       </c>
       <c r="L51">
         <v>-0.01181109786610168</v>
@@ -5096,13 +5096,13 @@
         <v>-0.01500000000000057</v>
       </c>
       <c r="U51">
-        <v>0.9998974917007704</v>
+        <v>-0.0001025082992296422</v>
       </c>
       <c r="V51">
-        <v>0.9999368347913968</v>
+        <v>-6.316520860316643E-05</v>
       </c>
       <c r="W51">
-        <v>0.9992902767920511</v>
+        <v>-0.0007097232079489313</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -5137,7 +5137,7 @@
         <v>0.7321567130501182</v>
       </c>
       <c r="K52">
-        <v>42.2685030479072</v>
+        <v>-0.07731496952092803</v>
       </c>
       <c r="L52">
         <v>-0.01060939109232805</v>
@@ -5167,13 +5167,13 @@
         <v>0.004999999999995453</v>
       </c>
       <c r="U52">
-        <v>0.9998817090673944</v>
+        <v>-0.0001182909326056247</v>
       </c>
       <c r="V52">
-        <v>0.9999052462019522</v>
+        <v>-9.475379804779749E-05</v>
       </c>
       <c r="W52">
-        <v>0.999526515151515</v>
+        <v>-0.000473484848484973</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -5208,7 +5208,7 @@
         <v>0.7321567130501182</v>
       </c>
       <c r="K53">
-        <v>42.2685030479072</v>
+        <v>-0.07731496952092803</v>
       </c>
       <c r="L53">
         <v>-0.009548716836926303</v>
@@ -5238,13 +5238,13 @@
         <v>0.01999999999998181</v>
       </c>
       <c r="U53">
-        <v>0.9998974690632614</v>
+        <v>-0.0001025309367386207</v>
       </c>
       <c r="V53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -5279,7 +5279,7 @@
         <v>0.7321567130501183</v>
       </c>
       <c r="K54">
-        <v>42.2685030479072</v>
+        <v>-0.07731496952092803</v>
       </c>
       <c r="L54">
         <v>-0.008606303384214902</v>
@@ -5309,13 +5309,13 @@
         <v>0.03250000000001307</v>
       </c>
       <c r="U54">
-        <v>0.999913234157346</v>
+        <v>-8.676584265399079E-05</v>
       </c>
       <c r="V54">
-        <v>1.000015793796196</v>
+        <v>1.579379619642829E-05</v>
       </c>
       <c r="W54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5350,7 +5350,7 @@
         <v>0.8354796928135165</v>
       </c>
       <c r="K55">
-        <v>45.518329409183</v>
+        <v>-0.04481670590817005</v>
       </c>
       <c r="L55">
         <v>-0.007591826347651571</v>
@@ -5380,13 +5380,13 @@
         <v>0.03874999999999318</v>
       </c>
       <c r="U55">
-        <v>0.9999053381400522</v>
+        <v>-9.466185994777554E-05</v>
       </c>
       <c r="V55">
-        <v>1.000015793546757</v>
+        <v>1.579354675684819E-05</v>
       </c>
       <c r="W55">
-        <v>1.000473709142587</v>
+        <v>0.000473709142586598</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5421,7 +5421,7 @@
         <v>0.8354796928135165</v>
       </c>
       <c r="K56">
-        <v>45.518329409183</v>
+        <v>-0.04481670590817005</v>
       </c>
       <c r="L56">
         <v>-0.006570673180922709</v>
@@ -5451,13 +5451,13 @@
         <v>0.04250000000000398</v>
       </c>
       <c r="U56">
-        <v>0.9999211076486134</v>
+        <v>-7.889235138658357E-05</v>
       </c>
       <c r="V56">
-        <v>1.000047379891974</v>
+        <v>4.737989197400871E-05</v>
       </c>
       <c r="W56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5492,7 +5492,7 @@
         <v>0.6495654582062094</v>
       </c>
       <c r="K57">
-        <v>39.37797405824487</v>
+        <v>-0.1062202594175513</v>
       </c>
       <c r="L57">
         <v>-0.006017685179699771</v>
@@ -5522,13 +5522,13 @@
         <v>0.03499999999998238</v>
       </c>
       <c r="U57">
-        <v>0.9998658724210027</v>
+        <v>-0.000134127578997334</v>
       </c>
       <c r="V57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W57">
-        <v>0.9988162878787877</v>
+        <v>-0.001183712121212266</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5563,7 +5563,7 @@
         <v>0.620496947333289</v>
       </c>
       <c r="K58">
-        <v>38.29053478652872</v>
+        <v>-0.1170946521347128</v>
       </c>
       <c r="L58">
         <v>-0.005847899294148663</v>
@@ -5593,13 +5593,13 @@
         <v>0.01375000000000171</v>
       </c>
       <c r="U58">
-        <v>0.9998579635124045</v>
+        <v>-0.000142036487595476</v>
       </c>
       <c r="V58">
-        <v>0.9999842074509246</v>
+        <v>-1.579254907535521E-05</v>
       </c>
       <c r="W58">
-        <v>0.9997629770087699</v>
+        <v>-0.0002370229912300736</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5634,7 +5634,7 @@
         <v>0.5221174772868908</v>
       </c>
       <c r="K59">
-        <v>34.3020486314593</v>
+        <v>-0.156979513685407</v>
       </c>
       <c r="L59">
         <v>-0.006244706423723625</v>
@@ -5664,13 +5664,13 @@
         <v>-0.005000000000009663</v>
       </c>
       <c r="U59">
-        <v>0.9998421592613055</v>
+        <v>-0.0001578407386945146</v>
       </c>
       <c r="V59">
-        <v>0.9999526216045481</v>
+        <v>-4.737839545188027E-05</v>
       </c>
       <c r="W59">
-        <v>0.9990516832622096</v>
+        <v>-0.0009483167377903889</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5705,7 +5705,7 @@
         <v>0.4819039887837979</v>
       </c>
       <c r="K60">
-        <v>32.51924500043337</v>
+        <v>-0.1748075499956663</v>
       </c>
       <c r="L60">
         <v>-0.007109275282980552</v>
@@ -5735,13 +5735,13 @@
         <v>-0.02375000000000682</v>
       </c>
       <c r="U60">
-        <v>0.9998500276264898</v>
+        <v>-0.000149972373510221</v>
       </c>
       <c r="V60">
-        <v>0.9998894451727026</v>
+        <v>-0.0001105548272973822</v>
       </c>
       <c r="W60">
-        <v>0.9995253915519695</v>
+        <v>-0.0004746084480304891</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5776,7 +5776,7 @@
         <v>0.4819039887837978</v>
       </c>
       <c r="K61">
-        <v>32.51924500043337</v>
+        <v>-0.1748075499956663</v>
       </c>
       <c r="L61">
         <v>-0.008176378911240166</v>
@@ -5806,13 +5806,13 @@
         <v>-0.04000000000000625</v>
       </c>
       <c r="U61">
-        <v>0.9998421106646351</v>
+        <v>-0.0001578893353648692</v>
       </c>
       <c r="V61">
-        <v>0.9999210235349865</v>
+        <v>-7.897646501353606E-05</v>
       </c>
       <c r="W61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5847,7 +5847,7 @@
         <v>0.4621824950842764</v>
       </c>
       <c r="K62">
-        <v>31.60908413539977</v>
+        <v>-0.1839091586460023</v>
       </c>
       <c r="L62">
         <v>-0.009354796604933945</v>
@@ -5877,13 +5877,13 @@
         <v>-0.05999999999998806</v>
       </c>
       <c r="U62">
-        <v>0.9998420857316562</v>
+        <v>-0.0001579142683437729</v>
       </c>
       <c r="V62">
-        <v>0.9998578311349814</v>
+        <v>-0.0001421688650186104</v>
       </c>
       <c r="W62">
-        <v>0.9997625830959165</v>
+        <v>-0.0002374169040835206</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5918,7 +5918,7 @@
         <v>0.4430948487328694</v>
       </c>
       <c r="K63">
-        <v>30.70448551056332</v>
+        <v>-0.1929551448943668</v>
       </c>
       <c r="L63">
         <v>-0.01057791887466874</v>
@@ -5948,13 +5948,13 @@
         <v>-0.08249999999999602</v>
       </c>
       <c r="U63">
-        <v>0.9998736486326413</v>
+        <v>-0.0001263513673587235</v>
       </c>
       <c r="V63">
-        <v>0.9998104145601618</v>
+        <v>-0.000189585439838158</v>
       </c>
       <c r="W63">
-        <v>0.9997625267157445</v>
+        <v>-0.0002374732842554961</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -5989,7 +5989,7 @@
         <v>0.4430948487328695</v>
       </c>
       <c r="K64">
-        <v>30.70448551056332</v>
+        <v>-0.1929551448943668</v>
       </c>
       <c r="L64">
         <v>-0.01171187908702309</v>
@@ -6019,13 +6019,13 @@
         <v>-0.1025000000000063</v>
       </c>
       <c r="U64">
-        <v>0.9998657347075782</v>
+        <v>-0.0001342652924217758</v>
       </c>
       <c r="V64">
-        <v>0.9997945768282661</v>
+        <v>-0.0002054231717338872</v>
       </c>
       <c r="W64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -6060,7 +6060,7 @@
         <v>0.5803766381215409</v>
       </c>
       <c r="K65">
-        <v>36.72394441437613</v>
+        <v>-0.1327605558562386</v>
       </c>
       <c r="L65">
         <v>-0.01241835406642642</v>
@@ -6090,13 +6090,13 @@
         <v>-0.105000000000004</v>
       </c>
       <c r="U65">
-        <v>0.9998815147158723</v>
+        <v>-0.0001184852841277229</v>
       </c>
       <c r="V65">
-        <v>0.9997787295917562</v>
+        <v>-0.0002212704082438233</v>
       </c>
       <c r="W65">
-        <v>1.000712589073634</v>
+        <v>0.00071258907363414</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -6131,7 +6131,7 @@
         <v>0.5293774240604896</v>
       </c>
       <c r="K66">
-        <v>34.61391646902928</v>
+        <v>-0.1538608353097072</v>
       </c>
       <c r="L66">
         <v>-0.01294821044946772</v>
@@ -6161,13 +6161,13 @@
         <v>-0.1025000000000063</v>
       </c>
       <c r="U66">
-        <v>0.9998657007655057</v>
+        <v>-0.0001342992344942617</v>
       </c>
       <c r="V66">
-        <v>0.9997944891474462</v>
+        <v>-0.0002055108525538252</v>
       </c>
       <c r="W66">
-        <v>0.999525278898647</v>
+        <v>-0.0004747211013530483</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -6202,7 +6202,7 @@
         <v>0.4845571071056932</v>
       </c>
       <c r="K67">
-        <v>32.63984287208665</v>
+        <v>-0.1736015712791336</v>
       </c>
       <c r="L67">
         <v>-0.01346282296907788</v>
@@ -6232,13 +6232,13 @@
         <v>-0.09624999999999773</v>
       </c>
       <c r="U67">
-        <v>0.9998498806946572</v>
+        <v>-0.0001501193053428107</v>
       </c>
       <c r="V67">
-        <v>0.9997944469040538</v>
+        <v>-0.0002055530959461649</v>
       </c>
       <c r="W67">
-        <v>0.999525053431489</v>
+        <v>-0.0004749465685109922</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -6273,7 +6273,7 @@
         <v>0.5291182074291345</v>
       </c>
       <c r="K68">
-        <v>34.6028321982201</v>
+        <v>-0.153971678017799</v>
       </c>
       <c r="L68">
         <v>-0.01380027118403714</v>
@@ -6303,13 +6303,13 @@
         <v>-0.08624999999999261</v>
       </c>
       <c r="U68">
-        <v>0.9999051735718746</v>
+        <v>-9.482642812541631E-05</v>
       </c>
       <c r="V68">
-        <v>0.999810219670731</v>
+        <v>-0.0001897803292689737</v>
       </c>
       <c r="W68">
-        <v>1.00023758612497</v>
+        <v>0.0002375861249701572</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6344,7 +6344,7 @@
         <v>0.5291182074291345</v>
       </c>
       <c r="K69">
-        <v>34.6028321982201</v>
+        <v>-0.153971678017799</v>
       </c>
       <c r="L69">
         <v>-0.01395873804670784</v>
@@ -6374,13 +6374,13 @@
         <v>-0.07625000000000171</v>
       </c>
       <c r="U69">
-        <v>0.9999130675307227</v>
+        <v>-8.693246927726772E-05</v>
       </c>
       <c r="V69">
-        <v>0.9998101836473214</v>
+        <v>-0.0001898163526785623</v>
       </c>
       <c r="W69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6415,7 +6415,7 @@
         <v>0.4418520990098372</v>
       </c>
       <c r="K70">
-        <v>30.6447588704327</v>
+        <v>-0.193552411295673</v>
       </c>
       <c r="L70">
         <v>-0.01429316312753059</v>
@@ -6445,13 +6445,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U70">
-        <v>0.9998656381397995</v>
+        <v>-0.0001343618602005492</v>
       </c>
       <c r="V70">
-        <v>0.9997152214153494</v>
+        <v>-0.0002847785846505912</v>
       </c>
       <c r="W70">
-        <v>0.9990498812351544</v>
+        <v>-0.0009501187648456311</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6486,7 +6486,7 @@
         <v>0.4418520990098372</v>
       </c>
       <c r="K71">
-        <v>30.6447588704327</v>
+        <v>-0.193552411295673</v>
       </c>
       <c r="L71">
         <v>-0.01466105833668913</v>
@@ -6516,13 +6516,13 @@
         <v>-0.05624999999999147</v>
       </c>
       <c r="U71">
-        <v>0.9998814294861154</v>
+        <v>-0.0001185705138846416</v>
       </c>
       <c r="V71">
-        <v>0.9997151402934057</v>
+        <v>-0.0002848597065943093</v>
       </c>
       <c r="W71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6557,7 +6557,7 @@
         <v>0.4418520990098372</v>
       </c>
       <c r="K72">
-        <v>30.6447588704327</v>
+        <v>-0.193552411295673</v>
       </c>
       <c r="L72">
         <v>-0.01497259497563027</v>
@@ -6587,13 +6587,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U72">
-        <v>0.9998972267020843</v>
+        <v>-0.0001027732979157481</v>
       </c>
       <c r="V72">
-        <v>0.9997942093682225</v>
+        <v>-0.0002057906317775027</v>
       </c>
       <c r="W72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6628,7 +6628,7 @@
         <v>0.4418520990098372</v>
       </c>
       <c r="K73">
-        <v>30.6447588704327</v>
+        <v>-0.193552411295673</v>
       </c>
       <c r="L73">
         <v>-0.01517577681231411</v>
@@ -6658,13 +6658,13 @@
         <v>-0.04499999999998749</v>
       </c>
       <c r="U73">
-        <v>0.9998972161386475</v>
+        <v>-0.00010278386135254</v>
       </c>
       <c r="V73">
-        <v>0.9998100003166664</v>
+        <v>-0.0001899996833335527</v>
       </c>
       <c r="W73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6699,7 +6699,7 @@
         <v>0.4924740047196564</v>
       </c>
       <c r="K74">
-        <v>32.99715795131465</v>
+        <v>-0.1700284204868535</v>
       </c>
       <c r="L74">
         <v>-0.01515887768044618</v>
@@ -6729,13 +6729,13 @@
         <v>-0.04124999999999091</v>
       </c>
       <c r="U74">
-        <v>0.9999209273638764</v>
+        <v>-7.907263612361159E-05</v>
       </c>
       <c r="V74">
-        <v>0.9998891457891235</v>
+        <v>-0.000110854210876532</v>
       </c>
       <c r="W74">
-        <v>1.000237755587256</v>
+        <v>0.0002377555872563608</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6770,7 +6770,7 @@
         <v>0.4675595265444352</v>
       </c>
       <c r="K75">
-        <v>31.85966348127401</v>
+        <v>-0.1814033651872599</v>
       </c>
       <c r="L75">
         <v>-0.01504095292396243</v>
@@ -6800,13 +6800,13 @@
         <v>-0.03875000000000739</v>
       </c>
       <c r="U75">
-        <v>0.99989719744417</v>
+        <v>-0.0001028025558299506</v>
       </c>
       <c r="V75">
-        <v>0.9999049715706616</v>
+        <v>-9.502842933839517E-05</v>
       </c>
       <c r="W75">
-        <v>0.9997623009270264</v>
+        <v>-0.0002376990729735518</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6841,7 +6841,7 @@
         <v>0.4439194409911223</v>
       </c>
       <c r="K76">
-        <v>30.74405873269572</v>
+        <v>-0.1925594126730428</v>
       </c>
       <c r="L76">
         <v>-0.01490103541949205</v>
@@ -6871,13 +6871,13 @@
         <v>-0.04249999999998977</v>
       </c>
       <c r="U76">
-        <v>0.9999050955766634</v>
+        <v>-9.490442333659477E-05</v>
       </c>
       <c r="V76">
-        <v>0.9998891229626343</v>
+        <v>-0.0001108770373656753</v>
       </c>
       <c r="W76">
-        <v>0.9997622444127435</v>
+        <v>-0.0002377555872564718</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6912,7 +6912,7 @@
         <v>0.3660023997418465</v>
       </c>
       <c r="K77">
-        <v>26.79368643942465</v>
+        <v>-0.2320631356057535</v>
       </c>
       <c r="L77">
         <v>-0.01504814460704112</v>
@@ -6942,13 +6942,13 @@
         <v>-0.05124999999999602</v>
       </c>
       <c r="U77">
-        <v>0.999849720400851</v>
+        <v>-0.0001502795991490391</v>
       </c>
       <c r="V77">
-        <v>0.999841586667934</v>
+        <v>-0.0001584133320660097</v>
       </c>
       <c r="W77">
-        <v>0.9990487514863258</v>
+        <v>-0.0009512485136742299</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -6983,7 +6983,7 @@
         <v>0.2865801697161818</v>
       </c>
       <c r="K78">
-        <v>22.27456760657216</v>
+        <v>-0.2772543239342784</v>
       </c>
       <c r="L78">
         <v>-0.01582369485924735</v>
@@ -7013,13 +7013,13 @@
         <v>-0.05875000000000341</v>
       </c>
       <c r="U78">
-        <v>0.9997864126823401</v>
+        <v>-0.0002135873176598579</v>
       </c>
       <c r="V78">
-        <v>0.9997623423537614</v>
+        <v>-0.0002376576462386204</v>
       </c>
       <c r="W78">
-        <v>0.9985717686265176</v>
+        <v>-0.001428231373482358</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -7054,7 +7054,7 @@
         <v>0.3627202418891093</v>
       </c>
       <c r="K79">
-        <v>26.61736655399484</v>
+        <v>-0.2338263344600516</v>
       </c>
       <c r="L79">
         <v>-0.01670059052674876</v>
@@ -7084,13 +7084,13 @@
         <v>-0.06499999999999773</v>
       </c>
       <c r="U79">
-        <v>0.9997942793844207</v>
+        <v>-0.0002057206155793301</v>
       </c>
       <c r="V79">
-        <v>0.9997939810779545</v>
+        <v>-0.0002060189220455255</v>
       </c>
       <c r="W79">
-        <v>1.000476758045292</v>
+        <v>0.0004767580452920139</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -7125,7 +7125,7 @@
         <v>0.323793419288455</v>
       </c>
       <c r="K80">
-        <v>24.45951268306618</v>
+        <v>-0.2554048731693382</v>
       </c>
       <c r="L80">
         <v>-0.01778186887993403</v>
@@ -7155,13 +7155,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U80">
-        <v>0.9997388393387094</v>
+        <v>-0.0002611606612905604</v>
       </c>
       <c r="V80">
-        <v>0.9996988333756023</v>
+        <v>-0.0003011666243977196</v>
       </c>
       <c r="W80">
-        <v>0.9992852037169406</v>
+        <v>-0.0007147962830593713</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -7196,7 +7196,7 @@
         <v>0.3614492561248944</v>
       </c>
       <c r="K81">
-        <v>26.548859937218</v>
+        <v>-0.23451140062782</v>
       </c>
       <c r="L81">
         <v>-0.01876734009616535</v>
@@ -7226,13 +7226,13 @@
         <v>-0.07999999999999829</v>
       </c>
       <c r="U81">
-        <v>0.9997704352231529</v>
+        <v>-0.0002295647768471021</v>
       </c>
       <c r="V81">
-        <v>0.9997463095974251</v>
+        <v>-0.0002536904025749465</v>
       </c>
       <c r="W81">
-        <v>1.000238435860754</v>
+        <v>0.0002384358607536718</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -7267,7 +7267,7 @@
         <v>0.4010869791105919</v>
       </c>
       <c r="K82">
-        <v>28.62684366428138</v>
+        <v>-0.2137315633571862</v>
       </c>
       <c r="L82">
         <v>-0.01947753164049373</v>
@@ -7297,13 +7297,13 @@
         <v>-0.08875000000000455</v>
       </c>
       <c r="U82">
-        <v>0.9997941360444031</v>
+        <v>-0.0002058639555968522</v>
       </c>
       <c r="V82">
-        <v>0.9997938242430972</v>
+        <v>-0.0002061757569028488</v>
       </c>
       <c r="W82">
-        <v>1.000238379022646</v>
+        <v>0.0002383790226458959</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -7338,7 +7338,7 @@
         <v>0.401086979110592</v>
       </c>
       <c r="K83">
-        <v>28.62684366428138</v>
+        <v>-0.2137315633571862</v>
       </c>
       <c r="L83">
         <v>-0.01990502031862683</v>
@@ -7368,13 +7368,13 @@
         <v>-0.0975000000000108</v>
       </c>
       <c r="U83">
-        <v>0.9997940936557088</v>
+        <v>-0.0002059063442911846</v>
       </c>
       <c r="V83">
-        <v>0.9997779187817258</v>
+        <v>-0.0002220812182741616</v>
       </c>
       <c r="W83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7409,7 +7409,7 @@
         <v>0.3842124031507487</v>
       </c>
       <c r="K84">
-        <v>27.75675194617554</v>
+        <v>-0.2224324805382446</v>
       </c>
       <c r="L84">
         <v>-0.02014821469926391</v>
@@ -7439,13 +7439,13 @@
         <v>-0.1037500000000051</v>
       </c>
       <c r="U84">
-        <v>0.9997861301437679</v>
+        <v>-0.0002138698562320629</v>
       </c>
       <c r="V84">
-        <v>0.999762002982896</v>
+        <v>-0.0002379970171040302</v>
       </c>
       <c r="W84">
-        <v>0.9997616777883699</v>
+        <v>-0.0002383222116301154</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7480,7 +7480,7 @@
         <v>0.3529505606018639</v>
       </c>
       <c r="K85">
-        <v>26.08746918622458</v>
+        <v>-0.2391253081377542</v>
       </c>
       <c r="L85">
         <v>-0.02036414198156863</v>
@@ -7510,13 +7510,13 @@
         <v>-0.102499999999992</v>
       </c>
       <c r="U85">
-        <v>0.99975439319273</v>
+        <v>-0.0002456068072700379</v>
       </c>
       <c r="V85">
-        <v>0.9997936868165875</v>
+        <v>-0.0002063131834124654</v>
       </c>
       <c r="W85">
-        <v>0.9995232419547079</v>
+        <v>-0.000476758045292125</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7551,7 +7551,7 @@
         <v>0.4814232585672705</v>
       </c>
       <c r="K86">
-        <v>32.49734711421161</v>
+        <v>-0.1750265288578839</v>
       </c>
       <c r="L86">
         <v>-0.02021630182326961</v>
@@ -7581,13 +7581,13 @@
         <v>-0.08750000000000568</v>
       </c>
       <c r="U86">
-        <v>0.9997781070950257</v>
+        <v>-0.000221892904974319</v>
       </c>
       <c r="V86">
-        <v>0.9998412648020572</v>
+        <v>-0.0001587351979428497</v>
       </c>
       <c r="W86">
-        <v>1.000715478177916</v>
+        <v>0.0007154781779155073</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7622,7 +7622,7 @@
         <v>0.5265013982042445</v>
       </c>
       <c r="K87">
-        <v>34.4907249232535</v>
+        <v>-0.155092750767465</v>
       </c>
       <c r="L87">
         <v>-0.01969736940036248</v>
@@ -7652,13 +7652,13 @@
         <v>-0.07625000000000171</v>
       </c>
       <c r="U87">
-        <v>0.9998256168802861</v>
+        <v>-0.0001743831197138501</v>
       </c>
       <c r="V87">
-        <v>0.9998571156410746</v>
+        <v>-0.0001428843589253992</v>
       </c>
       <c r="W87">
-        <v>1.00023832221163</v>
+        <v>0.0002383222116300043</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7693,7 +7693,7 @@
         <v>0.4808665180997285</v>
       </c>
       <c r="K88">
-        <v>32.4719690952824</v>
+        <v>-0.175280309047176</v>
       </c>
       <c r="L88">
         <v>-0.01908806283314703</v>
@@ -7723,13 +7723,13 @@
         <v>-0.05999999999998806</v>
       </c>
       <c r="U88">
-        <v>0.9998176585775784</v>
+        <v>-0.0001823414224215725</v>
       </c>
       <c r="V88">
-        <v>0.9998253386049316</v>
+        <v>-0.0001746613950683873</v>
       </c>
       <c r="W88">
-        <v>0.9995234691446272</v>
+        <v>-0.0004765308553728032</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7764,7 +7764,7 @@
         <v>0.4598870273027731</v>
       </c>
       <c r="K89">
-        <v>31.50154900358567</v>
+        <v>-0.1849845099641433</v>
       </c>
       <c r="L89">
         <v>-0.01847998149950121</v>
@@ -7794,13 +7794,13 @@
         <v>-0.04749999999999943</v>
       </c>
       <c r="U89">
-        <v>0.9998414133244523</v>
+        <v>-0.0001585866755476895</v>
       </c>
       <c r="V89">
-        <v>0.9997935459280907</v>
+        <v>-0.0002064540719093344</v>
       </c>
       <c r="W89">
-        <v>0.9997616209773539</v>
+        <v>-0.000238379022646118</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7835,7 +7835,7 @@
         <v>0.4598870273027731</v>
       </c>
       <c r="K90">
-        <v>31.50154900358567</v>
+        <v>-0.1849845099641433</v>
       </c>
       <c r="L90">
         <v>-0.01784419935250363</v>
@@ -7865,13 +7865,13 @@
         <v>-0.03624999999999545</v>
       </c>
       <c r="U90">
-        <v>0.9998572493536569</v>
+        <v>-0.0001427506463430595</v>
       </c>
       <c r="V90">
-        <v>0.9998093876578507</v>
+        <v>-0.0001906123421493433</v>
       </c>
       <c r="W90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7906,7 +7906,7 @@
         <v>0.4598870273027731</v>
       </c>
       <c r="K91">
-        <v>31.50154900358567</v>
+        <v>-0.1849845099641433</v>
       </c>
       <c r="L91">
         <v>-0.01716724503893308</v>
@@ -7936,13 +7936,13 @@
         <v>-0.02625000000000455</v>
       </c>
       <c r="U91">
-        <v>0.9998572289730002</v>
+        <v>-0.0001427710269997773</v>
       </c>
       <c r="V91">
-        <v>0.9998252387080375</v>
+        <v>-0.0001747612919624775</v>
       </c>
       <c r="W91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -7977,7 +7977,7 @@
         <v>0.4376183163033271</v>
       </c>
       <c r="K92">
-        <v>30.44050784137289</v>
+        <v>-0.1955949215862711</v>
       </c>
       <c r="L92">
         <v>-0.01653266022556133</v>
@@ -8007,13 +8007,13 @@
         <v>-0.01624999999999943</v>
       </c>
       <c r="U92">
-        <v>0.9998572085865238</v>
+        <v>-0.0001427914134761732</v>
       </c>
       <c r="V92">
-        <v>0.9998728786626836</v>
+        <v>-0.0001271213373164048</v>
       </c>
       <c r="W92">
-        <v>0.9997615641392466</v>
+        <v>-0.0002384358607534498</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -8048,7 +8048,7 @@
         <v>0.4885889830732705</v>
       </c>
       <c r="K93">
-        <v>32.82228933768894</v>
+        <v>-0.1717771066231106</v>
       </c>
       <c r="L93">
         <v>-0.01581741456517675</v>
@@ -8078,13 +8078,13 @@
         <v>-0.005000000000009663</v>
       </c>
       <c r="U93">
-        <v>0.9998730561726437</v>
+        <v>-0.0001269438273563406</v>
       </c>
       <c r="V93">
-        <v>0.9999841078125993</v>
+        <v>-1.58921874007234E-05</v>
       </c>
       <c r="W93">
-        <v>1.000238492725972</v>
+        <v>0.0002384927259717617</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -8119,7 +8119,7 @@
         <v>0.4885889830732705</v>
       </c>
       <c r="K94">
-        <v>32.82228933768894</v>
+        <v>-0.1717771066231106</v>
       </c>
       <c r="L94">
         <v>-0.01504129689779484</v>
@@ -8149,13 +8149,13 @@
         <v>-0.008749999999992042</v>
       </c>
       <c r="U94">
-        <v>0.9998730400558622</v>
+        <v>-0.0001269599441378055</v>
       </c>
       <c r="V94">
-        <v>0.999952322680101</v>
+        <v>-4.76773198989644E-05</v>
       </c>
       <c r="W94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -8190,7 +8190,7 @@
         <v>0.417800401259569</v>
       </c>
       <c r="K95">
-        <v>29.46821011535873</v>
+        <v>-0.2053178988464127</v>
       </c>
       <c r="L95">
         <v>-0.01448302424482566</v>
@@ -8220,13 +8220,13 @@
         <v>-0.01624999999999943</v>
       </c>
       <c r="U95">
-        <v>0.9998254079106089</v>
+        <v>-0.0001745920893910791</v>
       </c>
       <c r="V95">
-        <v>0.999952320406866</v>
+        <v>-4.767959313400905E-05</v>
       </c>
       <c r="W95">
-        <v>0.9992846924177397</v>
+        <v>-0.0007153075822603494</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -8261,7 +8261,7 @@
         <v>0.417800401259569</v>
       </c>
       <c r="K96">
-        <v>29.46821011535873</v>
+        <v>-0.2053178988464127</v>
       </c>
       <c r="L96">
         <v>-0.01403969615024133</v>
@@ -8291,13 +8291,13 @@
         <v>-0.02250000000000796</v>
       </c>
       <c r="U96">
-        <v>0.9998412522026255</v>
+        <v>-0.0001587477973744589</v>
       </c>
       <c r="V96">
-        <v>0.9999364241778851</v>
+        <v>-6.357582211491408E-05</v>
       </c>
       <c r="W96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -8332,7 +8332,7 @@
         <v>0.5248243749879873</v>
       </c>
       <c r="K97">
-        <v>34.41867690448757</v>
+        <v>-0.1558132309551243</v>
       </c>
       <c r="L97">
         <v>-0.01346982855407459</v>
@@ -8362,13 +8362,13 @@
         <v>-0.02250000000000796</v>
       </c>
       <c r="U97">
-        <v>0.9998729815982093</v>
+        <v>-0.0001270184017907461</v>
       </c>
       <c r="V97">
-        <v>0.999952315101807</v>
+        <v>-4.768489819295674E-05</v>
       </c>
       <c r="W97">
-        <v>1.000477213075638</v>
+        <v>0.0004772130756383053</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8403,7 +8403,7 @@
         <v>0.5811527822134505</v>
       </c>
       <c r="K98">
-        <v>36.75500487687828</v>
+        <v>-0.1324499512312172</v>
       </c>
       <c r="L98">
         <v>-0.01272384669526997</v>
@@ -8433,13 +8433,13 @@
         <v>-0.02000000000001023</v>
       </c>
       <c r="U98">
-        <v>0.9998729654624849</v>
+        <v>-0.0001270345375150583</v>
       </c>
       <c r="V98">
-        <v>0.9999682085518998</v>
+        <v>-3.179144810017132E-05</v>
       </c>
       <c r="W98">
-        <v>1.000238492725972</v>
+        <v>0.0002384927259717617</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8474,7 +8474,7 @@
         <v>0.5811527822134505</v>
       </c>
       <c r="K99">
-        <v>36.75500487687828</v>
+        <v>-0.1324499512312172</v>
       </c>
       <c r="L99">
         <v>-0.01187232821900544</v>
@@ -8504,13 +8504,13 @@
         <v>-0.01750000000001251</v>
       </c>
       <c r="U99">
-        <v>0.9998729493226612</v>
+        <v>-0.0001270506773387581</v>
       </c>
       <c r="V99">
-        <v>0.9999841037705854</v>
+        <v>-1.589622941455815E-05</v>
       </c>
       <c r="W99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8545,7 +8545,7 @@
         <v>0.7683940250682205</v>
       </c>
       <c r="K100">
-        <v>43.45151669682766</v>
+        <v>-0.06548483303172342</v>
       </c>
       <c r="L100">
         <v>-0.01070766151382925</v>
@@ -8575,13 +8575,13 @@
         <v>-0.01000000000000512</v>
       </c>
       <c r="U100">
-        <v>0.9999285249130386</v>
+        <v>-7.147508696137006E-05</v>
       </c>
       <c r="V100">
-        <v>1.000063585928434</v>
+        <v>6.358592843414002E-05</v>
       </c>
       <c r="W100">
-        <v>1.00071530758226</v>
+        <v>0.0007153075822603494</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8616,7 +8616,7 @@
         <v>0.7210237173607269</v>
       </c>
       <c r="K101">
-        <v>41.89504828361411</v>
+        <v>-0.08104951716385889</v>
       </c>
       <c r="L101">
         <v>-0.009475125370737351</v>
@@ -8646,13 +8646,13 @@
         <v>-0.008750000000020464</v>
       </c>
       <c r="U101">
-        <v>0.9999205775599836</v>
+        <v>-7.942244001635235E-05</v>
       </c>
       <c r="V101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W101">
-        <v>0.9997617345723137</v>
+        <v>-0.0002382654276863461</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8687,7 +8687,7 @@
         <v>0.7210237173607269</v>
       </c>
       <c r="K102">
-        <v>41.89504828361411</v>
+        <v>-0.08104951716385889</v>
       </c>
       <c r="L102">
         <v>-0.008245454003037856</v>
@@ -8717,13 +8717,13 @@
         <v>-0.003749999999996589</v>
       </c>
       <c r="U102">
-        <v>0.9999205712515586</v>
+        <v>-7.942874844135694E-05</v>
       </c>
       <c r="V102">
-        <v>0.9999841045286196</v>
+        <v>-1.589547138036718E-05</v>
       </c>
       <c r="W102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8758,7 +8758,7 @@
         <v>0.7210237173607269</v>
       </c>
       <c r="K103">
-        <v>41.89504828361411</v>
+        <v>-0.08104951716385889</v>
       </c>
       <c r="L103">
         <v>-0.007065815963624074</v>
@@ -8788,13 +8788,13 @@
         <v>0.01000000000000512</v>
       </c>
       <c r="U103">
-        <v>0.9999205649421317</v>
+        <v>-7.943505786833782E-05</v>
       </c>
       <c r="V103">
-        <v>1.00001589572405</v>
+        <v>1.589572405036321E-05</v>
       </c>
       <c r="W103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8829,7 +8829,7 @@
         <v>0.5930880014907837</v>
       </c>
       <c r="K104">
-        <v>37.22882859802989</v>
+        <v>-0.1277117140197011</v>
       </c>
       <c r="L104">
         <v>-0.006226205720321682</v>
@@ -8859,13 +8859,13 @@
         <v>0.01749999999999829</v>
       </c>
       <c r="U104">
-        <v>0.9998887820843828</v>
+        <v>-0.00011121791561719</v>
       </c>
       <c r="V104">
-        <v>0.9999841045286196</v>
+        <v>-1.589547138036718E-05</v>
       </c>
       <c r="W104">
-        <v>0.9992850333651097</v>
+        <v>-0.0007149666348903461</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8900,7 +8900,7 @@
         <v>0.7176046402248568</v>
       </c>
       <c r="K105">
-        <v>41.77938411548033</v>
+        <v>-0.08220615884519672</v>
       </c>
       <c r="L105">
         <v>-0.005449925086849769</v>
@@ -8930,13 +8930,13 @@
         <v>0.02124999999999488</v>
       </c>
       <c r="U105">
-        <v>0.9999126047749572</v>
+        <v>-8.739522504275232E-05</v>
       </c>
       <c r="V105">
-        <v>1.00001589572405</v>
+        <v>1.589572405036321E-05</v>
       </c>
       <c r="W105">
-        <v>1.000476985451944</v>
+        <v>0.0004769854519437455</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -8971,7 +8971,7 @@
         <v>0.6734688124271284</v>
       </c>
       <c r="K106">
-        <v>40.2438818952567</v>
+        <v>-0.097561181047433</v>
       </c>
       <c r="L106">
         <v>-0.004828403701894112</v>
@@ -9001,13 +9001,13 @@
         <v>0.02124999999998067</v>
       </c>
       <c r="U106">
-        <v>0.9999125971363642</v>
+        <v>-8.740286363584371E-05</v>
       </c>
       <c r="V106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W106">
-        <v>0.9997616209773539</v>
+        <v>-0.000238379022646118</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -9042,7 +9042,7 @@
         <v>0.6325186376445274</v>
       </c>
       <c r="K107">
-        <v>38.74495660013746</v>
+        <v>-0.1125504339986254</v>
       </c>
       <c r="L107">
         <v>-0.004409454040633387</v>
@@ -9072,13 +9072,13 @@
         <v>0.01999999999999602</v>
       </c>
       <c r="U107">
-        <v>0.9999364287246808</v>
+        <v>-6.357127531919637E-05</v>
       </c>
       <c r="V107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W107">
-        <v>0.9997615641392466</v>
+        <v>-0.0002384358607534498</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -9113,7 +9113,7 @@
         <v>0.5607383901030848</v>
       </c>
       <c r="K108">
-        <v>35.92776301645586</v>
+        <v>-0.1407223698354415</v>
       </c>
       <c r="L108">
         <v>-0.004297455873120411</v>
@@ -9143,13 +9143,13 @@
         <v>0.00750000000000739</v>
       </c>
       <c r="U108">
-        <v>0.9999682123415585</v>
+        <v>-3.178765844147335E-05</v>
       </c>
       <c r="V108">
-        <v>0.9999523135858593</v>
+        <v>-4.768641414065744E-05</v>
       </c>
       <c r="W108">
-        <v>0.9995230145480563</v>
+        <v>-0.0004769854519437455</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -9184,7 +9184,7 @@
         <v>0.7996504183340855</v>
       </c>
       <c r="K109">
-        <v>44.43365279098549</v>
+        <v>-0.05566347209014511</v>
       </c>
       <c r="L109">
         <v>-0.004015796058934417</v>
@@ -9214,13 +9214,13 @@
         <v>0.0037500000000108</v>
       </c>
       <c r="U109">
-        <v>0.9999841056655353</v>
+        <v>-1.589433446469446E-05</v>
       </c>
       <c r="V109">
-        <v>1.000015896229415</v>
+        <v>1.589622941455815E-05</v>
       </c>
       <c r="W109">
-        <v>1.000954426151277</v>
+        <v>0.0009544261512766106</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -9255,7 +9255,7 @@
         <v>0.8625220047106421</v>
       </c>
       <c r="K110">
-        <v>46.30935916618294</v>
+        <v>-0.03690640833817055</v>
       </c>
       <c r="L110">
         <v>-0.003547867269241713</v>
@@ -9285,13 +9285,13 @@
         <v>0.001249999999984652</v>
       </c>
       <c r="U110">
-        <v>1.000015894587098</v>
+        <v>1.589458709827518E-05</v>
       </c>
       <c r="V110">
-        <v>1.000079479883641</v>
+        <v>7.947988364143121E-05</v>
       </c>
       <c r="W110">
-        <v>1.000238379022646</v>
+        <v>0.0002383790226458959</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -9326,7 +9326,7 @@
         <v>0.8089830097874637</v>
       </c>
       <c r="K111">
-        <v>44.72032105390037</v>
+        <v>-0.05279678946099631</v>
       </c>
       <c r="L111">
         <v>-0.003070760695177399</v>
@@ -9356,13 +9356,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V111">
-        <v>1.000063578853673</v>
+        <v>6.357885367314076E-05</v>
       </c>
       <c r="W111">
-        <v>0.9997616777883699</v>
+        <v>-0.0002383222116301154</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9397,7 +9397,7 @@
         <v>0.874322602810539</v>
       </c>
       <c r="K112">
-        <v>46.64739151624677</v>
+        <v>-0.03352608483753228</v>
       </c>
       <c r="L112">
         <v>-0.002520512248260989</v>
@@ -9427,13 +9427,13 @@
         <v>-0.004999999999995453</v>
       </c>
       <c r="U112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V112">
-        <v>1.000047681108745</v>
+        <v>4.768110874486808E-05</v>
       </c>
       <c r="W112">
-        <v>1.000238379022646</v>
+        <v>0.0002383790226458959</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9468,7 +9468,7 @@
         <v>0.874322602810539</v>
       </c>
       <c r="K113">
-        <v>46.64739151624677</v>
+        <v>-0.03352608483753228</v>
       </c>
       <c r="L113">
         <v>-0.0019518270715558</v>
@@ -9498,13 +9498,13 @@
         <v>-0.006250000000008527</v>
       </c>
       <c r="U113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V113">
-        <v>1.000031785890243</v>
+        <v>3.178589024344092E-05</v>
       </c>
       <c r="W113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9539,7 +9539,7 @@
         <v>0.874322602810539</v>
       </c>
       <c r="K114">
-        <v>46.64739151624677</v>
+        <v>-0.03352608483753228</v>
       </c>
       <c r="L114">
         <v>-0.001401098578679106</v>
@@ -9569,13 +9569,13 @@
         <v>-0.003749999999982379</v>
       </c>
       <c r="U114">
-        <v>1.000007947167232</v>
+        <v>7.947167232291719E-06</v>
       </c>
       <c r="V114">
-        <v>1.000031784879933</v>
+        <v>3.178487993271695E-05</v>
       </c>
       <c r="W114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9610,7 +9610,7 @@
         <v>0.6700634487935945</v>
       </c>
       <c r="K115">
-        <v>40.12203543988876</v>
+        <v>-0.09877964560111235</v>
       </c>
       <c r="L115">
         <v>-0.001238446726505989</v>
@@ -9640,13 +9640,13 @@
         <v>-0.0037500000000108</v>
       </c>
       <c r="U115">
-        <v>0.9999920528959246</v>
+        <v>-7.947104075367584E-06</v>
       </c>
       <c r="V115">
-        <v>0.9999205403257847</v>
+        <v>-7.945967421529865E-05</v>
       </c>
       <c r="W115">
-        <v>0.9990467111534795</v>
+        <v>-0.0009532888465204614</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9681,7 +9681,7 @@
         <v>0.6700634487935945</v>
       </c>
       <c r="K116">
-        <v>40.12203543988876</v>
+        <v>-0.09877964560111235</v>
       </c>
       <c r="L116">
         <v>-0.001316770744075275</v>
@@ -9711,13 +9711,13 @@
         <v>0.004999999999995453</v>
       </c>
       <c r="U116">
-        <v>0.9999682113310711</v>
+        <v>-3.178866892894483E-05</v>
       </c>
       <c r="V116">
-        <v>0.9999364272091542</v>
+        <v>-6.357279084578948E-05</v>
       </c>
       <c r="W116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9752,7 +9752,7 @@
         <v>0.7347781009429197</v>
       </c>
       <c r="K117">
-        <v>42.35573993835518</v>
+        <v>-0.0764426006164482</v>
       </c>
       <c r="L117">
         <v>-0.001444504111547569</v>
@@ -9782,13 +9782,13 @@
         <v>0.0037500000000108</v>
       </c>
       <c r="U117">
-        <v>0.9999682103205195</v>
+        <v>-3.178967948047617E-05</v>
       </c>
       <c r="V117">
-        <v>0.9999523173755487</v>
+        <v>-4.768262445131732E-05</v>
       </c>
       <c r="W117">
-        <v>1.000238549618321</v>
+        <v>0.0002385496183205937</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9823,7 +9823,7 @@
         <v>0.6466743056871971</v>
       </c>
       <c r="K118">
-        <v>39.27153678500645</v>
+        <v>-0.1072846321499356</v>
       </c>
       <c r="L118">
         <v>-0.001762386627111264</v>
@@ -9853,13 +9853,13 @@
         <v>-0.002500000000011937</v>
       </c>
       <c r="U118">
-        <v>0.9999682093099034</v>
+        <v>-3.17906900966225E-05</v>
       </c>
       <c r="V118">
-        <v>0.9999205251696787</v>
+        <v>-7.947483032133551E-05</v>
       </c>
       <c r="W118">
-        <v>0.9995230145480563</v>
+        <v>-0.0004769854519437455</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9894,7 +9894,7 @@
         <v>0.709782363066907</v>
       </c>
       <c r="K119">
-        <v>41.5130240198373</v>
+        <v>-0.08486975980162698</v>
       </c>
       <c r="L119">
         <v>-0.002082001277992131</v>
@@ -9924,13 +9924,13 @@
         <v>-0.005000000000009663</v>
       </c>
       <c r="U119">
-        <v>0.9999841041496119</v>
+        <v>-1.589585038808128E-05</v>
       </c>
       <c r="V119">
-        <v>0.9999841037705856</v>
+        <v>-1.589622941444713E-05</v>
       </c>
       <c r="W119">
-        <v>1.000238606537819</v>
+        <v>0.0002386065378192637</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -9965,7 +9965,7 @@
         <v>0.5918361616497614</v>
       </c>
       <c r="K120">
-        <v>37.17946456476959</v>
+        <v>-0.1282053543523041</v>
       </c>
       <c r="L120">
         <v>-0.002635153408124276</v>
@@ -9995,13 +9995,13 @@
         <v>-0.01749999999999829</v>
       </c>
       <c r="U120">
-        <v>0.9999602597423242</v>
+        <v>-3.974025767583544E-05</v>
       </c>
       <c r="V120">
-        <v>0.9999046211073488</v>
+        <v>-9.537889265121002E-05</v>
       </c>
       <c r="W120">
-        <v>0.9992843511450381</v>
+        <v>-0.0007156488549618922</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -10036,7 +10036,7 @@
         <v>0.5918361616497613</v>
       </c>
       <c r="K121">
-        <v>37.17946456476959</v>
+        <v>-0.1282053543523041</v>
       </c>
       <c r="L121">
         <v>-0.003284979029699822</v>
@@ -10066,13 +10066,13 @@
         <v>-0.0274999999999892</v>
       </c>
       <c r="U121">
-        <v>0.9999602581629732</v>
+        <v>-3.974183702681877E-05</v>
       </c>
       <c r="V121">
-        <v>0.9999205100077899</v>
+        <v>-7.948999221008002E-05</v>
       </c>
       <c r="W121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -10107,7 +10107,7 @@
         <v>0.6532109898693241</v>
       </c>
       <c r="K122">
-        <v>39.51165301175238</v>
+        <v>-0.1048834698824762</v>
       </c>
       <c r="L122">
         <v>-0.003853227431010791</v>
@@ -10137,13 +10137,13 @@
         <v>-0.03750000000000853</v>
       </c>
       <c r="U122">
-        <v>0.9999761539500982</v>
+        <v>-2.384604990179895E-05</v>
       </c>
       <c r="V122">
-        <v>0.9999523022131775</v>
+        <v>-4.769778682245374E-05</v>
       </c>
       <c r="W122">
-        <v>1.000238720458343</v>
+        <v>0.0002387204583431668</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -10178,7 +10178,7 @@
         <v>0.6135711736748312</v>
       </c>
       <c r="K123">
-        <v>38.02566528735465</v>
+        <v>-0.1197433471264535</v>
       </c>
       <c r="L123">
         <v>-0.004408658934864824</v>
@@ -10208,13 +10208,13 @@
         <v>-0.04000000000000625</v>
       </c>
       <c r="U123">
-        <v>0.9999602556357509</v>
+        <v>-3.974436424913907E-05</v>
       </c>
       <c r="V123">
-        <v>0.9999681999586599</v>
+        <v>-3.180004134006875E-05</v>
       </c>
       <c r="W123">
-        <v>0.9997613365155131</v>
+        <v>-0.0002386634844868674</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -10249,7 +10249,7 @@
         <v>0.6135711736748312</v>
       </c>
       <c r="K124">
-        <v>38.02566528735465</v>
+        <v>-0.1197433471264535</v>
       </c>
       <c r="L124">
         <v>-0.004904917728494745</v>
@@ -10279,13 +10279,13 @@
         <v>-0.04500000000000171</v>
       </c>
       <c r="U124">
-        <v>0.9999602540560736</v>
+        <v>-3.974594392641695E-05</v>
       </c>
       <c r="V124">
-        <v>0.9999045968421554</v>
+        <v>-9.540315784462017E-05</v>
       </c>
       <c r="W124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -10320,7 +10320,7 @@
         <v>0.6135711736748312</v>
       </c>
       <c r="K125">
-        <v>38.02566528735465</v>
+        <v>-0.1197433471264535</v>
       </c>
       <c r="L125">
         <v>-0.005315880621075732</v>
@@ -10350,13 +10350,13 @@
         <v>-0.04749999999999943</v>
       </c>
       <c r="U125">
-        <v>0.9999841009905081</v>
+        <v>-1.589900949194867E-05</v>
       </c>
       <c r="V125">
-        <v>0.999888685696112</v>
+        <v>-0.0001113143038879993</v>
       </c>
       <c r="W125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10391,7 +10391,7 @@
         <v>0.6135711736748312</v>
       </c>
       <c r="K126">
-        <v>38.02566528735465</v>
+        <v>-0.1197433471264535</v>
       </c>
       <c r="L126">
         <v>-0.005629655521545996</v>
@@ -10421,13 +10421,13 @@
         <v>-0.04375000000000284</v>
       </c>
       <c r="U126">
-        <v>0.9999841007377259</v>
+        <v>-1.589926227407723E-05</v>
       </c>
       <c r="V126">
-        <v>0.9999045771175928</v>
+        <v>-9.542288240715902E-05</v>
       </c>
       <c r="W126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10462,7 +10462,7 @@
         <v>0.6135711736748312</v>
       </c>
       <c r="K127">
-        <v>38.02566528735465</v>
+        <v>-0.1197433471264535</v>
       </c>
       <c r="L127">
         <v>-0.005844082941808093</v>
@@ -10492,13 +10492,13 @@
         <v>-0.04375000000000284</v>
       </c>
       <c r="U127">
-        <v>0.9999682009698706</v>
+        <v>-3.1799030129398E-05</v>
       </c>
       <c r="V127">
-        <v>0.9998886626797301</v>
+        <v>-0.0001113373202699108</v>
       </c>
       <c r="W127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10533,7 +10533,7 @@
         <v>0.6919971840939628</v>
       </c>
       <c r="K128">
-        <v>40.89824679374488</v>
+        <v>-0.0910175320625512</v>
       </c>
       <c r="L128">
         <v>-0.005876559438789166</v>
@@ -10563,13 +10563,13 @@
         <v>-0.03374999999998352</v>
       </c>
       <c r="U128">
-        <v>0.9999681999586597</v>
+        <v>-3.18000413402908E-05</v>
       </c>
       <c r="V128">
-        <v>0.9999045573848723</v>
+        <v>-9.544261512772767E-05</v>
       </c>
       <c r="W128">
-        <v>1.000238720458343</v>
+        <v>0.0002387204583431668</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10604,7 +10604,7 @@
         <v>0.6919971840939629</v>
       </c>
       <c r="K129">
-        <v>40.89824679374488</v>
+        <v>-0.0910175320625512</v>
       </c>
       <c r="L129">
         <v>-0.005775334433270818</v>
@@ -10634,13 +10634,13 @@
         <v>-0.02375000000000682</v>
       </c>
       <c r="U129">
-        <v>0.9999681989473853</v>
+        <v>-3.180105261468835E-05</v>
       </c>
       <c r="V129">
-        <v>0.9999045482747104</v>
+        <v>-9.54517252895748E-05</v>
       </c>
       <c r="W129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10675,7 +10675,7 @@
         <v>0.6919971840939628</v>
       </c>
       <c r="K130">
-        <v>40.89824679374488</v>
+        <v>-0.0910175320625512</v>
       </c>
       <c r="L130">
         <v>-0.005578525434162207</v>
@@ -10705,13 +10705,13 @@
         <v>-0.01625000000001364</v>
       </c>
       <c r="U130">
-        <v>0.9999443463880804</v>
+        <v>-5.565361191961493E-05</v>
       </c>
       <c r="V130">
-        <v>0.999968179720936</v>
+        <v>-3.182027906400986E-05</v>
       </c>
       <c r="W130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10746,7 +10746,7 @@
         <v>0.6340034677317035</v>
       </c>
       <c r="K131">
-        <v>38.80061947553983</v>
+        <v>-0.1119938052446017</v>
       </c>
       <c r="L131">
         <v>-0.005402886765612811</v>
@@ -10776,13 +10776,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U131">
-        <v>0.9999443432905839</v>
+        <v>-5.565670941609646E-05</v>
       </c>
       <c r="V131">
-        <v>0.9999522680625608</v>
+        <v>-4.773193743923265E-05</v>
       </c>
       <c r="W131">
-        <v>0.9997613365155131</v>
+        <v>-0.0002386634844868674</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10817,7 +10817,7 @@
         <v>0.7222206146025524</v>
       </c>
       <c r="K132">
-        <v>41.93542967021236</v>
+        <v>-0.08064570329787635</v>
       </c>
       <c r="L132">
         <v>-0.005144744398077252</v>
@@ -10847,13 +10847,13 @@
         <v>-0.00750000000000739</v>
       </c>
       <c r="U132">
-        <v>0.999952291593779</v>
+        <v>-4.770840622103645E-05</v>
       </c>
       <c r="V132">
-        <v>0.9999522657841138</v>
+        <v>-4.773421588621929E-05</v>
       </c>
       <c r="W132">
-        <v>1.000238720458343</v>
+        <v>0.0002387204583431668</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10888,7 +10888,7 @@
         <v>0.7222206146025523</v>
       </c>
       <c r="K133">
-        <v>41.93542967021236</v>
+        <v>-0.0806457032978764</v>
       </c>
       <c r="L133">
         <v>-0.0048343279339292</v>
@@ -10918,13 +10918,13 @@
         <v>-0.001250000000013074</v>
       </c>
       <c r="U133">
-        <v>0.999952289317578</v>
+        <v>-4.771068242204191E-05</v>
       </c>
       <c r="V133">
-        <v>0.9999840878351499</v>
+        <v>-1.591216485008484E-05</v>
       </c>
       <c r="W133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -10959,7 +10959,7 @@
         <v>1.015463208079128</v>
       </c>
       <c r="K134">
-        <v>50.38361424850482</v>
+        <v>0.003836142485048155</v>
       </c>
       <c r="L134">
         <v>-0.004233809941019248</v>
@@ -10989,13 +10989,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V134">
-        <v>1.000015912418051</v>
+        <v>1.591241805121157E-05</v>
       </c>
       <c r="W134">
-        <v>1.000715990453461</v>
+        <v>0.0007159904534606021</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -11030,7 +11030,7 @@
         <v>0.9207275789122593</v>
       </c>
       <c r="K135">
-        <v>47.93639603142904</v>
+        <v>-0.0206360396857096</v>
       </c>
       <c r="L135">
         <v>-0.003567219163057016</v>
@@ -11060,13 +11060,13 @@
         <v>0.01375000000000171</v>
       </c>
       <c r="U135">
-        <v>0.9999761435205803</v>
+        <v>-2.385647941971492E-05</v>
       </c>
       <c r="V135">
-        <v>1.00004773649455</v>
+        <v>4.77364945501435E-05</v>
       </c>
       <c r="W135">
-        <v>0.9997615072740282</v>
+        <v>-0.0002384927259717617</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -11101,7 +11101,7 @@
         <v>1.018930757638083</v>
       </c>
       <c r="K136">
-        <v>50.46883127532887</v>
+        <v>0.004688312753288737</v>
       </c>
       <c r="L136">
         <v>-0.002803196607777164</v>
@@ -11131,13 +11131,13 @@
         <v>0.01624999999998522</v>
       </c>
       <c r="U136">
-        <v>0.9999920476504784</v>
+        <v>-7.952349521556101E-06</v>
       </c>
       <c r="V136">
-        <v>1.000063645621181</v>
+        <v>6.364562118110761E-05</v>
       </c>
       <c r="W136">
-        <v>1.000238549618321</v>
+        <v>0.0002385496183205937</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -11172,7 +11172,7 @@
         <v>0.8443639669862413</v>
       </c>
       <c r="K137">
-        <v>45.78076681718973</v>
+        <v>-0.04219233182810272</v>
       </c>
       <c r="L137">
         <v>-0.002192363683005908</v>
@@ -11202,13 +11202,13 @@
         <v>0.01624999999998522</v>
       </c>
       <c r="U137">
-        <v>0.999984095174476</v>
+        <v>-1.590482552404904E-05</v>
       </c>
       <c r="V137">
-        <v>1.000015910392668</v>
+        <v>1.591039266846117E-05</v>
       </c>
       <c r="W137">
-        <v>0.9995230145480563</v>
+        <v>-0.0004769854519437455</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -11243,7 +11243,7 @@
         <v>1.024704500529043</v>
       </c>
       <c r="K138">
-        <v>50.61007669323074</v>
+        <v>0.006100766932307433</v>
       </c>
       <c r="L138">
         <v>-0.001531526308212978</v>
@@ -11273,13 +11273,13 @@
         <v>0.02000000000001023</v>
       </c>
       <c r="U138">
-        <v>1.000015905078492</v>
+        <v>1.590507849158485E-05</v>
       </c>
       <c r="V138">
-        <v>1.000063640558128</v>
+        <v>6.364055812757563E-05</v>
       </c>
       <c r="W138">
-        <v>1.000477213075638</v>
+        <v>0.0004772130756383053</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -11314,7 +11314,7 @@
         <v>1.119620570814694</v>
       </c>
       <c r="K139">
-        <v>52.82174490240764</v>
+        <v>0.02821744902407641</v>
       </c>
       <c r="L139">
         <v>-0.0007900434718382481</v>
@@ -11344,13 +11344,13 @@
         <v>0.02624999999999034</v>
       </c>
       <c r="U139">
-        <v>0.9999920475872379</v>
+        <v>-7.95241276208003E-06</v>
       </c>
       <c r="V139">
-        <v>1.000079545635331</v>
+        <v>7.954563533107972E-05</v>
       </c>
       <c r="W139">
-        <v>1.000238492725972</v>
+        <v>0.0002384927259717617</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11385,7 +11385,7 @@
         <v>1.119620570814694</v>
       </c>
       <c r="K140">
-        <v>52.82174490240764</v>
+        <v>0.02821744902407641</v>
       </c>
       <c r="L140">
         <v>-4.407583048029775E-05</v>
@@ -11415,13 +11415,13 @@
         <v>0.03000000000000114</v>
       </c>
       <c r="U140">
-        <v>0.9999840950479931</v>
+        <v>-1.590495200687325E-05</v>
       </c>
       <c r="V140">
-        <v>1.000079539308326</v>
+        <v>7.953930832615974E-05</v>
       </c>
       <c r="W140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11456,7 +11456,7 @@
         <v>1.119620570814695</v>
       </c>
       <c r="K141">
-        <v>52.82174490240764</v>
+        <v>0.02821744902407641</v>
       </c>
       <c r="L141">
         <v>0.0006572259839761086</v>
@@ -11486,13 +11486,13 @@
         <v>0.03374999999999773</v>
       </c>
       <c r="U141">
-        <v>0.9999920473975109</v>
+        <v>-7.952602489091909E-06</v>
       </c>
       <c r="V141">
-        <v>1.000079532982328</v>
+        <v>7.953298232776795E-05</v>
       </c>
       <c r="W141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11527,7 +11527,7 @@
         <v>1.341031436038629</v>
       </c>
       <c r="K142">
-        <v>57.28378591565828</v>
+        <v>0.07283785915658281</v>
       </c>
       <c r="L142">
         <v>0.001458134392098937</v>
@@ -11557,13 +11557,13 @@
         <v>0.03250000000001307</v>
       </c>
       <c r="U142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V142">
-        <v>1.00011133732027</v>
+        <v>0.0001113373202696888</v>
       </c>
       <c r="W142">
-        <v>1.000476871721507</v>
+        <v>0.0004768717215068996</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11598,7 +11598,7 @@
         <v>1.201068482415135</v>
       </c>
       <c r="K143">
-        <v>54.56751991184098</v>
+        <v>0.04567519911840978</v>
       </c>
       <c r="L143">
         <v>0.0021761381846027</v>
@@ -11628,13 +11628,13 @@
         <v>0.03249999999999886</v>
       </c>
       <c r="U143">
-        <v>0.9999920473342662</v>
+        <v>-7.952665733834685E-06</v>
       </c>
       <c r="V143">
-        <v>1.000079517804036</v>
+        <v>7.951780403647746E-05</v>
       </c>
       <c r="W143">
-        <v>0.9997616777883699</v>
+        <v>-0.0002383222116301154</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11669,7 +11669,7 @@
         <v>1.201068482415135</v>
       </c>
       <c r="K144">
-        <v>54.56751991184098</v>
+        <v>0.04567519911840978</v>
       </c>
       <c r="L144">
         <v>0.002790215144323977</v>
@@ -11699,13 +11699,13 @@
         <v>0.03124999999998579</v>
       </c>
       <c r="U144">
-        <v>0.9999920472710211</v>
+        <v>-7.952728978910528E-06</v>
       </c>
       <c r="V144">
-        <v>1.000079511481458</v>
+        <v>7.951148145779463E-05</v>
       </c>
       <c r="W144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11740,7 +11740,7 @@
         <v>0.9754553732090355</v>
       </c>
       <c r="K145">
-        <v>49.3787602817093</v>
+        <v>-0.006212397182907003</v>
       </c>
       <c r="L145">
         <v>0.0031182672327715</v>
@@ -11770,13 +11770,13 @@
         <v>0.03250000000001307</v>
       </c>
       <c r="U145">
-        <v>1.000007952792226</v>
+        <v>7.952792225651706E-06</v>
       </c>
       <c r="V145">
-        <v>1.000047703095931</v>
+        <v>4.770309593071786E-05</v>
       </c>
       <c r="W145">
-        <v>0.9995232419547079</v>
+        <v>-0.000476758045292125</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11811,7 +11811,7 @@
         <v>1.173185550007361</v>
       </c>
       <c r="K146">
-        <v>53.98460108495509</v>
+        <v>0.03984601084955086</v>
       </c>
       <c r="L146">
         <v>0.003414524028926502</v>
@@ -11841,13 +11841,13 @@
         <v>0.03125</v>
       </c>
       <c r="U146">
-        <v>1.000023858186937</v>
+        <v>2.385818693673158E-05</v>
       </c>
       <c r="V146">
-        <v>1.000095401640908</v>
+        <v>9.540164090826586E-05</v>
       </c>
       <c r="W146">
-        <v>1.000476985451944</v>
+        <v>0.0004769854519437455</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11882,7 +11882,7 @@
         <v>1.277254064111706</v>
       </c>
       <c r="K147">
-        <v>56.08746447050156</v>
+        <v>0.06087464470501558</v>
       </c>
       <c r="L147">
         <v>0.003747059856980021</v>
@@ -11912,13 +11912,13 @@
         <v>0.02750000000001762</v>
       </c>
       <c r="U147">
-        <v>1.000023857617737</v>
+        <v>2.385761773737727E-05</v>
       </c>
       <c r="V147">
-        <v>1.000095392540303</v>
+        <v>9.539254030332955E-05</v>
       </c>
       <c r="W147">
-        <v>1.000238379022646</v>
+        <v>0.0002383790226458959</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -11953,7 +11953,7 @@
         <v>1.047709667639948</v>
       </c>
       <c r="K148">
-        <v>51.16495195568751</v>
+        <v>0.0116495195568751</v>
       </c>
       <c r="L148">
         <v>0.003892982453819591</v>
@@ -11983,13 +11983,13 @@
         <v>0.02250000000000796</v>
       </c>
       <c r="U148">
-        <v>1.000023857048565</v>
+        <v>2.385704856489035E-05</v>
       </c>
       <c r="V148">
-        <v>1.000063588960956</v>
+        <v>6.358896095637334E-05</v>
       </c>
       <c r="W148">
-        <v>0.9995233555767397</v>
+        <v>-0.0004766444232603417</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -12024,7 +12024,7 @@
         <v>0.9571726695117495</v>
       </c>
       <c r="K149">
-        <v>48.90588778508402</v>
+        <v>-0.01094112214915982</v>
       </c>
       <c r="L149">
         <v>0.003815514428829842</v>
@@ -12054,13 +12054,13 @@
         <v>0.01625000000001364</v>
       </c>
       <c r="U149">
-        <v>1.000007952159807</v>
+        <v>7.952159806645653E-06</v>
       </c>
       <c r="V149">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W149">
-        <v>0.9997615641392466</v>
+        <v>-0.0002384358607534498</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -12095,7 +12095,7 @@
         <v>1.139097311874838</v>
       </c>
       <c r="K150">
-        <v>53.25130865021106</v>
+        <v>0.0325130865021106</v>
       </c>
       <c r="L150">
         <v>0.003767487177417828</v>
@@ -12125,13 +12125,13 @@
         <v>0.01125000000000398</v>
       </c>
       <c r="U150">
-        <v>1.000047712579421</v>
+        <v>4.77125794213773E-05</v>
       </c>
       <c r="V150">
-        <v>1.000047688688243</v>
+        <v>4.768868824323036E-05</v>
       </c>
       <c r="W150">
-        <v>1.000476985451944</v>
+        <v>0.0004769854519437455</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -12166,7 +12166,7 @@
         <v>0.9560198672077113</v>
       </c>
       <c r="K151">
-        <v>48.87577489550063</v>
+        <v>-0.01124225104499366</v>
       </c>
       <c r="L151">
         <v>0.003552916037658499</v>
@@ -12196,13 +12196,13 @@
         <v>0.005000000000009663</v>
       </c>
       <c r="U151">
-        <v>1.000031806868694</v>
+        <v>3.180686869352911E-05</v>
       </c>
       <c r="V151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W151">
-        <v>0.9995232419547079</v>
+        <v>-0.000476758045292125</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -12237,7 +12237,7 @@
         <v>1.040610137784486</v>
       </c>
       <c r="K152">
-        <v>50.99504890798438</v>
+        <v>0.00995048907984375</v>
       </c>
       <c r="L152">
         <v>0.003325051631792681</v>
@@ -12267,13 +12267,13 @@
         <v>0.001250000000013074</v>
       </c>
       <c r="U152">
-        <v>1.000031805857048</v>
+        <v>3.180585704831707E-05</v>
       </c>
       <c r="V152">
-        <v>1.000047686414141</v>
+        <v>4.768641414076846E-05</v>
       </c>
       <c r="W152">
-        <v>1.000238492725972</v>
+        <v>0.0002384927259717617</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -12308,7 +12308,7 @@
         <v>1.040610137784486</v>
       </c>
       <c r="K153">
-        <v>50.99504890798438</v>
+        <v>0.00995048907984375</v>
       </c>
       <c r="L153">
         <v>0.003091547730997117</v>
@@ -12338,13 +12338,13 @@
         <v>1.4210854715202E-14</v>
       </c>
       <c r="U153">
-        <v>1.000039756056835</v>
+        <v>3.975605683548267E-05</v>
       </c>
       <c r="V153">
-        <v>1.000015894713418</v>
+        <v>1.58947134183407E-05</v>
       </c>
       <c r="W153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12379,7 +12379,7 @@
         <v>1.321796632776601</v>
       </c>
       <c r="K154">
-        <v>56.92990566516089</v>
+        <v>0.06929905665160885</v>
       </c>
       <c r="L154">
         <v>0.003118792900501164</v>
@@ -12409,13 +12409,13 @@
         <v>0</v>
       </c>
       <c r="U154">
-        <v>1.000063607162166</v>
+        <v>6.3607162166468E-05</v>
       </c>
       <c r="V154">
-        <v>1.000047683382341</v>
+        <v>4.768338234106828E-05</v>
       </c>
       <c r="W154">
-        <v>1.00071530758226</v>
+        <v>0.0007153075822603494</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12450,7 +12450,7 @@
         <v>1.321796632776601</v>
       </c>
       <c r="K155">
-        <v>56.92990566516089</v>
+        <v>0.06929905665160885</v>
       </c>
       <c r="L155">
         <v>0.003290887366636091</v>
@@ -12480,13 +12480,13 @@
         <v>-0.001249999999998863</v>
       </c>
       <c r="U155">
-        <v>1.000063603116553</v>
+        <v>6.360311655306816E-05</v>
       </c>
       <c r="V155">
-        <v>1.000047681108745</v>
+        <v>4.768110874486808E-05</v>
       </c>
       <c r="W155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12521,7 +12521,7 @@
         <v>1.73721527727093</v>
       </c>
       <c r="K156">
-        <v>63.46651984943529</v>
+        <v>0.1346651984943529</v>
       </c>
       <c r="L156">
         <v>0.003875129641533968</v>
@@ -12551,13 +12551,13 @@
         <v>0.007499999999993179</v>
       </c>
       <c r="U156">
-        <v>1.00009539860718</v>
+        <v>9.539860718010829E-05</v>
       </c>
       <c r="V156">
-        <v>1.000111250615852</v>
+        <v>0.0001112506158515991</v>
       </c>
       <c r="W156">
-        <v>1.000953061710746</v>
+        <v>0.0009530617107458283</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12592,7 +12592,7 @@
         <v>1.308181380541486</v>
       </c>
       <c r="K157">
-        <v>56.67584842204186</v>
+        <v>0.06675848422041863</v>
       </c>
       <c r="L157">
         <v>0.004397136925674353</v>
@@ -12622,13 +12622,13 @@
         <v>0.01499999999998636</v>
       </c>
       <c r="U157">
-        <v>1.000071542130366</v>
+        <v>7.154213036564272E-05</v>
       </c>
       <c r="V157">
-        <v>1.000031782354437</v>
+        <v>3.178235443712651E-05</v>
       </c>
       <c r="W157">
-        <v>0.9992858843132587</v>
+        <v>-0.0007141156867412901</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12663,7 +12663,7 @@
         <v>1.568146068882081</v>
       </c>
       <c r="K158">
-        <v>61.06140487424447</v>
+        <v>0.1106140487424447</v>
       </c>
       <c r="L158">
         <v>0.005092636418025631</v>
@@ -12693,13 +12693,13 @@
         <v>0.02374999999999261</v>
       </c>
       <c r="U158">
-        <v>1.000087434126335</v>
+        <v>8.743412633460679E-05</v>
       </c>
       <c r="V158">
-        <v>1.000095344033052</v>
+        <v>9.534403305244687E-05</v>
       </c>
       <c r="W158">
-        <v>1.000714626012387</v>
+        <v>0.0007146260123869208</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12734,7 +12734,7 @@
         <v>1.231224993417847</v>
       </c>
       <c r="K159">
-        <v>55.18157052964101</v>
+        <v>0.05181570529641011</v>
       </c>
       <c r="L159">
         <v>0.00556981197826537</v>
@@ -12764,13 +12764,13 @@
         <v>0.03249999999998465</v>
       </c>
       <c r="U159">
-        <v>1.000063582896201</v>
+        <v>6.358289620078672E-05</v>
       </c>
       <c r="V159">
-        <v>1.000047667471717</v>
+        <v>4.766747171736085E-05</v>
       </c>
       <c r="W159">
-        <v>0.9992858843132587</v>
+        <v>-0.0007141156867412901</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12805,7 +12805,7 @@
         <v>1.457386172331105</v>
       </c>
       <c r="K160">
-        <v>59.30635521354022</v>
+        <v>0.09306355213540218</v>
       </c>
       <c r="L160">
         <v>0.006124486386291995</v>
@@ -12835,13 +12835,13 @@
         <v>0.04249999999998977</v>
       </c>
       <c r="U160">
-        <v>1.000087420923801</v>
+        <v>8.742092380087385E-05</v>
       </c>
       <c r="V160">
-        <v>1.000127107199034</v>
+        <v>0.0001271071990340822</v>
       </c>
       <c r="W160">
-        <v>1.000714626012387</v>
+        <v>0.0007146260123869208</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12876,7 +12876,7 @@
         <v>1.616095771568497</v>
       </c>
       <c r="K161">
-        <v>61.77509971661154</v>
+        <v>0.1177509971661154</v>
       </c>
       <c r="L161">
         <v>0.006842033856334185</v>
@@ -12906,13 +12906,13 @@
         <v>0.05249999999999488</v>
       </c>
       <c r="U161">
-        <v>1.000111253268065</v>
+        <v>0.0001112532680647149</v>
       </c>
       <c r="V161">
-        <v>1.000127091044847</v>
+        <v>0.0001270910448472051</v>
       </c>
       <c r="W161">
-        <v>1.000476077124494</v>
+        <v>0.0004760771244942674</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -12947,7 +12947,7 @@
         <v>1.616095771568497</v>
       </c>
       <c r="K162">
-        <v>61.77509971661154</v>
+        <v>0.1177509971661155</v>
       </c>
       <c r="L162">
         <v>0.007587507436671694</v>
@@ -12977,13 +12977,13 @@
         <v>0.05750000000000455</v>
       </c>
       <c r="U162">
-        <v>1.000103295114141</v>
+        <v>0.0001032951141408667</v>
       </c>
       <c r="V162">
-        <v>1.00011119053292</v>
+        <v>0.0001111905329203022</v>
       </c>
       <c r="W162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -13018,7 +13018,7 @@
         <v>1.195592655369448</v>
       </c>
       <c r="K163">
-        <v>54.45421091410365</v>
+        <v>0.04454210914103651</v>
       </c>
       <c r="L163">
         <v>0.007927433026699413</v>
@@ -13048,13 +13048,13 @@
         <v>0.0587499999999892</v>
       </c>
       <c r="U163">
-        <v>1.00007150461602</v>
+        <v>7.150461602045688E-05</v>
       </c>
       <c r="V163">
-        <v>1.000079412979257</v>
+        <v>7.941297925717627E-05</v>
       </c>
       <c r="W163">
-        <v>0.9990482988341661</v>
+        <v>-0.0009517011658338737</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -13089,7 +13089,7 @@
         <v>1.118973339942763</v>
       </c>
       <c r="K164">
-        <v>52.80733451667629</v>
+        <v>0.02807334516676296</v>
       </c>
       <c r="L164">
         <v>0.007884345314052139</v>
@@ -13119,13 +13119,13 @@
         <v>0.04625000000000057</v>
       </c>
       <c r="U164">
-        <v>1.000039721946375</v>
+        <v>3.972194637524851E-05</v>
       </c>
       <c r="V164">
-        <v>1.000079406673337</v>
+        <v>7.940667333694584E-05</v>
       </c>
       <c r="W164">
-        <v>0.9997618480590615</v>
+        <v>-0.000238151940938458</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -13160,7 +13160,7 @@
         <v>0.9859531137054015</v>
       </c>
       <c r="K165">
-        <v>49.64634395954117</v>
+        <v>-0.003536560404588274</v>
       </c>
       <c r="L165">
         <v>0.007409705387453049</v>
@@ -13190,13 +13190,13 @@
         <v>0.0374999999999801</v>
       </c>
       <c r="U165">
-        <v>1.000031776294884</v>
+        <v>3.177629488382294E-05</v>
       </c>
       <c r="V165">
-        <v>1.000015880073684</v>
+        <v>1.588007368358291E-05</v>
       </c>
       <c r="W165">
-        <v>0.9995235826584089</v>
+        <v>-0.0004764173415910955</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -13231,7 +13231,7 @@
         <v>1.048519971099579</v>
       </c>
       <c r="K166">
-        <v>51.18426893035208</v>
+        <v>0.01184268930352073</v>
       </c>
       <c r="L166">
         <v>0.00676375277219677</v>
@@ -13261,13 +13261,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U166">
-        <v>1.000031775285183</v>
+        <v>3.177528518349959E-05</v>
       </c>
       <c r="V166">
-        <v>1.000063519286043</v>
+        <v>6.351928604320101E-05</v>
       </c>
       <c r="W166">
-        <v>1.00023832221163</v>
+        <v>0.0002383222116300043</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -13302,7 +13302,7 @@
         <v>1.114379820988187</v>
       </c>
       <c r="K167">
-        <v>52.7048078082473</v>
+        <v>0.027048078082473</v>
       </c>
       <c r="L167">
         <v>0.006117370027078858</v>
@@ -13332,13 +13332,13 @@
         <v>0.01874999999999716</v>
       </c>
       <c r="U167">
-        <v>1.000055604982206</v>
+        <v>5.56049822064697E-05</v>
       </c>
       <c r="V167">
-        <v>1.0000635152516</v>
+        <v>6.351525159997706E-05</v>
       </c>
       <c r="W167">
-        <v>1.000238265427686</v>
+        <v>0.0002382654276864571</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -13373,7 +13373,7 @@
         <v>1.461010609875695</v>
       </c>
       <c r="K168">
-        <v>59.36628651712681</v>
+        <v>0.09366286517126809</v>
       </c>
       <c r="L168">
         <v>0.005923532728942255</v>
@@ -13403,13 +13403,13 @@
         <v>0.01250000000001705</v>
       </c>
       <c r="U168">
-        <v>1.000079431272092</v>
+        <v>7.943127209175671E-05</v>
       </c>
       <c r="V168">
-        <v>1.000142900239755</v>
+        <v>0.0001429002397548285</v>
       </c>
       <c r="W168">
-        <v>1.001191043353978</v>
+        <v>0.001191043353978127</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -13444,7 +13444,7 @@
         <v>1.53398551279936</v>
       </c>
       <c r="K169">
-        <v>60.53647525019691</v>
+        <v>0.1053647525019692</v>
       </c>
       <c r="L169">
         <v>0.006081333688249512</v>
@@ -13474,13 +13474,13 @@
         <v>0.002499999999997726</v>
       </c>
       <c r="U169">
-        <v>1.000079424963266</v>
+        <v>7.942496326607262E-05</v>
       </c>
       <c r="V169">
-        <v>1.000111128750595</v>
+        <v>0.0001111287505954905</v>
       </c>
       <c r="W169">
-        <v>1.000237925291458</v>
+        <v>0.0002379252914583851</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13515,7 +13515,7 @@
         <v>1.610801200087428</v>
       </c>
       <c r="K170">
-        <v>61.697581571262</v>
+        <v>0.1169758157126199</v>
       </c>
       <c r="L170">
         <v>0.006506649393673744</v>
@@ -13545,13 +13545,13 @@
         <v>-0.002499999999997726</v>
       </c>
       <c r="U170">
-        <v>1.000087360520986</v>
+        <v>8.73605209861239E-05</v>
       </c>
       <c r="V170">
-        <v>1.000126990174135</v>
+        <v>0.0001269901741351998</v>
       </c>
       <c r="W170">
-        <v>1.000237868696479</v>
+        <v>0.0002378686964794596</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13586,7 +13586,7 @@
         <v>1.147054849463062</v>
       </c>
       <c r="K171">
-        <v>53.42457132615493</v>
+        <v>0.03424571326154935</v>
       </c>
       <c r="L171">
         <v>0.006609341545303969</v>
@@ -13616,13 +13616,13 @@
         <v>-0.003749999999996589</v>
       </c>
       <c r="U171">
-        <v>1.000047647030796</v>
+        <v>4.764703079596089E-05</v>
       </c>
       <c r="V171">
-        <v>0.9999841282437901</v>
+        <v>-1.587175620987313E-05</v>
       </c>
       <c r="W171">
-        <v>0.9988109393579073</v>
+        <v>-0.001189060642092676</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13657,7 +13657,7 @@
         <v>1.147054849463062</v>
       </c>
       <c r="K172">
-        <v>53.42457132615493</v>
+        <v>0.03424571326154935</v>
       </c>
       <c r="L172">
         <v>0.006485986143793761</v>
@@ -13687,13 +13687,13 @@
         <v>0.002499999999997726</v>
       </c>
       <c r="U172">
-        <v>1.000031763173776</v>
+        <v>3.176317377628912E-05</v>
       </c>
       <c r="V172">
-        <v>1.000031744016253</v>
+        <v>3.174401625294365E-05</v>
       </c>
       <c r="W172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13728,7 +13728,7 @@
         <v>1.210854947433561</v>
       </c>
       <c r="K173">
-        <v>54.76862916036914</v>
+        <v>0.04768629160369142</v>
       </c>
       <c r="L173">
         <v>0.006296695526361177</v>
@@ -13758,13 +13758,13 @@
         <v>0.01125000000000398</v>
       </c>
       <c r="U173">
-        <v>1.000047643247364</v>
+        <v>4.764324736372672E-05</v>
       </c>
       <c r="V173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W173">
-        <v>1.000238095238095</v>
+        <v>0.0002380952380951484</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13799,7 +13799,7 @@
         <v>1.278012945297293</v>
       </c>
       <c r="K174">
-        <v>56.10209318325474</v>
+        <v>0.06102093183254742</v>
       </c>
       <c r="L174">
         <v>0.00614333472981842</v>
@@ -13829,13 +13829,13 @@
         <v>0.02250000000000796</v>
       </c>
       <c r="U174">
-        <v>1.000055581140525</v>
+        <v>5.558114052495178E-05</v>
       </c>
       <c r="V174">
-        <v>1.000063486017205</v>
+        <v>6.34860172046281E-05</v>
       </c>
       <c r="W174">
-        <v>1.000238038562247</v>
+        <v>0.0002380385622471337</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13870,7 +13870,7 @@
         <v>1.119703391646398</v>
       </c>
       <c r="K175">
-        <v>52.82358824631174</v>
+        <v>0.02823588246311748</v>
       </c>
       <c r="L175">
         <v>0.005825648636967307</v>
@@ -13900,13 +13900,13 @@
         <v>0.0250000000000199</v>
       </c>
       <c r="U175">
-        <v>1.000055578051434</v>
+        <v>5.557805143352468E-05</v>
       </c>
       <c r="V175">
-        <v>0.9999841295032534</v>
+        <v>-1.587049674656171E-05</v>
       </c>
       <c r="W175">
-        <v>0.9995240361732508</v>
+        <v>-0.0004759638267491928</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -13941,7 +13941,7 @@
         <v>1.380485782051999</v>
       </c>
       <c r="K176">
-        <v>57.99176758207765</v>
+        <v>0.07991767582077647</v>
       </c>
       <c r="L176">
         <v>0.005754393837506191</v>
@@ -13971,13 +13971,13 @@
         <v>0.02374999999999261</v>
       </c>
       <c r="U176">
-        <v>1.000071453523453</v>
+        <v>7.145352345272471E-05</v>
       </c>
       <c r="V176">
-        <v>1.000015870748623</v>
+        <v>1.58707486233034E-05</v>
       </c>
       <c r="W176">
-        <v>1.000952380952381</v>
+        <v>0.0009523809523810378</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -14012,7 +14012,7 @@
         <v>1.291831343681947</v>
       </c>
       <c r="K177">
-        <v>56.36677180645206</v>
+        <v>0.06366771806452054</v>
       </c>
       <c r="L177">
         <v>0.005729241347896899</v>
@@ -14042,13 +14042,13 @@
         <v>0.02125000000000909</v>
       </c>
       <c r="U177">
-        <v>1.000055570991942</v>
+        <v>5.557099194208881E-05</v>
       </c>
       <c r="V177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W177">
-        <v>0.9997621313035205</v>
+        <v>-0.0002378686964794596</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -14083,7 +14083,7 @@
         <v>1.291831343681947</v>
       </c>
       <c r="K178">
-        <v>56.36677180645206</v>
+        <v>0.06366771806452054</v>
       </c>
       <c r="L178">
         <v>0.005712734832588062</v>
@@ -14113,13 +14113,13 @@
         <v>0.01624999999999943</v>
       </c>
       <c r="U178">
-        <v>1.000071444447973</v>
+        <v>7.144444797280158E-05</v>
       </c>
       <c r="V178">
-        <v>1.000063481986986</v>
+        <v>6.348198698602481E-05</v>
       </c>
       <c r="W178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -14154,7 +14154,7 @@
         <v>1.206014255328147</v>
       </c>
       <c r="K179">
-        <v>54.66937724519604</v>
+        <v>0.04669377245196038</v>
       </c>
       <c r="L179">
         <v>0.005594978231208757</v>
@@ -14184,13 +14184,13 @@
         <v>0.01750000000001251</v>
       </c>
       <c r="U179">
-        <v>1.000071439344028</v>
+        <v>7.143934402797925E-05</v>
       </c>
       <c r="V179">
-        <v>1.000063477957279</v>
+        <v>6.347795727923433E-05</v>
       </c>
       <c r="W179">
-        <v>0.9997620747085416</v>
+        <v>-0.0002379252914583851</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -14225,7 +14225,7 @@
         <v>1.275941167735349</v>
       </c>
       <c r="K180">
-        <v>56.06213314401975</v>
+        <v>0.06062133144019743</v>
       </c>
       <c r="L180">
         <v>0.005489727107420772</v>
@@ -14255,13 +14255,13 @@
         <v>0.01874999999999716</v>
       </c>
       <c r="U180">
-        <v>1.000063497102945</v>
+        <v>6.349710294450972E-05</v>
       </c>
       <c r="V180">
-        <v>1.000111079374147</v>
+        <v>0.0001110793741472271</v>
       </c>
       <c r="W180">
-        <v>1.000237981913374</v>
+        <v>0.0002379819133744299</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -14296,7 +14296,7 @@
         <v>1.188461736427479</v>
       </c>
       <c r="K181">
-        <v>54.30580378195533</v>
+        <v>0.04305803781955331</v>
       </c>
       <c r="L181">
         <v>0.005292046469234064</v>
@@ -14326,13 +14326,13 @@
         <v>0.01375000000001592</v>
       </c>
       <c r="U181">
-        <v>1.000071429705233</v>
+        <v>7.142970523332792E-05</v>
       </c>
       <c r="V181">
-        <v>1.000079333597779</v>
+        <v>7.933359777867466E-05</v>
       </c>
       <c r="W181">
-        <v>0.9997620747085416</v>
+        <v>-0.0002379252914583851</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -14367,7 +14367,7 @@
         <v>1.260630903965556</v>
       </c>
       <c r="K182">
-        <v>55.76456120077722</v>
+        <v>0.05764561200777218</v>
       </c>
       <c r="L182">
         <v>0.005118405562927194</v>
@@ -14397,13 +14397,13 @@
         <v>0.008749999999992042</v>
       </c>
       <c r="U182">
-        <v>1.000071424603395</v>
+        <v>7.142460339504275E-05</v>
       </c>
       <c r="V182">
-        <v>1.000079327304458</v>
+        <v>7.932730445814329E-05</v>
       </c>
       <c r="W182">
-        <v>1.000237981913374</v>
+        <v>0.0002379819133744299</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -14438,7 +14438,7 @@
         <v>1.171625399004874</v>
       </c>
       <c r="K183">
-        <v>53.95154245026603</v>
+        <v>0.03951542450266032</v>
       </c>
       <c r="L183">
         <v>0.004865045804503131</v>
@@ -14468,13 +14468,13 @@
         <v>0.008750000000006253</v>
       </c>
       <c r="U183">
-        <v>1.000063484002031</v>
+        <v>6.348400203148863E-05</v>
       </c>
       <c r="V183">
-        <v>0.9999841357975727</v>
+        <v>-1.586420242727371E-05</v>
       </c>
       <c r="W183">
-        <v>0.9997620747085416</v>
+        <v>-0.0002379252914583851</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -14509,7 +14509,7 @@
         <v>1.171625399004873</v>
       </c>
       <c r="K184">
-        <v>53.95154245026603</v>
+        <v>0.03951542450266032</v>
       </c>
       <c r="L184">
         <v>0.004561826972441209</v>
@@ -14539,13 +14539,13 @@
         <v>0.005000000000009663</v>
       </c>
       <c r="U184">
-        <v>1.000039674982543</v>
+        <v>3.967498254286994E-05</v>
       </c>
       <c r="V184">
-        <v>0.9999682710917916</v>
+        <v>-3.17289082083505E-05</v>
       </c>
       <c r="W184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14580,7 +14580,7 @@
         <v>1.249856908178533</v>
       </c>
       <c r="K185">
-        <v>55.55272887067327</v>
+        <v>0.05552728870673274</v>
       </c>
       <c r="L185">
         <v>0.004317810235771042</v>
@@ -14610,13 +14610,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U185">
-        <v>1.000047608090201</v>
+        <v>4.760809020143419E-05</v>
       </c>
       <c r="V185">
-        <v>0.9999682700850363</v>
+        <v>-3.172991496369626E-05</v>
       </c>
       <c r="W185">
-        <v>1.000237981913374</v>
+        <v>0.0002379819133744299</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14651,7 +14651,7 @@
         <v>1.332205865203437</v>
       </c>
       <c r="K186">
-        <v>57.1221385333078</v>
+        <v>0.07122138533307809</v>
       </c>
       <c r="L186">
         <v>0.004196165861298715</v>
@@ -14681,13 +14681,13 @@
         <v>0.01000000000000512</v>
       </c>
       <c r="U186">
-        <v>1.00002380291189</v>
+        <v>2.380291188974759E-05</v>
       </c>
       <c r="V186">
-        <v>1.000063461843566</v>
+        <v>6.346184356642581E-05</v>
       </c>
       <c r="W186">
-        <v>1.000237925291458</v>
+        <v>0.0002379252914583851</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14722,7 +14722,7 @@
         <v>1.225937763903542</v>
       </c>
       <c r="K187">
-        <v>55.07511412869253</v>
+        <v>0.05075114128692526</v>
       </c>
       <c r="L187">
         <v>0.004054427221567472</v>
@@ -14752,13 +14752,13 @@
         <v>0.008750000000006253</v>
       </c>
       <c r="U187">
-        <v>1.000039670575541</v>
+        <v>3.967057554077336E-05</v>
       </c>
       <c r="V187">
-        <v>1.000047593362313</v>
+        <v>4.759336231252576E-05</v>
       </c>
       <c r="W187">
-        <v>0.9997621313035205</v>
+        <v>-0.0002378686964794596</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14793,7 +14793,7 @@
         <v>1.309904635829876</v>
       </c>
       <c r="K188">
-        <v>56.70816948506917</v>
+        <v>0.06708169485069171</v>
       </c>
       <c r="L188">
         <v>0.00398146142954005</v>
@@ -14823,13 +14823,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U188">
-        <v>1.000023801401109</v>
+        <v>2.380140110935791E-05</v>
       </c>
       <c r="V188">
-        <v>1.000047591097292</v>
+        <v>4.759109729213229E-05</v>
       </c>
       <c r="W188">
-        <v>1.000237925291458</v>
+        <v>0.0002379252914583851</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14864,7 +14864,7 @@
         <v>1.035367972776823</v>
       </c>
       <c r="K189">
-        <v>50.86883485565933</v>
+        <v>0.008688348556593284</v>
       </c>
       <c r="L189">
         <v>0.003680267576872601</v>
@@ -14894,13 +14894,13 @@
         <v>0.003749999999982379</v>
       </c>
       <c r="U189">
-        <v>1.000023800834616</v>
+        <v>2.380083461583915E-05</v>
       </c>
       <c r="V189">
-        <v>0.9999841370558376</v>
+        <v>-1.586294416244804E-05</v>
       </c>
       <c r="W189">
-        <v>0.9992863939105613</v>
+        <v>-0.000713606089438712</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -14935,7 +14935,7 @@
         <v>1.18244532645274</v>
       </c>
       <c r="K190">
-        <v>54.17983727338727</v>
+        <v>0.04179837273387266</v>
       </c>
       <c r="L190">
         <v>0.003419970241815823</v>
@@ -14965,13 +14965,13 @@
         <v>0.002499999999997726</v>
       </c>
       <c r="U190">
-        <v>1.000015866845433</v>
+        <v>1.586684543308792E-05</v>
       </c>
       <c r="V190">
-        <v>1.000047589587398</v>
+        <v>4.758958739836672E-05</v>
       </c>
       <c r="W190">
-        <v>1.000476077124494</v>
+        <v>0.0004760771244942674</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -15006,7 +15006,7 @@
         <v>1.337263593479966</v>
       </c>
       <c r="K191">
-        <v>57.21492420497194</v>
+        <v>0.0721492420497194</v>
       </c>
       <c r="L191">
         <v>0.003361921413544945</v>
@@ -15036,13 +15036,13 @@
         <v>0.003749999999996589</v>
       </c>
       <c r="U191">
-        <v>1.00001586659368</v>
+        <v>1.586659368024712E-05</v>
       </c>
       <c r="V191">
-        <v>1.000015862440912</v>
+        <v>1.586244091233979E-05</v>
       </c>
       <c r="W191">
-        <v>1.000475850582917</v>
+        <v>0.0004758505829167703</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -15077,7 +15077,7 @@
         <v>1.418746891915406</v>
       </c>
       <c r="K192">
-        <v>58.65627762282725</v>
+        <v>0.08656277622827258</v>
       </c>
       <c r="L192">
         <v>0.003504503064210655</v>
@@ -15107,13 +15107,13 @@
         <v>0.01124999999998977</v>
       </c>
       <c r="U192">
-        <v>1.000023799512903</v>
+        <v>2.379951290332194E-05</v>
       </c>
       <c r="V192">
-        <v>1.000047586567898</v>
+        <v>4.758656789816129E-05</v>
       </c>
       <c r="W192">
-        <v>1.000237812128419</v>
+        <v>0.0002378121284187795</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -15148,7 +15148,7 @@
         <v>1.306671227119238</v>
       </c>
       <c r="K193">
-        <v>56.64748455509707</v>
+        <v>0.06647484555097061</v>
       </c>
       <c r="L193">
         <v>0.00366009123353122</v>
@@ -15178,13 +15178,13 @@
         <v>0.01375000000000171</v>
       </c>
       <c r="U193">
-        <v>1.000047597893</v>
+        <v>4.759789299990658E-05</v>
       </c>
       <c r="V193">
-        <v>1.000031722869016</v>
+        <v>3.172286901631516E-05</v>
       </c>
       <c r="W193">
-        <v>0.9997622444127435</v>
+        <v>-0.0002377555872564718</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -15219,7 +15219,7 @@
         <v>1.389825160120418</v>
       </c>
       <c r="K194">
-        <v>58.15593472329113</v>
+        <v>0.08155934723291136</v>
       </c>
       <c r="L194">
         <v>0.003886963389151036</v>
@@ -15249,13 +15249,13 @@
         <v>0.01499999999998636</v>
       </c>
       <c r="U194">
-        <v>1.000063460836731</v>
+        <v>6.3460836731144E-05</v>
       </c>
       <c r="V194">
-        <v>1.000063443725416</v>
+        <v>6.344372541566834E-05</v>
       </c>
       <c r="W194">
-        <v>1.000237812128419</v>
+        <v>0.0002378121284187795</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -15290,7 +15290,7 @@
         <v>1.389825160120418</v>
       </c>
       <c r="K195">
-        <v>58.15593472329113</v>
+        <v>0.08155934723291136</v>
       </c>
       <c r="L195">
         <v>0.004128385658301433</v>
@@ -15320,13 +15320,13 @@
         <v>0.01749999999998408</v>
       </c>
       <c r="U195">
-        <v>1.000079321012136</v>
+        <v>7.932101213614651E-05</v>
       </c>
       <c r="V195">
-        <v>1.000047579775423</v>
+        <v>4.757977542313441E-05</v>
       </c>
       <c r="W195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -15361,7 +15361,7 @@
         <v>1.389825160120418</v>
       </c>
       <c r="K196">
-        <v>58.15593472329113</v>
+        <v>0.08155934723291136</v>
       </c>
       <c r="L196">
         <v>0.004348183401649095</v>
@@ -15391,13 +15391,13 @@
         <v>0.01874999999999716</v>
       </c>
       <c r="U196">
-        <v>1.000071383248731</v>
+        <v>7.138324873090518E-05</v>
       </c>
       <c r="V196">
-        <v>1.000063436682262</v>
+        <v>6.343668226183041E-05</v>
       </c>
       <c r="W196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -15432,7 +15432,7 @@
         <v>1.583798469351784</v>
       </c>
       <c r="K197">
-        <v>61.29729110603285</v>
+        <v>0.1129729110603285</v>
       </c>
       <c r="L197">
         <v>0.004698323452955208</v>
@@ -15462,13 +15462,13 @@
         <v>0.02875000000001648</v>
       </c>
       <c r="U197">
-        <v>1.000079309059474</v>
+        <v>7.930905947395317E-05</v>
       </c>
       <c r="V197">
-        <v>1.00007929082288</v>
+        <v>7.929082288016254E-05</v>
       </c>
       <c r="W197">
-        <v>1.000475511174512</v>
+        <v>0.0004755111745124996</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -15503,7 +15503,7 @@
         <v>1.583798469351784</v>
       </c>
       <c r="K198">
-        <v>61.29729110603285</v>
+        <v>0.1129729110603285</v>
       </c>
       <c r="L198">
         <v>0.005087963116034413</v>
@@ -15533,13 +15533,13 @@
         <v>0.03499999999999659</v>
       </c>
       <c r="U198">
-        <v>1.000039651385023</v>
+        <v>3.965138502293186E-05</v>
       </c>
       <c r="V198">
-        <v>1.000095141443613</v>
+        <v>9.514144361277843E-05</v>
       </c>
       <c r="W198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15574,7 +15574,7 @@
         <v>1.430112260117772</v>
       </c>
       <c r="K199">
-        <v>58.84963767264248</v>
+        <v>0.08849637672642485</v>
       </c>
       <c r="L199">
         <v>0.005371492301322097</v>
@@ -15604,13 +15604,13 @@
         <v>0.03375000000001194</v>
       </c>
       <c r="U199">
-        <v>1.000023789887712</v>
+        <v>2.37898877115672E-05</v>
       </c>
       <c r="V199">
-        <v>1.000079276993816</v>
+        <v>7.927699381626852E-05</v>
       </c>
       <c r="W199">
-        <v>0.9997623574144487</v>
+        <v>-0.0002376425855512565</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15645,7 +15645,7 @@
         <v>1.187517512865309</v>
       </c>
       <c r="K200">
-        <v>54.28608026592871</v>
+        <v>0.04286080265928716</v>
       </c>
       <c r="L200">
         <v>0.005379813845584212</v>
@@ -15675,13 +15675,13 @@
         <v>0.02750000000000341</v>
       </c>
       <c r="U200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V200">
-        <v>1.000031708283789</v>
+        <v>3.170828378928903E-05</v>
       </c>
       <c r="W200">
-        <v>0.9995246018540527</v>
+        <v>-0.0004753981459473255</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15716,7 +15716,7 @@
         <v>1.276798228430869</v>
       </c>
       <c r="K201">
-        <v>56.07867278212074</v>
+        <v>0.06078672782120742</v>
       </c>
       <c r="L201">
         <v>0.005287938090643339</v>
@@ -15746,13 +15746,13 @@
         <v>0.02625000000001876</v>
       </c>
       <c r="U201">
-        <v>1.000047578643533</v>
+        <v>4.757864353299723E-05</v>
       </c>
       <c r="V201">
-        <v>1.000031707278406</v>
+        <v>3.170727840573484E-05</v>
       </c>
       <c r="W201">
-        <v>1.000237812128419</v>
+        <v>0.0002378121284187795</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15787,7 +15787,7 @@
         <v>1.370777929026128</v>
       </c>
       <c r="K202">
-        <v>57.81975242148548</v>
+        <v>0.07819752421485482</v>
       </c>
       <c r="L202">
         <v>0.005208589176768767</v>
@@ -15817,13 +15817,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U202">
-        <v>1.000055505776565</v>
+        <v>5.550577656521227E-05</v>
       </c>
       <c r="V202">
-        <v>1.000063412546172</v>
+        <v>6.3412546172259E-05</v>
       </c>
       <c r="W202">
-        <v>1.000237755587256</v>
+        <v>0.0002377555872563608</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15858,7 +15858,7 @@
         <v>1.370777929026128</v>
       </c>
       <c r="K203">
-        <v>57.81975242148548</v>
+        <v>0.07819752421485471</v>
       </c>
       <c r="L203">
         <v>0.00512290562295488</v>
@@ -15888,13 +15888,13 @@
         <v>0.02250000000000796</v>
       </c>
       <c r="U203">
-        <v>1.000047573739296</v>
+        <v>4.757373929598074E-05</v>
       </c>
       <c r="V203">
-        <v>1.000047556393957</v>
+        <v>4.755639395681577E-05</v>
       </c>
       <c r="W203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -15929,7 +15929,7 @@
         <v>1.474910561264642</v>
       </c>
       <c r="K204">
-        <v>59.59449946793168</v>
+        <v>0.09594499467931672</v>
       </c>
       <c r="L204">
         <v>0.005106799093284283</v>
@@ -15959,13 +15959,13 @@
         <v>0.02250000000000796</v>
       </c>
       <c r="U204">
-        <v>1.000047571476143</v>
+        <v>4.757147614298241E-05</v>
       </c>
       <c r="V204">
-        <v>1.000110959642393</v>
+        <v>0.0001109596423931603</v>
       </c>
       <c r="W204">
-        <v>1.000237699072974</v>
+        <v>0.0002376990729735518</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -16000,7 +16000,7 @@
         <v>1.803750452544239</v>
       </c>
       <c r="K205">
-        <v>64.33348770064188</v>
+        <v>0.1433348770064188</v>
       </c>
       <c r="L205">
         <v>0.005375096936358273</v>
@@ -16030,13 +16030,13 @@
         <v>0.01750000000001251</v>
       </c>
       <c r="U205">
-        <v>1.00008721022421</v>
+        <v>8.721022420954405E-05</v>
       </c>
       <c r="V205">
-        <v>1.000126796950533</v>
+        <v>0.0001267969505334143</v>
       </c>
       <c r="W205">
-        <v>1.000712927756654</v>
+        <v>0.0007129277566539916</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -16071,7 +16071,7 @@
         <v>1.919132870537052</v>
       </c>
       <c r="K206">
-        <v>65.74325170008368</v>
+        <v>0.1574325170008367</v>
       </c>
       <c r="L206">
         <v>0.005865567631385009</v>
@@ -16101,13 +16101,13 @@
         <v>0.01624999999999943</v>
       </c>
       <c r="U206">
-        <v>1.000063420086727</v>
+        <v>6.342008672688415E-05</v>
       </c>
       <c r="V206">
-        <v>1.000110933265717</v>
+        <v>0.0001109332657169837</v>
       </c>
       <c r="W206">
-        <v>1.000237473284255</v>
+        <v>0.0002374732842553851</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -16142,7 +16142,7 @@
         <v>1.919132870537052</v>
       </c>
       <c r="K207">
-        <v>65.74325170008368</v>
+        <v>0.1574325170008367</v>
       </c>
       <c r="L207">
         <v>0.006437942242105527</v>
@@ -16172,13 +16172,13 @@
         <v>0.01999999999999602</v>
       </c>
       <c r="U207">
-        <v>1.000071343072984</v>
+        <v>7.13430729839537E-05</v>
       </c>
       <c r="V207">
-        <v>1.000095075109336</v>
+        <v>9.507510933626229E-05</v>
       </c>
       <c r="W207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -16213,7 +16213,7 @@
         <v>2.174827979662491</v>
       </c>
       <c r="K208">
-        <v>68.50223047025345</v>
+        <v>0.1850223047025346</v>
       </c>
       <c r="L208">
         <v>0.007173142146631686</v>
@@ -16243,13 +16243,13 @@
         <v>0.03249999999999886</v>
       </c>
       <c r="U208">
-        <v>1.000087190868738</v>
+        <v>8.719086873787418E-05</v>
       </c>
       <c r="V208">
-        <v>1.000142599106379</v>
+        <v>0.0001425991063790377</v>
       </c>
       <c r="W208">
-        <v>1.000474833808167</v>
+        <v>0.0004748338081672632</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -16284,7 +16284,7 @@
         <v>2.713133472558057</v>
       </c>
       <c r="K209">
-        <v>73.06856843712977</v>
+        <v>0.2306856843712977</v>
       </c>
       <c r="L209">
         <v>0.008280275265744935</v>
@@ -16314,13 +16314,13 @@
         <v>0.04625000000000057</v>
       </c>
       <c r="U209">
-        <v>1.00012681202495</v>
+        <v>0.0001268120249502402</v>
       </c>
       <c r="V209">
-        <v>1.000190105033031</v>
+        <v>0.0001901050330306298</v>
       </c>
       <c r="W209">
-        <v>1.000949216896061</v>
+        <v>0.0009492168960607561</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -16355,7 +16355,7 @@
         <v>2.376482525862784</v>
       </c>
       <c r="K210">
-        <v>70.38337997189923</v>
+        <v>0.2038337997189923</v>
       </c>
       <c r="L210">
         <v>0.009425234125230201</v>
@@ -16385,13 +16385,13 @@
         <v>0.05750000000000455</v>
       </c>
       <c r="U210">
-        <v>1.000110946452487</v>
+        <v>0.000110946452487326</v>
       </c>
       <c r="V210">
-        <v>1.000174229824979</v>
+        <v>0.0001742298249785001</v>
       </c>
       <c r="W210">
-        <v>0.9997629208155524</v>
+        <v>-0.0002370791844475972</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -16426,7 +16426,7 @@
         <v>2.376482525862785</v>
       </c>
       <c r="K211">
-        <v>70.38337997189925</v>
+        <v>0.2038337997189924</v>
       </c>
       <c r="L211">
         <v>0.01048564070527968</v>
@@ -16456,13 +16456,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U211">
-        <v>1.000118858012219</v>
+        <v>0.00011885801221867</v>
       </c>
       <c r="V211">
-        <v>1.000174199474234</v>
+        <v>0.0001741994742339159</v>
       </c>
       <c r="W211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -16497,7 +16497,7 @@
         <v>2.376482525862785</v>
       </c>
       <c r="K212">
-        <v>70.38337997189925</v>
+        <v>0.2038337997189924</v>
       </c>
       <c r="L212">
         <v>0.01138889474659609</v>
@@ -16527,13 +16527,13 @@
         <v>0.07750000000000057</v>
       </c>
       <c r="U212">
-        <v>1.000110920960892</v>
+        <v>0.000110920960892491</v>
       </c>
       <c r="V212">
-        <v>1.000142502018779</v>
+        <v>0.0001425020187788562</v>
       </c>
       <c r="W212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16568,7 +16568,7 @@
         <v>2.665928731319517</v>
       </c>
       <c r="K213">
-        <v>72.721782847097</v>
+        <v>0.2272178284709701</v>
       </c>
       <c r="L213">
         <v>0.01227087824851772</v>
@@ -16598,13 +16598,13 @@
         <v>0.08374999999999488</v>
       </c>
       <c r="U213">
-        <v>1.000134674799968</v>
+        <v>0.0001346747999682041</v>
       </c>
       <c r="V213">
-        <v>1.000174144318146</v>
+        <v>0.0001741443181457747</v>
       </c>
       <c r="W213">
-        <v>1.000474270808632</v>
+        <v>0.000474270808631605</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16639,7 +16639,7 @@
         <v>3.275289163860116</v>
       </c>
       <c r="K214">
-        <v>76.60976926535865</v>
+        <v>0.2660976926535865</v>
       </c>
       <c r="L214">
         <v>0.01338508173592001</v>
@@ -16669,13 +16669,13 @@
         <v>0.09250000000000114</v>
       </c>
       <c r="U214">
-        <v>1.000166340586311</v>
+        <v>0.0001663405863110423</v>
       </c>
       <c r="V214">
-        <v>1.000253256723175</v>
+        <v>0.0002532567231745553</v>
       </c>
       <c r="W214">
-        <v>1.000948091964921</v>
+        <v>0.0009480919649205166</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16710,7 +16710,7 @@
         <v>2.822653991000122</v>
       </c>
       <c r="K215">
-        <v>73.8401643896007</v>
+        <v>0.238401643896007</v>
       </c>
       <c r="L215">
         <v>0.01443335099125425</v>
@@ -16740,13 +16740,13 @@
         <v>0.09874999999998124</v>
       </c>
       <c r="U215">
-        <v>1.000150473595844</v>
+        <v>0.0001504735958439696</v>
       </c>
       <c r="V215">
-        <v>1.000269017137974</v>
+        <v>0.0002690171379742257</v>
       </c>
       <c r="W215">
-        <v>0.9997632015155103</v>
+        <v>-0.0002367984844896531</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16781,7 +16781,7 @@
         <v>1.965073216916736</v>
       </c>
       <c r="K216">
-        <v>66.27402000413801</v>
+        <v>0.1627402000413801</v>
       </c>
       <c r="L216">
         <v>0.01506247512340582</v>
@@ -16811,13 +16811,13 @@
         <v>0.09375</v>
       </c>
       <c r="U216">
-        <v>1.000118777071274</v>
+        <v>0.0001187770712740566</v>
       </c>
       <c r="V216">
-        <v>1.000205663660813</v>
+        <v>0.0002056636608132045</v>
       </c>
       <c r="W216">
-        <v>0.9992894362861203</v>
+        <v>-0.000710563713879675</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16852,7 +16852,7 @@
         <v>1.619733786238567</v>
       </c>
       <c r="K217">
-        <v>61.82818249499284</v>
+        <v>0.1182818249499284</v>
       </c>
       <c r="L217">
         <v>0.01516961724347829</v>
@@ -16882,13 +16882,13 @@
         <v>0.07750000000000057</v>
       </c>
       <c r="U217">
-        <v>1.00011084543396</v>
+        <v>0.000110845433959561</v>
       </c>
       <c r="V217">
-        <v>1.00015817028613</v>
+        <v>0.0001581702861299661</v>
       </c>
       <c r="W217">
-        <v>0.9995259540175397</v>
+        <v>-0.0004740459824602583</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -16923,7 +16923,7 @@
         <v>1.897215958702857</v>
       </c>
       <c r="K218">
-        <v>65.48410562919443</v>
+        <v>0.1548410562919443</v>
       </c>
       <c r="L218">
         <v>0.01515799344634895</v>
@@ -16953,13 +16953,13 @@
         <v>0.06875000000000853</v>
       </c>
       <c r="U218">
-        <v>1.000126666455556</v>
+        <v>0.0001266664555561459</v>
       </c>
       <c r="V218">
-        <v>1.000205588853921</v>
+        <v>0.0002055888539211903</v>
       </c>
       <c r="W218">
-        <v>1.000711406212948</v>
+        <v>0.0007114062129476295</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -16994,7 +16994,7 @@
         <v>1.897215958702858</v>
       </c>
       <c r="K219">
-        <v>65.48410562919443</v>
+        <v>0.1548410562919443</v>
       </c>
       <c r="L219">
         <v>0.01501987078684387</v>
@@ -17024,13 +17024,13 @@
         <v>0.05999999999998806</v>
       </c>
       <c r="U219">
-        <v>1.000150397365671</v>
+        <v>0.0001503973656713509</v>
       </c>
       <c r="V219">
-        <v>1.00018973531923</v>
+        <v>0.0001897353192297224</v>
       </c>
       <c r="W219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -17065,7 +17065,7 @@
         <v>1.57448838212524</v>
       </c>
       <c r="K220">
-        <v>61.15733102767005</v>
+        <v>0.1115733102767006</v>
       </c>
       <c r="L220">
         <v>0.01458620737905845</v>
@@ -17095,13 +17095,13 @@
         <v>0.04999999999999716</v>
       </c>
       <c r="U220">
-        <v>1.000118716907662</v>
+        <v>0.0001187169076619643</v>
       </c>
       <c r="V220">
-        <v>1.000110657940497</v>
+        <v>0.0001106579404974717</v>
       </c>
       <c r="W220">
-        <v>0.9995260663507108</v>
+        <v>-0.0004739336492891599</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -17136,7 +17136,7 @@
         <v>1.664017788871033</v>
       </c>
       <c r="K221">
-        <v>62.46271311785107</v>
+        <v>0.1246271311785108</v>
       </c>
       <c r="L221">
         <v>0.01403451855014716</v>
@@ -17166,13 +17166,13 @@
         <v>0.03999999999999204</v>
       </c>
       <c r="U221">
-        <v>1.000110789294589</v>
+        <v>0.0001107892945886313</v>
       </c>
       <c r="V221">
-        <v>1.000110645696673</v>
+        <v>0.0001106456966728508</v>
       </c>
       <c r="W221">
-        <v>1.000237079184447</v>
+        <v>0.0002370791844474862</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -17207,7 +17207,7 @@
         <v>1.208466935097528</v>
       </c>
       <c r="K222">
-        <v>54.71972053972187</v>
+        <v>0.04719720539721872</v>
       </c>
       <c r="L222">
         <v>0.0130495830171181</v>
@@ -17237,13 +17237,13 @@
         <v>0.01624999999999943</v>
       </c>
       <c r="U222">
-        <v>1.000071213799652</v>
+        <v>7.121379965191466E-05</v>
       </c>
       <c r="V222">
-        <v>1.000047414338096</v>
+        <v>4.741433809574147E-05</v>
       </c>
       <c r="W222">
-        <v>0.9990519080350794</v>
+        <v>-0.0009480919649206276</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -17278,7 +17278,7 @@
         <v>1.056271734434879</v>
       </c>
       <c r="K223">
-        <v>51.36829518911672</v>
+        <v>0.01368295189116719</v>
       </c>
       <c r="L223">
         <v>0.01164470735825683</v>
@@ -17308,13 +17308,13 @@
         <v>-0.007499999999993179</v>
       </c>
       <c r="U223">
-        <v>1.000063296647651</v>
+        <v>6.329664765103438E-05</v>
       </c>
       <c r="V223">
-        <v>0.9999841959699725</v>
+        <v>-1.580403002754416E-05</v>
       </c>
       <c r="W223">
-        <v>0.9995255041518387</v>
+        <v>-0.0004744958481612827</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -17349,7 +17349,7 @@
         <v>1.056271734434879</v>
       </c>
       <c r="K224">
-        <v>51.36829518911674</v>
+        <v>0.01368295189116742</v>
       </c>
       <c r="L224">
         <v>0.01003272867539551</v>
@@ -17379,13 +17379,13 @@
         <v>-0.02124999999999488</v>
       </c>
       <c r="U224">
-        <v>1.00005538106126</v>
+        <v>5.538106125957398E-05</v>
       </c>
       <c r="V224">
-        <v>0.9999209786010053</v>
+        <v>-7.902139899473859E-05</v>
       </c>
       <c r="W224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -17420,7 +17420,7 @@
         <v>1.126044988694769</v>
       </c>
       <c r="K225">
-        <v>52.96430671422788</v>
+        <v>0.02964306714227882</v>
       </c>
       <c r="L225">
         <v>0.008448008745228523</v>
@@ -17450,13 +17450,13 @@
         <v>-0.02375000000000682</v>
       </c>
       <c r="U225">
-        <v>1.00006328913642</v>
+        <v>6.32891364198418E-05</v>
       </c>
       <c r="V225">
-        <v>0.9999525834136779</v>
+        <v>-4.741658632212431E-05</v>
       </c>
       <c r="W225">
-        <v>1.000237360550676</v>
+        <v>0.0002373605506764687</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -17491,7 +17491,7 @@
         <v>1.126044988694769</v>
       </c>
       <c r="K226">
-        <v>52.96430671422788</v>
+        <v>0.02964306714227882</v>
       </c>
       <c r="L226">
         <v>0.006950070048475727</v>
@@ -17521,13 +17521,13 @@
         <v>-0.03499999999999659</v>
       </c>
       <c r="U226">
-        <v>1.000063285131158</v>
+        <v>6.328513115838597E-05</v>
       </c>
       <c r="V226">
-        <v>0.999952581165239</v>
+        <v>-4.741883476100384E-05</v>
       </c>
       <c r="W226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -17562,7 +17562,7 @@
         <v>1.126044988694769</v>
       </c>
       <c r="K227">
-        <v>52.96430671422788</v>
+        <v>0.02964306714227882</v>
       </c>
       <c r="L227">
         <v>0.005574873978986569</v>
@@ -17592,13 +17592,13 @@
         <v>-0.04624999999998636</v>
       </c>
       <c r="U227">
-        <v>1.000047460844803</v>
+        <v>4.746084480311552E-05</v>
       </c>
       <c r="V227">
-        <v>0.9999525789165863</v>
+        <v>-4.742108341371232E-05</v>
       </c>
       <c r="W227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -17633,7 +17633,7 @@
         <v>1.532945436339613</v>
       </c>
       <c r="K228">
-        <v>60.52027076251942</v>
+        <v>0.1052027076251942</v>
       </c>
       <c r="L228">
         <v>0.004773375861274221</v>
@@ -17663,13 +17663,13 @@
         <v>-0.04624999999998636</v>
       </c>
       <c r="U228">
-        <v>1.00008700741936</v>
+        <v>8.700741935974143E-05</v>
       </c>
       <c r="V228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W228">
-        <v>1.001186521120076</v>
+        <v>0.00118652112007589</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -17704,7 +17704,7 @@
         <v>1.219536936180809</v>
       </c>
       <c r="K229">
-        <v>54.94555717010434</v>
+        <v>0.04945557170104342</v>
       </c>
       <c r="L229">
         <v>0.004093877701894697</v>
@@ -17734,13 +17734,13 @@
         <v>-0.04999999999999716</v>
       </c>
       <c r="U229">
-        <v>1.000071181695232</v>
+        <v>7.118169523168127E-05</v>
       </c>
       <c r="V229">
-        <v>0.9998893455580146</v>
+        <v>-0.0001106544419854361</v>
       </c>
       <c r="W229">
-        <v>0.9992889310263096</v>
+        <v>-0.000711068973690443</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -17775,7 +17775,7 @@
         <v>1.291273276030711</v>
       </c>
       <c r="K230">
-        <v>56.35614439966101</v>
+        <v>0.06356144399661001</v>
       </c>
       <c r="L230">
         <v>0.003603070825821625</v>
@@ -17805,13 +17805,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U230">
-        <v>1.000094902171678</v>
+        <v>9.490217167806847E-05</v>
       </c>
       <c r="V230">
-        <v>0.9999209523658956</v>
+        <v>-7.904763410437887E-05</v>
       </c>
       <c r="W230">
-        <v>1.000237191650854</v>
+        <v>0.0002371916508541183</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -17846,7 +17846,7 @@
         <v>1.366785212714765</v>
       </c>
       <c r="K231">
-        <v>57.74859524101159</v>
+        <v>0.07748595241011591</v>
       </c>
       <c r="L231">
         <v>0.003331109347831535</v>
@@ -17876,13 +17876,13 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="U231">
-        <v>1.00009489316611</v>
+        <v>9.489316611022147E-05</v>
       </c>
       <c r="V231">
-        <v>0.9999841892233748</v>
+        <v>-1.581077662515806E-05</v>
       </c>
       <c r="W231">
-        <v>1.000237135404316</v>
+        <v>0.0002371354043158025</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -17917,7 +17917,7 @@
         <v>1.366785212714765</v>
       </c>
       <c r="K232">
-        <v>57.7485952410116</v>
+        <v>0.07748595241011602</v>
       </c>
       <c r="L232">
         <v>0.00319691219299073</v>
@@ -17947,13 +17947,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U232">
-        <v>1.000086977148731</v>
+        <v>8.69771487310711E-05</v>
       </c>
       <c r="V232">
-        <v>1.00001581102661</v>
+        <v>1.581102660996869E-05</v>
       </c>
       <c r="W232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -17988,7 +17988,7 @@
         <v>1.261256236459989</v>
       </c>
       <c r="K233">
-        <v>55.77679416086404</v>
+        <v>0.05776794160864041</v>
       </c>
       <c r="L233">
         <v>0.003056690085756131</v>
@@ -18018,13 +18018,13 @@
         <v>0.001249999999984652</v>
       </c>
       <c r="U233">
-        <v>1.000079063258513</v>
+        <v>7.906325851325668E-05</v>
       </c>
       <c r="V233">
-        <v>0.9999525676701239</v>
+        <v>-4.743232987614032E-05</v>
       </c>
       <c r="W233">
-        <v>0.9997629208155524</v>
+        <v>-0.0002370791844475972</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -18059,7 +18059,7 @@
         <v>1.261256236459989</v>
       </c>
       <c r="K234">
-        <v>55.77679416086404</v>
+        <v>0.05776794160864041</v>
       </c>
       <c r="L234">
         <v>0.002910621714214361</v>
@@ -18089,13 +18089,13 @@
         <v>0.01250000000000284</v>
       </c>
       <c r="U234">
-        <v>1.000071151307207</v>
+        <v>7.115130720736218E-05</v>
       </c>
       <c r="V234">
-        <v>0.9999525654201913</v>
+        <v>-4.743457980871391E-05</v>
       </c>
       <c r="W234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -18130,7 +18130,7 @@
         <v>1.076982701776904</v>
       </c>
       <c r="K235">
-        <v>51.85323406186878</v>
+        <v>0.0185323406186878</v>
       </c>
       <c r="L235">
         <v>0.002586964204713544</v>
@@ -18160,13 +18160,13 @@
         <v>0.02125000000000909</v>
       </c>
       <c r="U235">
-        <v>1.00003162055336</v>
+        <v>3.162055335970138E-05</v>
       </c>
       <c r="V235">
-        <v>0.9999525631700452</v>
+        <v>-4.743682995478338E-05</v>
       </c>
       <c r="W235">
-        <v>0.9995257291913682</v>
+        <v>-0.000474270808631827</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -18201,7 +18201,7 @@
         <v>1.00008013432454</v>
       </c>
       <c r="K236">
-        <v>50.00200327784783</v>
+        <v>2.0032778478285E-05</v>
       </c>
       <c r="L236">
         <v>0.002080562725344734</v>
@@ -18231,13 +18231,13 @@
         <v>0.01375000000000171</v>
       </c>
       <c r="U236">
-        <v>1.000015809776766</v>
+        <v>1.580977676618467E-05</v>
       </c>
       <c r="V236">
-        <v>0.9999209348661426</v>
+        <v>-7.906513385735892E-05</v>
       </c>
       <c r="W236">
-        <v>0.9997627520759194</v>
+        <v>-0.0002372479240806413</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -18272,7 +18272,7 @@
         <v>1.225571419009845</v>
       </c>
       <c r="K237">
-        <v>55.0677191727732</v>
+        <v>0.050677191727732</v>
       </c>
       <c r="L237">
         <v>0.001747281441009341</v>
@@ -18302,13 +18302,13 @@
         <v>0.01875000000001137</v>
       </c>
       <c r="U237">
-        <v>1.000039523817052</v>
+        <v>3.952381705185637E-05</v>
       </c>
       <c r="V237">
-        <v>1.000031628554259</v>
+        <v>3.162855425897781E-05</v>
       </c>
       <c r="W237">
-        <v>1.000711912672046</v>
+        <v>0.0007119126720456226</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -18343,7 +18343,7 @@
         <v>0.990473398848763</v>
       </c>
       <c r="K238">
-        <v>49.76069509000354</v>
+        <v>-0.002393049099964573</v>
       </c>
       <c r="L238">
         <v>0.001274631910239951</v>
@@ -18373,13 +18373,13 @@
         <v>0.01250000000000284</v>
       </c>
       <c r="U238">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V238">
-        <v>1.000015813776963</v>
+        <v>1.581377696258102E-05</v>
       </c>
       <c r="W238">
-        <v>0.9992885937870524</v>
+        <v>-0.0007114062129476295</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -18414,7 +18414,7 @@
         <v>0.8729594181619968</v>
       </c>
       <c r="K239">
-        <v>46.60856021208744</v>
+        <v>-0.03391439787912559</v>
       </c>
       <c r="L239">
         <v>0.0005702920245207123</v>
@@ -18444,13 +18444,13 @@
         <v>-0.001249999999998863</v>
       </c>
       <c r="U239">
-        <v>0.9999525732940217</v>
+        <v>-4.742670597834842E-05</v>
       </c>
       <c r="V239">
-        <v>0.999984186473109</v>
+        <v>-1.581352689095095E-05</v>
       </c>
       <c r="W239">
-        <v>0.9995253915519695</v>
+        <v>-0.0004746084480304891</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -18485,7 +18485,7 @@
         <v>0.9978481099557163</v>
       </c>
       <c r="K240">
-        <v>49.94614480366249</v>
+        <v>-0.0005385519633751001</v>
       </c>
       <c r="L240">
         <v>-5.885977357453559E-05</v>
@@ -18515,13 +18515,13 @@
         <v>-0.01250000000000284</v>
       </c>
       <c r="U240">
-        <v>0.9999762855223114</v>
+        <v>-2.371447768856338E-05</v>
       </c>
       <c r="V240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W240">
-        <v>1.000474833808167</v>
+        <v>0.0004748338081672632</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -18556,7 +18556,7 @@
         <v>0.9978481099557164</v>
       </c>
       <c r="K241">
-        <v>49.94614480366249</v>
+        <v>-0.0005385519633751001</v>
       </c>
       <c r="L241">
         <v>-0.000602162348099927</v>
@@ -18586,13 +18586,13 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="U241">
-        <v>0.9999762849599216</v>
+        <v>-2.371504007836478E-05</v>
       </c>
       <c r="V241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -18627,7 +18627,7 @@
         <v>1.067038520921741</v>
       </c>
       <c r="K242">
-        <v>51.62160792465172</v>
+        <v>0.01621607924651725</v>
       </c>
       <c r="L242">
         <v>-0.0009702781644265864</v>
@@ -18657,13 +18657,13 @@
         <v>-0.02625000000000455</v>
       </c>
       <c r="U242">
-        <v>0.9999841895983367</v>
+        <v>-1.581040166331871E-05</v>
       </c>
       <c r="V242">
-        <v>1.000015813776963</v>
+        <v>1.581377696258102E-05</v>
       </c>
       <c r="W242">
-        <v>1.000237304224015</v>
+        <v>0.0002373042240151335</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -18698,7 +18698,7 @@
         <v>1.285534555551346</v>
       </c>
       <c r="K243">
-        <v>56.2465595818232</v>
+        <v>0.06246559581823197</v>
       </c>
       <c r="L243">
         <v>-0.0009461579646565354</v>
@@ -18728,13 +18728,13 @@
         <v>-0.02375000000000682</v>
       </c>
       <c r="U243">
-        <v>0.999992094674182</v>
+        <v>-7.905325817958442E-06</v>
       </c>
       <c r="V243">
-        <v>0.999984186473109</v>
+        <v>-1.581352689095095E-05</v>
       </c>
       <c r="W243">
-        <v>1.000711743772242</v>
+        <v>0.000711743772241924</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -18769,7 +18769,7 @@
         <v>1.045153591951126</v>
       </c>
       <c r="K244">
-        <v>51.10391689232613</v>
+        <v>0.01103916892326129</v>
       </c>
       <c r="L244">
         <v>-0.0009416139089186654</v>
@@ -18799,13 +18799,13 @@
         <v>-0.01624999999999943</v>
       </c>
       <c r="U244">
-        <v>0.9999367568934984</v>
+        <v>-6.324310650163145E-05</v>
       </c>
       <c r="V244">
-        <v>0.9999841862230375</v>
+        <v>-1.581377696246999E-05</v>
       </c>
       <c r="W244">
-        <v>0.9992887624466572</v>
+        <v>-0.0007112375533427917</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -18840,7 +18840,7 @@
         <v>0.9239168294876774</v>
       </c>
       <c r="K245">
-        <v>48.02270115458726</v>
+        <v>-0.01977298845412739</v>
       </c>
       <c r="L245">
         <v>-0.00111853916598517</v>
@@ -18870,13 +18870,13 @@
         <v>-0.02250000000000796</v>
       </c>
       <c r="U245">
-        <v>0.9999288470052496</v>
+        <v>-7.115299475035641E-05</v>
       </c>
       <c r="V245">
-        <v>0.9999367438918322</v>
+        <v>-6.325610816781957E-05</v>
       </c>
       <c r="W245">
-        <v>0.9995255041518387</v>
+        <v>-0.0004744958481612827</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -18911,7 +18911,7 @@
         <v>1.229177333018418</v>
       </c>
       <c r="K246">
-        <v>55.14040156482528</v>
+        <v>0.0514040156482527</v>
       </c>
       <c r="L246">
         <v>-0.0009581890570848445</v>
@@ -18941,13 +18941,13 @@
         <v>-0.01375000000000171</v>
       </c>
       <c r="U246">
-        <v>0.9999920935491267</v>
+        <v>-7.906450873340631E-06</v>
       </c>
       <c r="V246">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W246">
-        <v>1.001186802753382</v>
+        <v>0.001186802753382343</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -18982,7 +18982,7 @@
         <v>1.154953800651755</v>
       </c>
       <c r="K247">
-        <v>53.59529286903716</v>
+        <v>0.03595292869037159</v>
       </c>
       <c r="L247">
         <v>-0.0006866039909147932</v>
@@ -19012,13 +19012,13 @@
         <v>0</v>
       </c>
       <c r="U247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V247">
-        <v>0.999984184972561</v>
+        <v>-1.581502743897012E-05</v>
       </c>
       <c r="W247">
-        <v>0.9997629208155524</v>
+        <v>-0.0002370791844475972</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -19053,7 +19053,7 @@
         <v>1.024689409465331</v>
       </c>
       <c r="K248">
-        <v>50.60970856443239</v>
+        <v>0.006097085644323874</v>
       </c>
       <c r="L248">
         <v>-0.0005351854252476269</v>
@@ -19083,13 +19083,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U248">
-        <v>0.9999604674330714</v>
+        <v>-3.953256692856844E-05</v>
       </c>
       <c r="V248">
-        <v>0.9999683694448838</v>
+        <v>-3.163055511623547E-05</v>
       </c>
       <c r="W248">
-        <v>0.9995257291913682</v>
+        <v>-0.000474270808631827</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -19124,7 +19124,7 @@
         <v>0.9672704371378619</v>
       </c>
       <c r="K249">
-        <v>49.16814784982598</v>
+        <v>-0.008318521501740173</v>
       </c>
       <c r="L249">
         <v>-0.0005506456168538362</v>
@@ -19154,13 +19154,13 @@
         <v>0.01000000000000512</v>
       </c>
       <c r="U249">
-        <v>0.999952559044223</v>
+        <v>-4.744095577702279E-05</v>
       </c>
       <c r="V249">
-        <v>0.99995255266654</v>
+        <v>-4.744733345996011E-05</v>
       </c>
       <c r="W249">
-        <v>0.9997627520759194</v>
+        <v>-0.0002372479240806413</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -19195,7 +19195,7 @@
         <v>0.9672704371378618</v>
       </c>
       <c r="K250">
-        <v>49.16814784982598</v>
+        <v>-0.008318521501740228</v>
       </c>
       <c r="L250">
         <v>-0.0006642176514232117</v>
@@ -19225,13 +19225,13 @@
         <v>0.01125000000000398</v>
       </c>
       <c r="U250">
-        <v>0.9999683711956476</v>
+        <v>-3.162880435236826E-05</v>
       </c>
       <c r="V250">
-        <v>0.9999841834717279</v>
+        <v>-1.581652827209457E-05</v>
       </c>
       <c r="W250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -19266,7 +19266,7 @@
         <v>1.091448806534562</v>
       </c>
       <c r="K251">
-        <v>52.18625495993108</v>
+        <v>0.02186254959931078</v>
       </c>
       <c r="L251">
         <v>-0.0006548195011493001</v>
@@ -19296,13 +19296,13 @@
         <v>0.005000000000009663</v>
       </c>
       <c r="U251">
-        <v>0.9999762776464265</v>
+        <v>-2.37223535735076E-05</v>
       </c>
       <c r="V251">
-        <v>1.000031633556877</v>
+        <v>3.163355687707536E-05</v>
       </c>
       <c r="W251">
-        <v>1.00047460844803</v>
+        <v>0.000474608448030267</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -19337,7 +19337,7 @@
         <v>1.024491104029406</v>
       </c>
       <c r="K252">
-        <v>50.60487062602203</v>
+        <v>0.006048706260220249</v>
       </c>
       <c r="L252">
         <v>-0.0006555139324586981</v>
@@ -19367,13 +19367,13 @@
         <v>0.003749999999982379</v>
       </c>
       <c r="U252">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="V252">
-        <v>0.999968367443773</v>
+        <v>-3.163255622695704E-05</v>
       </c>
       <c r="W252">
-        <v>0.9997628083491461</v>
+        <v>-0.0002371916508538963</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -19408,7 +19408,7 @@
         <v>0.9073095995994455</v>
       </c>
       <c r="K253">
-        <v>47.5701270412517</v>
+        <v>-0.02429872958748297</v>
       </c>
       <c r="L253">
         <v>-0.000832649799210153</v>
@@ -19438,13 +19438,13 @@
         <v>0.008749999999992042</v>
       </c>
       <c r="U253">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V253">
-        <v>0.9999841832215616</v>
+        <v>-1.581677843842666E-05</v>
       </c>
       <c r="W253">
-        <v>0.9995255041518387</v>
+        <v>-0.0004744958481612827</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -19479,7 +19479,7 @@
         <v>0.9073095995994457</v>
       </c>
       <c r="K254">
-        <v>47.57012704125172</v>
+        <v>-0.02429872958748286</v>
       </c>
       <c r="L254">
         <v>-0.001102364018098058</v>
@@ -19509,13 +19509,13 @@
         <v>-0.002500000000011937</v>
       </c>
       <c r="U254">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="V254">
-        <v>1.000015817028613</v>
+        <v>1.581702861286338E-05</v>
       </c>
       <c r="W254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -19550,7 +19550,7 @@
         <v>0.970678135269392</v>
       </c>
       <c r="K255">
-        <v>49.25604632725578</v>
+        <v>-0.007439536727442186</v>
       </c>
       <c r="L255">
         <v>-0.001320589410981456</v>
@@ -19580,13 +19580,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W255">
-        <v>1.000237360550676</v>
+        <v>0.0002373605506764687</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -19621,7 +19621,7 @@
         <v>1.03738185702723</v>
       </c>
       <c r="K256">
-        <v>50.91739937946083</v>
+        <v>0.009173993794608259</v>
       </c>
       <c r="L256">
         <v>-0.001402528375302906</v>
@@ -19651,13 +19651,13 @@
         <v>-0.01375000000000171</v>
       </c>
       <c r="U256">
-        <v>1.000007907638779</v>
+        <v>7.907638779336423E-06</v>
       </c>
       <c r="V256">
-        <v>1.000015816778439</v>
+        <v>1.581677843853768E-05</v>
       </c>
       <c r="W256">
-        <v>1.000237304224015</v>
+        <v>0.0002373042240151335</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -19692,7 +19692,7 @@
         <v>1.03738185702723</v>
       </c>
       <c r="K257">
-        <v>50.91739937946083</v>
+        <v>0.009173993794608259</v>
       </c>
       <c r="L257">
         <v>-0.001391571214839208</v>
@@ -19722,13 +19722,13 @@
         <v>-0.01250000000000284</v>
       </c>
       <c r="U257">
-        <v>1.000007907576248</v>
+        <v>7.907576248467052E-06</v>
       </c>
       <c r="V257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -19763,7 +19763,7 @@
         <v>1.03738185702723</v>
       </c>
       <c r="K258">
-        <v>50.91739937946083</v>
+        <v>0.009173993794608259</v>
       </c>
       <c r="L258">
         <v>-0.001319964114862024</v>
@@ -19793,13 +19793,13 @@
         <v>-0.009999999999990905</v>
       </c>
       <c r="U258">
-        <v>0.9999683699451219</v>
+        <v>-3.163005487805126E-05</v>
       </c>
       <c r="V258">
-        <v>0.9999525504151838</v>
+        <v>-4.744958481617267E-05</v>
       </c>
       <c r="W258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -19834,7 +19834,7 @@
         <v>1.426381546532156</v>
       </c>
       <c r="K259">
-        <v>58.78636641342643</v>
+        <v>0.08786366413426427</v>
       </c>
       <c r="L259">
         <v>-0.0007794419775643976</v>
@@ -19864,13 +19864,13 @@
         <v>-0.002499999999997726</v>
       </c>
       <c r="U259">
-        <v>1.00003163105537</v>
+        <v>3.163105537029587E-05</v>
       </c>
       <c r="V259">
-        <v>1.000079086393977</v>
+        <v>7.908639397680162E-05</v>
       </c>
       <c r="W259">
-        <v>1.001186239620403</v>
+        <v>0.001186239620403429</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -19905,7 +19905,7 @@
         <v>1.145058883324866</v>
       </c>
       <c r="K260">
-        <v>53.3812331319321</v>
+        <v>0.03381233131932104</v>
       </c>
       <c r="L260">
         <v>-0.0002455877193347709</v>
@@ -19935,13 +19935,13 @@
         <v>1.4210854715202E-14</v>
       </c>
       <c r="U260">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="V260">
-        <v>1.000063264111851</v>
+        <v>6.32641118507582E-05</v>
       </c>
       <c r="W260">
-        <v>0.9992890995260664</v>
+        <v>-0.0007109004739336289</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -19976,7 +19976,7 @@
         <v>1.491073267163812</v>
       </c>
       <c r="K261">
-        <v>59.85666045308493</v>
+        <v>0.09856660453084931</v>
       </c>
       <c r="L261">
         <v>0.0006830300711442116</v>
@@ -20006,13 +20006,13 @@
         <v>0.01125000000000398</v>
       </c>
       <c r="U261">
-        <v>1.000031630054878</v>
+        <v>3.163005487838433E-05</v>
       </c>
       <c r="V261">
-        <v>1.000063260109756</v>
+        <v>6.326010975632457E-05</v>
       </c>
       <c r="W261">
-        <v>1.001185677021579</v>
+        <v>0.001185677021579234</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -20047,7 +20047,7 @@
         <v>1.389830853203497</v>
       </c>
       <c r="K262">
-        <v>58.15603440471405</v>
+        <v>0.08156034404714052</v>
       </c>
       <c r="L262">
         <v>0.001702742879529362</v>
@@ -20077,13 +20077,13 @@
         <v>0.0274999999999892</v>
       </c>
       <c r="U262">
-        <v>1.000023721790837</v>
+        <v>2.372179083698356E-05</v>
       </c>
       <c r="V262">
-        <v>1.000063256108168</v>
+        <v>6.325610816793059E-05</v>
       </c>
       <c r="W262">
-        <v>0.9997631454287068</v>
+        <v>-0.000236854571293188</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -20118,7 +20118,7 @@
         <v>1.461303506097476</v>
       </c>
       <c r="K263">
-        <v>59.3711219472664</v>
+        <v>0.09371121947266392</v>
       </c>
       <c r="L263">
         <v>0.002792812465714629</v>
@@ -20148,13 +20148,13 @@
         <v>0.04124999999999091</v>
       </c>
       <c r="U263">
-        <v>1.000039535380212</v>
+        <v>3.95353802116194E-05</v>
       </c>
       <c r="V263">
-        <v>1.0001106911874</v>
+        <v>0.0001106911874002581</v>
       </c>
       <c r="W263">
-        <v>1.000236910684672</v>
+        <v>0.0002369106846717983</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -20189,7 +20189,7 @@
         <v>1.461303506097476</v>
       </c>
       <c r="K264">
-        <v>59.3711219472664</v>
+        <v>0.09371121947266403</v>
       </c>
       <c r="L264">
         <v>0.003845818686213189</v>
@@ -20219,13 +20219,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U264">
-        <v>1.000039533817227</v>
+        <v>3.953381722721083E-05</v>
       </c>
       <c r="V264">
-        <v>1.00012649021282</v>
+        <v>0.0001264902128197409</v>
       </c>
       <c r="W264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -20260,7 +20260,7 @@
         <v>1.261497284412183</v>
       </c>
       <c r="K265">
-        <v>55.78150781375253</v>
+        <v>0.05781507813752529</v>
       </c>
       <c r="L265">
         <v>0.004622446045337396</v>
@@ -20290,13 +20290,13 @@
         <v>0.05499999999999261</v>
       </c>
       <c r="U265">
-        <v>1.000039532254366</v>
+        <v>3.953225436648111E-05</v>
       </c>
       <c r="V265">
-        <v>1.000094855661302</v>
+        <v>9.485566130207346E-05</v>
       </c>
       <c r="W265">
-        <v>0.9995262908574136</v>
+        <v>-0.000473709142586376</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -20331,7 +20331,7 @@
         <v>1.261497284412183</v>
       </c>
       <c r="K266">
-        <v>55.78150781375253</v>
+        <v>0.05781507813752529</v>
       </c>
       <c r="L266">
         <v>0.005165281389653289</v>
@@ -20361,13 +20361,13 @@
         <v>0.05999999999998806</v>
       </c>
       <c r="U266">
-        <v>1.000047436829955</v>
+        <v>4.743682995456133E-05</v>
       </c>
       <c r="V266">
-        <v>1.000063231109706</v>
+        <v>6.323110970618551E-05</v>
       </c>
       <c r="W266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -20402,7 +20402,7 @@
         <v>1.413000332520656</v>
       </c>
       <c r="K267">
-        <v>58.55781756335751</v>
+        <v>0.08557817563357506</v>
       </c>
       <c r="L267">
         <v>0.005685796429835779</v>
@@ -20432,13 +20432,13 @@
         <v>0.05750000000000455</v>
       </c>
       <c r="U267">
-        <v>1.000039528816507</v>
+        <v>3.952881650737261E-05</v>
       </c>
       <c r="V267">
-        <v>1.000110647445624</v>
+        <v>0.000110647445624279</v>
       </c>
       <c r="W267">
-        <v>1.000473933649289</v>
+        <v>0.0004739336492889379</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -20473,7 +20473,7 @@
         <v>1.572477225266474</v>
       </c>
       <c r="K268">
-        <v>61.12696391718634</v>
+        <v>0.1112696391718634</v>
       </c>
       <c r="L268">
         <v>0.006311596437509895</v>
@@ -20503,13 +20503,13 @@
         <v>0.06375000000001307</v>
       </c>
       <c r="U268">
-        <v>1.000079054508083</v>
+        <v>7.905450808332048E-05</v>
       </c>
       <c r="V268">
-        <v>1.000173855320763</v>
+        <v>0.0001738553207630833</v>
       </c>
       <c r="W268">
-        <v>1.000473709142587</v>
+        <v>0.000473709142586598</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -20544,7 +20544,7 @@
         <v>1.656412431974769</v>
       </c>
       <c r="K269">
-        <v>62.35524318576527</v>
+        <v>0.1235524318576527</v>
       </c>
       <c r="L269">
         <v>0.007024596687149992</v>
@@ -20574,13 +20574,13 @@
         <v>0.0562500000000199</v>
       </c>
       <c r="U269">
-        <v>1.000102762736651</v>
+        <v>0.0001027627366509964</v>
       </c>
       <c r="V269">
-        <v>1.000189627382194</v>
+        <v>0.0001896273821939687</v>
       </c>
       <c r="W269">
-        <v>1.000236742424242</v>
+        <v>0.000236742424242431</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -20615,7 +20615,7 @@
         <v>1.521944315433287</v>
       </c>
       <c r="K270">
-        <v>60.34805392488639</v>
+        <v>0.1034805392488639</v>
       </c>
       <c r="L270">
         <v>0.007632958175064064</v>
@@ -20645,13 +20645,13 @@
         <v>0.04999999999999716</v>
       </c>
       <c r="U270">
-        <v>1.000079040136581</v>
+        <v>7.904013658133202E-05</v>
       </c>
       <c r="V270">
-        <v>1.000157992858723</v>
+        <v>0.0001579928587227553</v>
       </c>
       <c r="W270">
-        <v>0.9997633136094675</v>
+        <v>-0.0002366863905325367</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -20686,7 +20686,7 @@
         <v>1.607397299907926</v>
       </c>
       <c r="K271">
-        <v>61.64757860126216</v>
+        <v>0.1164757860126217</v>
       </c>
       <c r="L271">
         <v>0.008197643589636629</v>
@@ -20716,13 +20716,13 @@
         <v>0.04375000000001705</v>
       </c>
       <c r="U271">
-        <v>1.000086937278705</v>
+        <v>8.693727870490164E-05</v>
       </c>
       <c r="V271">
-        <v>1.000157967900922</v>
+        <v>0.0001579679009224844</v>
       </c>
       <c r="W271">
-        <v>1.000236742424242</v>
+        <v>0.000236742424242431</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -20757,7 +20757,7 @@
         <v>1.69734780988123</v>
       </c>
       <c r="K272">
-        <v>62.9265459820685</v>
+        <v>0.129265459820685</v>
       </c>
       <c r="L272">
         <v>0.008756291708962647</v>
@@ -20787,13 +20787,13 @@
         <v>0.04000000000000625</v>
       </c>
       <c r="U272">
-        <v>1.000086929721272</v>
+        <v>8.692972127177789E-05</v>
       </c>
       <c r="V272">
-        <v>1.000173737246107</v>
+        <v>0.0001737372461068087</v>
       </c>
       <c r="W272">
-        <v>1.000236686390533</v>
+        <v>0.0002366863905325367</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -20828,7 +20828,7 @@
         <v>1.550535726386212</v>
       </c>
       <c r="K273">
-        <v>60.79255077062284</v>
+        <v>0.1079255077062284</v>
       </c>
       <c r="L273">
         <v>0.009157368538494994</v>
@@ -20858,13 +20858,13 @@
         <v>0.04000000000000625</v>
       </c>
       <c r="U273">
-        <v>1.000055314105097</v>
+        <v>5.531410509673762E-05</v>
       </c>
       <c r="V273">
-        <v>1.000157915515199</v>
+        <v>0.0001579155151993916</v>
       </c>
       <c r="W273">
-        <v>0.9997633696166588</v>
+        <v>-0.0002366303833412076</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -20899,7 +20899,7 @@
         <v>1.914725162065291</v>
       </c>
       <c r="K274">
-        <v>65.69144792741184</v>
+        <v>0.1569144792741184</v>
       </c>
       <c r="L274">
         <v>0.009749322812742042</v>
@@ -20929,13 +20929,13 @@
         <v>0.04499999999998749</v>
       </c>
       <c r="U274">
-        <v>1.000110622091232</v>
+        <v>0.0001106220912316935</v>
       </c>
       <c r="V274">
-        <v>1.000142101523644</v>
+        <v>0.0001421015236440226</v>
       </c>
       <c r="W274">
-        <v>1.00094674556213</v>
+        <v>0.0009467455621301468</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -20970,7 +20970,7 @@
         <v>1.487144411531796</v>
       </c>
       <c r="K275">
-        <v>59.79324741404483</v>
+        <v>0.09793247414044837</v>
       </c>
       <c r="L275">
         <v>0.01012458457165141</v>
@@ -21000,13 +21000,13 @@
         <v>0.04749999999998522</v>
       </c>
       <c r="U275">
-        <v>1.000102709151385</v>
+        <v>0.0001027091513852163</v>
       </c>
       <c r="V275">
-        <v>1.00014208133367</v>
+        <v>0.0001420813336701077</v>
       </c>
       <c r="W275">
-        <v>0.9992906124379286</v>
+        <v>-0.0007093875620713952</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -21041,7 +21041,7 @@
         <v>1.285667412908906</v>
       </c>
       <c r="K276">
-        <v>56.24910280681091</v>
+        <v>0.06249102806810913</v>
       </c>
       <c r="L276">
         <v>0.01013512308917443</v>
@@ -21071,13 +21071,13 @@
         <v>0.03874999999997897</v>
       </c>
       <c r="U276">
-        <v>1.000047399355369</v>
+        <v>4.739935536890449E-05</v>
       </c>
       <c r="V276">
-        <v>1.000031569144318</v>
+        <v>3.156914431845514E-05</v>
       </c>
       <c r="W276">
-        <v>0.9995267392333177</v>
+        <v>-0.0004732607666823041</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -21112,7 +21112,7 @@
         <v>1.428277000476492</v>
       </c>
       <c r="K277">
-        <v>58.8185367730381</v>
+        <v>0.08818536773038099</v>
       </c>
       <c r="L277">
         <v>0.01005974863867077</v>
@@ -21142,13 +21142,13 @@
         <v>0.03624999999998124</v>
       </c>
       <c r="U277">
-        <v>1.000071095663165</v>
+        <v>7.109566316465532E-05</v>
       </c>
       <c r="V277">
-        <v>1.000078920369347</v>
+        <v>7.892036934720181E-05</v>
       </c>
       <c r="W277">
-        <v>1.000473484848485</v>
+        <v>0.0004734848484848619</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -21183,7 +21183,7 @@
         <v>1.578392355810847</v>
       </c>
       <c r="K278">
-        <v>61.21614316198504</v>
+        <v>0.1121614316198505</v>
       </c>
       <c r="L278">
         <v>0.0100730453907511</v>
@@ -21213,13 +21213,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U278">
-        <v>1.000102686435122</v>
+        <v>0.0001026864351219015</v>
       </c>
       <c r="V278">
-        <v>1.000094696969697</v>
+        <v>9.469696969688357E-05</v>
       </c>
       <c r="W278">
-        <v>1.000473260766682</v>
+        <v>0.0004732607666824151</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -21254,7 +21254,7 @@
         <v>1.657400437565742</v>
       </c>
       <c r="K279">
-        <v>62.36923928122666</v>
+        <v>0.1236923928122666</v>
       </c>
       <c r="L279">
         <v>0.01018873201439167</v>
@@ -21284,13 +21284,13 @@
         <v>0.03875000000000739</v>
       </c>
       <c r="U279">
-        <v>1.000118472182732</v>
+        <v>0.0001184721827316437</v>
       </c>
       <c r="V279">
-        <v>1.000110469336868</v>
+        <v>0.000110469336868313</v>
       </c>
       <c r="W279">
-        <v>1.000236518448439</v>
+        <v>0.0002365184484389715</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -21325,7 +21325,7 @@
         <v>1.530143877006498</v>
       </c>
       <c r="K280">
-        <v>60.47655593471091</v>
+        <v>0.1047655593471091</v>
       </c>
       <c r="L280">
         <v>0.01023560506960392</v>
@@ -21355,13 +21355,13 @@
         <v>0.03624999999999545</v>
       </c>
       <c r="U280">
-        <v>1.000110560938821</v>
+        <v>0.0001105609388205586</v>
       </c>
       <c r="V280">
-        <v>1.000126236725419</v>
+        <v>0.0001262367254193375</v>
       </c>
       <c r="W280">
-        <v>0.9997635374793096</v>
+        <v>-0.0002364625206904281</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -21396,7 +21396,7 @@
         <v>1.317222923480444</v>
       </c>
       <c r="K281">
-        <v>56.84489438340224</v>
+        <v>0.06844894383402245</v>
       </c>
       <c r="L281">
         <v>0.01002795317233161</v>
@@ -21426,13 +21426,13 @@
         <v>0.03124999999998579</v>
       </c>
       <c r="U281">
-        <v>1.000078963368893</v>
+        <v>7.896336889312572E-05</v>
       </c>
       <c r="V281">
-        <v>1.00009466559379</v>
+        <v>9.466559379012196E-05</v>
       </c>
       <c r="W281">
-        <v>0.9995269631031219</v>
+        <v>-0.0004730368968780541</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -21467,7 +21467,7 @@
         <v>1.46369759352231</v>
       </c>
       <c r="K282">
-        <v>59.4106028828678</v>
+        <v>0.09410602882867802</v>
       </c>
       <c r="L282">
         <v>0.009815352849419142</v>
@@ -21497,13 +21497,13 @@
         <v>0.01875000000001137</v>
       </c>
       <c r="U282">
-        <v>1.000102644274423</v>
+        <v>0.0001026442744234135</v>
       </c>
       <c r="V282">
-        <v>1.000094656633064</v>
+        <v>9.465663306373884E-05</v>
       </c>
       <c r="W282">
-        <v>1.000473260766682</v>
+        <v>0.0004732607666824151</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -21538,7 +21538,7 @@
         <v>1.46369759352231</v>
       </c>
       <c r="K283">
-        <v>59.4106028828678</v>
+        <v>0.09410602882867802</v>
       </c>
       <c r="L283">
         <v>0.009577524614557902</v>
@@ -21568,13 +21568,13 @@
         <v>0.01624999999999943</v>
       </c>
       <c r="U283">
-        <v>1.000118423545759</v>
+        <v>0.0001184235457587501</v>
       </c>
       <c r="V283">
-        <v>1.000063098449355</v>
+        <v>6.309844935548092E-05</v>
       </c>
       <c r="W283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -21609,7 +21609,7 @@
         <v>1.353834716312849</v>
       </c>
       <c r="K284">
-        <v>57.51613343665674</v>
+        <v>0.07516133436656747</v>
       </c>
       <c r="L284">
         <v>0.009218427458021554</v>
@@ -21639,13 +21639,13 @@
         <v>0.02000000000001023</v>
       </c>
       <c r="U284">
-        <v>1.000110515555064</v>
+        <v>0.0001105155550644721</v>
       </c>
       <c r="V284">
-        <v>1.000031547234096</v>
+        <v>3.154723409615201E-05</v>
       </c>
       <c r="W284">
-        <v>0.999763481551561</v>
+        <v>-0.0002365184484389715</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -21680,7 +21680,7 @@
         <v>1.353834716312849</v>
       </c>
       <c r="K285">
-        <v>57.51613343665674</v>
+        <v>0.07516133436656747</v>
       </c>
       <c r="L285">
         <v>0.008775186074142863</v>
@@ -21710,13 +21710,13 @@
         <v>0.02000000000001023</v>
       </c>
       <c r="U285">
-        <v>1.000102610246817</v>
+        <v>0.0001026102468169032</v>
       </c>
       <c r="V285">
-        <v>1.000047319358349</v>
+        <v>4.731935834945133E-05</v>
       </c>
       <c r="W285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -21751,7 +21751,7 @@
         <v>1.160760219812605</v>
       </c>
       <c r="K286">
-        <v>53.71999211986942</v>
+        <v>0.0371999211986942</v>
       </c>
       <c r="L286">
         <v>0.008104822523172609</v>
@@ -21781,13 +21781,13 @@
         <v>0.01125000000000398</v>
       </c>
       <c r="U286">
-        <v>1.000078922860796</v>
+        <v>7.892286079580479E-05</v>
       </c>
       <c r="V286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W286">
-        <v>0.9995268511947006</v>
+        <v>-0.0004731488052993615</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -21822,7 +21822,7 @@
         <v>1.310879218577115</v>
       </c>
       <c r="K287">
-        <v>56.72642724202034</v>
+        <v>0.06726427242020339</v>
       </c>
       <c r="L287">
         <v>0.007482555662143718</v>
@@ -21852,13 +21852,13 @@
         <v>0.003749999999982379</v>
       </c>
       <c r="U287">
-        <v>1.000094699958963</v>
+        <v>9.469995896349559E-05</v>
       </c>
       <c r="V287">
-        <v>1.000015772373111</v>
+        <v>1.577237311134461E-05</v>
       </c>
       <c r="W287">
-        <v>1.000473372781065</v>
+        <v>0.0004733727810650734</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -21893,7 +21893,7 @@
         <v>1.310879218577115</v>
       </c>
       <c r="K288">
-        <v>56.72642724202034</v>
+        <v>0.06726427242020339</v>
       </c>
       <c r="L288">
         <v>0.006901830576767989</v>
@@ -21923,13 +21923,13 @@
         <v>0</v>
       </c>
       <c r="U288">
-        <v>1.00009469099173</v>
+        <v>9.469099173031736E-05</v>
       </c>
       <c r="V288">
-        <v>1.000031544248695</v>
+        <v>3.154424869467043E-05</v>
       </c>
       <c r="W288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -21964,7 +21964,7 @@
         <v>1.310879218577115</v>
       </c>
       <c r="K289">
-        <v>56.72642724202034</v>
+        <v>0.06726427242020339</v>
       </c>
       <c r="L289">
         <v>0.006358144852513924</v>
@@ -21994,13 +21994,13 @@
         <v>0</v>
       </c>
       <c r="U289">
-        <v>1.000055231181947</v>
+        <v>5.52311819472795E-05</v>
       </c>
       <c r="V289">
-        <v>0.9999684567463133</v>
+        <v>-3.154325368670552E-05</v>
       </c>
       <c r="W289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -22035,7 +22035,7 @@
         <v>1.398424924227768</v>
       </c>
       <c r="K290">
-        <v>58.30597030999524</v>
+        <v>0.08305970309995236</v>
       </c>
       <c r="L290">
         <v>0.0059345888494855</v>
@@ -22065,13 +22065,13 @@
         <v>0.001249999999998863</v>
       </c>
       <c r="U290">
-        <v>1.000086787063994</v>
+        <v>8.678706399378733E-05</v>
       </c>
       <c r="V290">
-        <v>1.000031544248695</v>
+        <v>3.154424869467043E-05</v>
       </c>
       <c r="W290">
-        <v>1.00023657440265</v>
+        <v>0.0002365744026495697</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -22106,7 +22106,7 @@
         <v>1.582731672965985</v>
       </c>
       <c r="K291">
-        <v>61.28130496608619</v>
+        <v>0.1128130496608619</v>
       </c>
       <c r="L291">
         <v>0.005761558545481808</v>
@@ -22136,13 +22136,13 @@
         <v>0.001249999999998863</v>
       </c>
       <c r="U291">
-        <v>1.000063112387384</v>
+        <v>6.311238738376801E-05</v>
       </c>
       <c r="V291">
-        <v>1.00009462976106</v>
+        <v>9.462976106000554E-05</v>
       </c>
       <c r="W291">
-        <v>1.000473036896878</v>
+        <v>0.000473036896877943</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -22177,7 +22177,7 @@
         <v>1.44277716341697</v>
       </c>
       <c r="K292">
-        <v>59.06298720259876</v>
+        <v>0.0906298720259876</v>
       </c>
       <c r="L292">
         <v>0.005644114762971331</v>
@@ -22207,13 +22207,13 @@
         <v>0</v>
       </c>
       <c r="U292">
-        <v>1.000063108404462</v>
+        <v>6.310840446177579E-05</v>
       </c>
       <c r="V292">
-        <v>1.000047310403558</v>
+        <v>4.731040355765437E-05</v>
       </c>
       <c r="W292">
-        <v>0.9997635933806147</v>
+        <v>-0.0002364066193852876</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -22248,7 +22248,7 @@
         <v>1.815096840551723</v>
       </c>
       <c r="K293">
-        <v>64.47724335465443</v>
+        <v>0.1447724335465443</v>
       </c>
       <c r="L293">
         <v>0.005891989074232578</v>
@@ -22278,13 +22278,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U293">
-        <v>1.000086768580308</v>
+        <v>8.67685803080942E-05</v>
       </c>
       <c r="V293">
-        <v>1.000078846942316</v>
+        <v>7.884694231563572E-05</v>
       </c>
       <c r="W293">
-        <v>1.000945850082762</v>
+        <v>0.0009458500827619343</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -22319,7 +22319,7 @@
         <v>1.402771092873353</v>
       </c>
       <c r="K294">
-        <v>58.3813871006684</v>
+        <v>0.08381387100668403</v>
       </c>
       <c r="L294">
         <v>0.006065313032601893</v>
@@ -22349,13 +22349,13 @@
         <v>0.01624999999999943</v>
       </c>
       <c r="U294">
-        <v>1.000063098947036</v>
+        <v>6.30989470362664E-05</v>
       </c>
       <c r="V294">
-        <v>1.000015768145193</v>
+        <v>1.576814519310688E-05</v>
       </c>
       <c r="W294">
-        <v>0.9992912827781715</v>
+        <v>-0.0007087172218285254</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -22390,7 +22390,7 @@
         <v>1.402771092873353</v>
       </c>
       <c r="K295">
-        <v>58.38138710066841</v>
+        <v>0.08381387100668403</v>
       </c>
       <c r="L295">
         <v>0.00616031942381417</v>
@@ -22420,13 +22420,13 @@
         <v>0.02250000000000796</v>
       </c>
       <c r="U295">
-        <v>1.000078868707263</v>
+        <v>7.886870726325768E-05</v>
       </c>
       <c r="V295">
-        <v>1.000031535793125</v>
+        <v>3.153579312531463E-05</v>
       </c>
       <c r="W295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -22461,7 +22461,7 @@
         <v>1.486673068852407</v>
       </c>
       <c r="K296">
-        <v>59.78562632435244</v>
+        <v>0.09785626324352437</v>
       </c>
       <c r="L296">
         <v>0.006265542965643448</v>
@@ -22491,13 +22491,13 @@
         <v>0.02874999999998806</v>
       </c>
       <c r="U296">
-        <v>1.000086748736229</v>
+        <v>8.674873622860346E-05</v>
       </c>
       <c r="V296">
-        <v>1.000078836996626</v>
+        <v>7.883699662580845E-05</v>
       </c>
       <c r="W296">
-        <v>1.000236406619385</v>
+        <v>0.0002364066193853986</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -22532,7 +22532,7 @@
         <v>1.366028354934103</v>
       </c>
       <c r="K297">
-        <v>57.73507963610812</v>
+        <v>0.07735079636108122</v>
       </c>
       <c r="L297">
         <v>0.006261242655790763</v>
@@ -22562,13 +22562,13 @@
         <v>0.03125</v>
       </c>
       <c r="U297">
-        <v>1.000063084517482</v>
+        <v>6.308451748227029E-05</v>
       </c>
       <c r="V297">
-        <v>1.000031532312737</v>
+        <v>3.153231273733681E-05</v>
       </c>
       <c r="W297">
-        <v>0.999763649255495</v>
+        <v>-0.0002363507445050095</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -22603,7 +22603,7 @@
         <v>1.536872151548328</v>
       </c>
       <c r="K298">
-        <v>60.58137973607892</v>
+        <v>0.1058137973607892</v>
       </c>
       <c r="L298">
         <v>0.006340370722779412</v>
@@ -22633,13 +22633,13 @@
         <v>0.03625000000000966</v>
       </c>
       <c r="U298">
-        <v>1.000063080538077</v>
+        <v>6.308053807679848E-05</v>
       </c>
       <c r="V298">
-        <v>1.000063062636964</v>
+        <v>6.306263696442826E-05</v>
       </c>
       <c r="W298">
-        <v>1.000472813238771</v>
+        <v>0.0004728132387707973</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -22674,7 +22674,7 @@
         <v>1.410080805088305</v>
       </c>
       <c r="K299">
-        <v>58.50761526797189</v>
+        <v>0.08507615267971891</v>
       </c>
       <c r="L299">
         <v>0.006355719411914373</v>
@@ -22704,13 +22704,13 @@
         <v>0.0350000000000108</v>
       </c>
       <c r="U299">
-        <v>1.000047307419381</v>
+        <v>4.730741938052674E-05</v>
       </c>
       <c r="V299">
-        <v>1.000063058660319</v>
+        <v>6.305866031874885E-05</v>
       </c>
       <c r="W299">
-        <v>0.9997637051039698</v>
+        <v>-0.0002362948960301647</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -22745,7 +22745,7 @@
         <v>1.201414988658426</v>
       </c>
       <c r="K300">
-        <v>54.57467105693624</v>
+        <v>0.04574671056936241</v>
       </c>
       <c r="L300">
         <v>0.006136001207678162</v>
@@ -22775,13 +22775,13 @@
         <v>0.03249999999998465</v>
       </c>
       <c r="U300">
-        <v>1.000039420984578</v>
+        <v>3.942098457843102E-05</v>
       </c>
       <c r="V300">
-        <v>1.000031527342088</v>
+        <v>3.152734208766717E-05</v>
       </c>
       <c r="W300">
-        <v>0.9995272985109902</v>
+        <v>-0.0004727014890097969</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -22816,7 +22816,7 @@
         <v>1.279299967671062</v>
       </c>
       <c r="K301">
-        <v>56.12688043769081</v>
+        <v>0.06126880437690807</v>
       </c>
       <c r="L301">
         <v>0.005851697644042662</v>
@@ -22846,13 +22846,13 @@
         <v>0.02124999999999488</v>
       </c>
       <c r="U301">
-        <v>1.000039419430626</v>
+        <v>3.941943062568676E-05</v>
       </c>
       <c r="V301">
-        <v>1.000078815870364</v>
+        <v>7.881587036351334E-05</v>
       </c>
       <c r="W301">
-        <v>1.00023646252069</v>
+        <v>0.000236462520690317</v>
       </c>
     </row>
     <row r="302" spans="1:23">
@@ -22887,7 +22887,7 @@
         <v>1.361284156105474</v>
       </c>
       <c r="K302">
-        <v>57.6501626280623</v>
+        <v>0.07650162628062296</v>
       </c>
       <c r="L302">
         <v>0.005611214883555145</v>
@@ -22917,13 +22917,13 @@
         <v>0.01624999999999943</v>
       </c>
       <c r="U302">
-        <v>1.000039417876796</v>
+        <v>3.941787679551112E-05</v>
       </c>
       <c r="V302">
-        <v>1.000063047727129</v>
+        <v>6.304772712928397E-05</v>
       </c>
       <c r="W302">
-        <v>1.000236406619385</v>
+        <v>0.0002364066193853986</v>
       </c>
     </row>
     <row r="303" spans="1:23">
@@ -22958,7 +22958,7 @@
         <v>1.447583301825847</v>
       </c>
       <c r="K303">
-        <v>59.14337218863928</v>
+        <v>0.09143372188639276</v>
       </c>
       <c r="L303">
         <v>0.005478289557771751</v>
@@ -22988,13 +22988,13 @@
         <v>0.01500000000000057</v>
       </c>
       <c r="U303">
-        <v>1.000055182852323</v>
+        <v>5.518285232253284E-05</v>
       </c>
       <c r="V303">
-        <v>1.000078804690455</v>
+        <v>7.88046904551809E-05</v>
       </c>
       <c r="W303">
-        <v>1.000236350744505</v>
+        <v>0.0002363507445048985</v>
       </c>
     </row>
     <row r="304" spans="1:23">
@@ -23029,7 +23029,7 @@
         <v>1.538424507847291</v>
       </c>
       <c r="K304">
-        <v>60.60548592606959</v>
+        <v>0.1060548592606959</v>
       </c>
       <c r="L304">
         <v>0.005485147212435361</v>
@@ -23059,13 +23059,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U304">
-        <v>1.000031531318482</v>
+        <v>3.153131848221413E-05</v>
       </c>
       <c r="V304">
-        <v>1.000094558176919</v>
+        <v>9.455817691850221E-05</v>
       </c>
       <c r="W304">
-        <v>1.00023629489603</v>
+        <v>0.0002362948960301647</v>
       </c>
     </row>
     <row r="305" spans="1:23">
@@ -23100,7 +23100,7 @@
         <v>1.538424507847291</v>
       </c>
       <c r="K305">
-        <v>60.60548592606959</v>
+        <v>0.1060548592606959</v>
       </c>
       <c r="L305">
         <v>0.005556241708719396</v>
@@ -23130,13 +23130,13 @@
         <v>0.01250000000000284</v>
       </c>
       <c r="U305">
-        <v>1.000055178067506</v>
+        <v>5.517806750643395E-05</v>
       </c>
       <c r="V305">
-        <v>1.000078791030429</v>
+        <v>7.879103042895963E-05</v>
       </c>
       <c r="W305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:23">
@@ -23171,7 +23171,7 @@
         <v>1.397735350064806</v>
       </c>
       <c r="K306">
-        <v>58.29397935960813</v>
+        <v>0.08293979359608128</v>
       </c>
       <c r="L306">
         <v>0.005555342958427313</v>
@@ -23201,13 +23201,13 @@
         <v>0.007499999999993179</v>
       </c>
       <c r="U306">
-        <v>1.000063057169206</v>
+        <v>6.305716920596005E-05</v>
       </c>
       <c r="V306">
-        <v>1.000031513929156</v>
+        <v>3.151392915645701E-05</v>
       </c>
       <c r="W306">
-        <v>0.9997637609260572</v>
+        <v>-0.0002362390739427678</v>
       </c>
     </row>
     <row r="307" spans="1:23">
@@ -23242,7 +23242,7 @@
         <v>1.274999650990926</v>
       </c>
       <c r="K307">
-        <v>56.04394930063271</v>
+        <v>0.06043949300632712</v>
       </c>
       <c r="L307">
         <v>0.005404537158530217</v>
@@ -23272,13 +23272,13 @@
         <v>0.006250000000022737</v>
       </c>
       <c r="U307">
-        <v>1.000039408245782</v>
+        <v>3.94082457815248E-05</v>
       </c>
       <c r="V307">
-        <v>1.00003151293606</v>
+        <v>3.151293606018513E-05</v>
       </c>
       <c r="W307">
-        <v>0.9997637051039698</v>
+        <v>-0.0002362948960301647</v>
       </c>
     </row>
     <row r="308" spans="1:23">
@@ -23313,7 +23313,7 @@
         <v>1.274999650990926</v>
       </c>
       <c r="K308">
-        <v>56.04394930063271</v>
+        <v>0.06043949300632712</v>
       </c>
       <c r="L308">
         <v>0.00515285425794277</v>
@@ -23343,13 +23343,13 @@
         <v>0.008750000000006253</v>
       </c>
       <c r="U308">
-        <v>1.0000236440157</v>
+        <v>2.364401569954211E-05</v>
       </c>
       <c r="V308">
-        <v>0.9999684880569736</v>
+        <v>-3.15119430264188E-05</v>
       </c>
       <c r="W308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:23">
@@ -23384,7 +23384,7 @@
         <v>1.161945977686926</v>
       </c>
       <c r="K309">
-        <v>53.74537521654896</v>
+        <v>0.03745375216548963</v>
       </c>
       <c r="L309">
         <v>0.00475123927988535</v>
@@ -23414,13 +23414,13 @@
         <v>0.01250000000000284</v>
       </c>
       <c r="U309">
-        <v>1.000007881152224</v>
+        <v>7.881152224387122E-06</v>
       </c>
       <c r="V309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W309">
-        <v>0.999763649255495</v>
+        <v>-0.0002363507445050095</v>
       </c>
     </row>
     <row r="310" spans="1:23">
@@ -23455,7 +23455,7 @@
         <v>1.255282369224994</v>
       </c>
       <c r="K310">
-        <v>55.65965425679089</v>
+        <v>0.05659654256790891</v>
       </c>
       <c r="L310">
         <v>0.004353202905995498</v>
@@ -23485,13 +23485,13 @@
         <v>0.01124999999998977</v>
       </c>
       <c r="U310">
-        <v>1.000023643270337</v>
+        <v>2.364327033710367E-05</v>
       </c>
       <c r="V310">
-        <v>1.00001575646803</v>
+        <v>1.575646803031461E-05</v>
       </c>
       <c r="W310">
-        <v>1.000236406619385</v>
+        <v>0.0002364066193853986</v>
       </c>
     </row>
     <row r="311" spans="1:23">
@@ -23526,7 +23526,7 @@
         <v>1.255282369224994</v>
       </c>
       <c r="K311">
-        <v>55.65965425679089</v>
+        <v>0.05659654256790891</v>
       </c>
       <c r="L311">
         <v>0.003966850289446051</v>
@@ -23556,13 +23556,13 @@
         <v>0.007499999999993179</v>
       </c>
       <c r="U311">
-        <v>1.00003940451891</v>
+        <v>3.940451891026875E-05</v>
       </c>
       <c r="V311">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:23">
@@ -23597,7 +23597,7 @@
         <v>1.255282369224994</v>
       </c>
       <c r="K312">
-        <v>55.65965425679089</v>
+        <v>0.05659654256790891</v>
       </c>
       <c r="L312">
         <v>0.003597753297653825</v>
@@ -23627,13 +23627,13 @@
         <v>0.002499999999997726</v>
       </c>
       <c r="U312">
-        <v>1.000023641779753</v>
+        <v>2.364177975322512E-05</v>
       </c>
       <c r="V312">
-        <v>1.000015756219768</v>
+        <v>1.5756219768015E-05</v>
       </c>
       <c r="W312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:23">
@@ -23668,7 +23668,7 @@
         <v>1.364145342297455</v>
       </c>
       <c r="K313">
-        <v>57.70141614778181</v>
+        <v>0.07701416147781803</v>
       </c>
       <c r="L313">
         <v>0.003335619158058128</v>
@@ -23698,13 +23698,13 @@
         <v>-0.002499999999997726</v>
       </c>
       <c r="U313">
-        <v>1.000031521627777</v>
+        <v>3.152162777686485E-05</v>
       </c>
       <c r="V313">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W313">
-        <v>1.000236350744505</v>
+        <v>0.0002363507445048985</v>
       </c>
     </row>
     <row r="314" spans="1:23">
@@ -23739,7 +23739,7 @@
         <v>1.109796420522167</v>
       </c>
       <c r="K314">
-        <v>52.60206196802138</v>
+        <v>0.02602061968021385</v>
       </c>
       <c r="L314">
         <v>0.00297066536042385</v>
@@ -23769,13 +23769,13 @@
         <v>-0.005000000000009663</v>
       </c>
       <c r="U314">
-        <v>1.000023640475646</v>
+        <v>2.364047564640259E-05</v>
       </c>
       <c r="V314">
-        <v>0.999984244028487</v>
+        <v>-1.575597151304287E-05</v>
       </c>
       <c r="W314">
-        <v>0.9995274102079394</v>
+        <v>-0.0004725897920605515</v>
       </c>
     </row>
     <row r="315" spans="1:23">
@@ -23810,7 +23810,7 @@
         <v>1.207929551512837</v>
       </c>
       <c r="K315">
-        <v>54.70869986251073</v>
+        <v>0.04708699862510723</v>
       </c>
       <c r="L315">
         <v>0.002641953934846705</v>
@@ -23840,13 +23840,13 @@
         <v>-0.005000000000009663</v>
       </c>
       <c r="U315">
-        <v>1.00003151988905</v>
+        <v>3.151988905014669E-05</v>
       </c>
       <c r="V315">
-        <v>1.000031512439535</v>
+        <v>3.151243953536387E-05</v>
       </c>
       <c r="W315">
-        <v>1.000236406619385</v>
+        <v>0.0002364066193853986</v>
       </c>
     </row>
     <row r="316" spans="1:23">
@@ -23881,7 +23881,7 @@
         <v>1.207929551512838</v>
       </c>
       <c r="K316">
-        <v>54.70869986251073</v>
+        <v>0.04708699862510735</v>
       </c>
       <c r="L316">
         <v>0.002346525544874549</v>
@@ -23911,13 +23911,13 @@
         <v>-0.00750000000000739</v>
       </c>
       <c r="U316">
-        <v>1.000047278343367</v>
+        <v>4.727834336670789E-05</v>
       </c>
       <c r="V316">
-        <v>1.000015755723267</v>
+        <v>1.575572326673047E-05</v>
       </c>
       <c r="W316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:23">
@@ -23952,7 +23952,7 @@
         <v>1.089466645143994</v>
       </c>
       <c r="K317">
-        <v>52.1408967056717</v>
+        <v>0.02140896705671702</v>
       </c>
       <c r="L317">
         <v>0.001995464045981361</v>
@@ -23982,13 +23982,13 @@
         <v>-0.007499999999993179</v>
       </c>
       <c r="U317">
-        <v>1.000023638054115</v>
+        <v>2.363805411542685E-05</v>
       </c>
       <c r="V317">
-        <v>0.9999842445249724</v>
+        <v>-1.575547502763452E-05</v>
       </c>
       <c r="W317">
-        <v>0.999763649255495</v>
+        <v>-0.0002363507445050095</v>
       </c>
     </row>
     <row r="318" spans="1:23">
@@ -24023,7 +24023,7 @@
         <v>0.9030235713658078</v>
       </c>
       <c r="K318">
-        <v>47.45204341939412</v>
+        <v>-0.02547956580605887</v>
       </c>
       <c r="L318">
         <v>0.001453656417955584</v>
@@ -24053,13 +24053,13 @@
         <v>-0.01124999999998977</v>
       </c>
       <c r="U318">
-        <v>1.000007879165124</v>
+        <v>7.87916512368092E-06</v>
       </c>
       <c r="V318">
-        <v>0.9999369771069339</v>
+        <v>-6.302289306614473E-05</v>
       </c>
       <c r="W318">
-        <v>0.9995271867612294</v>
+        <v>-0.0004728132387705752</v>
       </c>
     </row>
     <row r="319" spans="1:23">
@@ -24094,7 +24094,7 @@
         <v>0.9930932710714805</v>
       </c>
       <c r="K319">
-        <v>49.82673342415113</v>
+        <v>-0.001732665758488683</v>
       </c>
       <c r="L319">
         <v>0.0009116092404669985</v>
@@ -24124,13 +24124,13 @@
         <v>-0.01250000000000284</v>
       </c>
       <c r="U319">
-        <v>1.000015758206086</v>
+        <v>1.575820608556988E-05</v>
       </c>
       <c r="V319">
-        <v>0.9999369731347988</v>
+        <v>-6.302686520121004E-05</v>
       </c>
       <c r="W319">
-        <v>1.000236518448439</v>
+        <v>0.0002365184484389715</v>
       </c>
     </row>
     <row r="320" spans="1:23">
@@ -24165,7 +24165,7 @@
         <v>0.8347984399175131</v>
       </c>
       <c r="K320">
-        <v>45.49810059545522</v>
+        <v>-0.04501899404544779</v>
       </c>
       <c r="L320">
         <v>0.0002284898300844455</v>
@@ -24195,13 +24195,13 @@
         <v>-0.01500000000000057</v>
       </c>
       <c r="U320">
-        <v>0.9999921210211158</v>
+        <v>-7.878978884212628E-06</v>
       </c>
       <c r="V320">
-        <v>0.9999054537432439</v>
+        <v>-9.454625675608952E-05</v>
       </c>
       <c r="W320">
-        <v>0.9995270749586191</v>
+        <v>-0.0004729250413808561</v>
       </c>
     </row>
     <row r="321" spans="1:23">
@@ -24236,7 +24236,7 @@
         <v>0.8347984399175131</v>
       </c>
       <c r="K321">
-        <v>45.49810059545522</v>
+        <v>-0.04501899404544779</v>
       </c>
       <c r="L321">
         <v>-0.0004973980796068077</v>
@@ -24266,13 +24266,13 @@
         <v>-0.02000000000001023</v>
       </c>
       <c r="U321">
-        <v>0.9999763628771107</v>
+        <v>-2.363712288933062E-05</v>
       </c>
       <c r="V321">
-        <v>0.9999212040028366</v>
+        <v>-7.879599716342778E-05</v>
       </c>
       <c r="W321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:23">
@@ -24307,7 +24307,7 @@
         <v>0.9231063259468884</v>
       </c>
       <c r="K322">
-        <v>48.00079504144808</v>
+        <v>-0.0199920495855192</v>
       </c>
       <c r="L322">
         <v>-0.001115065702822619</v>
@@ -24337,13 +24337,13 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="U322">
-        <v>0.9999921207727946</v>
+        <v>-7.879227205354056E-06</v>
       </c>
       <c r="V322">
-        <v>0.999952718676123</v>
+        <v>-4.728132387699091E-05</v>
       </c>
       <c r="W322">
-        <v>1.00023657440265</v>
+        <v>0.0002365744026495697</v>
       </c>
     </row>
     <row r="323" spans="1:23">
@@ -24378,7 +24378,7 @@
         <v>0.7783940464875402</v>
       </c>
       <c r="K323">
-        <v>43.76949237009233</v>
+        <v>-0.06230507629907672</v>
       </c>
       <c r="L323">
         <v>-0.001795914027029007</v>
@@ -24408,13 +24408,13 @@
         <v>-0.02625000000000455</v>
       </c>
       <c r="U323">
-        <v>0.9999448449749835</v>
+        <v>-5.515502501651781E-05</v>
       </c>
       <c r="V323">
-        <v>0.9999211940674892</v>
+        <v>-7.880593251075041E-05</v>
       </c>
       <c r="W323">
-        <v>0.9995269631031219</v>
+        <v>-0.0004730368968780541</v>
       </c>
     </row>
     <row r="324" spans="1:23">
@@ -24449,7 +24449,7 @@
         <v>1.190937842740108</v>
       </c>
       <c r="K324">
-        <v>54.3574454513349</v>
+        <v>0.04357445451334907</v>
       </c>
       <c r="L324">
         <v>-0.002034750493417135</v>
@@ -24479,13 +24479,13 @@
         <v>-0.02625000000000455</v>
       </c>
       <c r="U324">
-        <v>1.000007879723894</v>
+        <v>7.879723894488322E-06</v>
       </c>
       <c r="V324">
-        <v>1.000015762428675</v>
+        <v>1.576242867518118E-05</v>
       </c>
       <c r="W324">
-        <v>1.001183151916706</v>
+        <v>0.00118315191670626</v>
       </c>
     </row>
     <row r="325" spans="1:23">
@@ -24520,7 +24520,7 @@
         <v>1.095768864396199</v>
       </c>
       <c r="K325">
-        <v>52.28481456192905</v>
+        <v>0.02284814561929049</v>
       </c>
       <c r="L325">
         <v>-0.002069245567057772</v>
@@ -24550,13 +24550,13 @@
         <v>-0.02625000000000455</v>
       </c>
       <c r="U325">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="V325">
-        <v>0.9999842378197751</v>
+        <v>-1.576218022492082E-05</v>
       </c>
       <c r="W325">
-        <v>0.999763649255495</v>
+        <v>-0.0002363507445050095</v>
       </c>
     </row>
     <row r="326" spans="1:23">
@@ -24591,7 +24591,7 @@
         <v>1.348119243263378</v>
       </c>
       <c r="K326">
-        <v>57.41272497685355</v>
+        <v>0.07412724976853546</v>
       </c>
       <c r="L326">
         <v>-0.001711964014962533</v>
@@ -24621,13 +24621,13 @@
         <v>-0.01624999999998522</v>
       </c>
       <c r="U326">
-        <v>1.00001575932361</v>
+        <v>1.575932360986521E-05</v>
       </c>
       <c r="V326">
-        <v>1.00003152485735</v>
+        <v>3.152485735014032E-05</v>
       </c>
       <c r="W326">
-        <v>1.000709219858156</v>
+        <v>0.0007092198581559739</v>
       </c>
     </row>
     <row r="327" spans="1:23">
@@ -24662,7 +24662,7 @@
         <v>1.348119243263378</v>
       </c>
       <c r="K327">
-        <v>57.41272497685354</v>
+        <v>0.07412724976853535</v>
       </c>
       <c r="L327">
         <v>-0.001133845299038522</v>
@@ -24692,13 +24692,13 @@
         <v>-0.008749999999992042</v>
       </c>
       <c r="U327">
-        <v>1.000023638612886</v>
+        <v>2.363861288623426E-05</v>
       </c>
       <c r="V327">
-        <v>1.000031523863564</v>
+        <v>3.152386356441994E-05</v>
       </c>
       <c r="W327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:23">
@@ -24733,7 +24733,7 @@
         <v>1.907344459589536</v>
       </c>
       <c r="K328">
-        <v>65.6043508466423</v>
+        <v>0.156043508466423</v>
       </c>
       <c r="L328">
         <v>6.186022116253899E-05</v>
@@ -24763,13 +24763,13 @@
         <v>0.01125000000001819</v>
       </c>
       <c r="U328">
-        <v>1.000055155459602</v>
+        <v>5.515545960244062E-05</v>
       </c>
       <c r="V328">
-        <v>1.000110330044447</v>
+        <v>0.000110330044447382</v>
       </c>
       <c r="W328">
-        <v>1.001417434443657</v>
+        <v>0.001417434443657051</v>
       </c>
     </row>
     <row r="329" spans="1:23">
@@ -24804,7 +24804,7 @@
         <v>1.59447715093693</v>
       </c>
       <c r="K329">
-        <v>61.45658867572315</v>
+        <v>0.1145658867572316</v>
       </c>
       <c r="L329">
         <v>0.001383127569366869</v>
@@ -24834,13 +24834,13 @@
         <v>0.03000000000000114</v>
       </c>
       <c r="U329">
-        <v>1.000047273500839</v>
+        <v>4.727350083899573E-05</v>
       </c>
       <c r="V329">
-        <v>1.000110317873071</v>
+        <v>0.0001103178730712528</v>
       </c>
       <c r="W329">
-        <v>0.9995281906109931</v>
+        <v>-0.0004718093890069275</v>
       </c>
     </row>
     <row r="330" spans="1:23">
@@ -24875,7 +24875,7 @@
         <v>1.467760778552848</v>
       </c>
       <c r="K330">
-        <v>59.47743360333236</v>
+        <v>0.09477433603332364</v>
       </c>
       <c r="L330">
         <v>0.002605105344212624</v>
@@ -24905,13 +24905,13 @@
         <v>0.04250000000001819</v>
       </c>
       <c r="U330">
-        <v>1.000055149810521</v>
+        <v>5.514981052101575E-05</v>
       </c>
       <c r="V330">
-        <v>1.000078789788843</v>
+        <v>7.878978884345855E-05</v>
       </c>
       <c r="W330">
-        <v>0.9997639839509087</v>
+        <v>-0.0002360160490912921</v>
       </c>
     </row>
     <row r="331" spans="1:23">
@@ -24946,7 +24946,7 @@
         <v>1.354454194054904</v>
       </c>
       <c r="K331">
-        <v>57.5273113180523</v>
+        <v>0.07527311318052299</v>
       </c>
       <c r="L331">
         <v>0.003593441563974769</v>
@@ -24976,13 +24976,13 @@
         <v>0.05999999999998806</v>
       </c>
       <c r="U331">
-        <v>1.00003939054942</v>
+        <v>3.939054941959341E-05</v>
       </c>
       <c r="V331">
-        <v>1.000063026865201</v>
+        <v>6.302686520132106E-05</v>
       </c>
       <c r="W331">
-        <v>0.9997639282341833</v>
+        <v>-0.0002360717658167477</v>
       </c>
     </row>
     <row r="332" spans="1:23">
@@ -25017,7 +25017,7 @@
         <v>1.435714090550299</v>
       </c>
       <c r="K332">
-        <v>58.94427823529686</v>
+        <v>0.08944278235296865</v>
       </c>
       <c r="L332">
         <v>0.004450198729804656</v>
@@ -25047,13 +25047,13 @@
         <v>0.06624999999999659</v>
       </c>
       <c r="U332">
-        <v>1.000039388997865</v>
+        <v>3.938899786515293E-05</v>
       </c>
       <c r="V332">
-        <v>1.000094534339599</v>
+        <v>9.453433959905055E-05</v>
       </c>
       <c r="W332">
-        <v>1.000236127508855</v>
+        <v>0.000236127508854711</v>
       </c>
     </row>
     <row r="333" spans="1:23">
@@ -25088,7 +25088,7 @@
         <v>1.435714090550299</v>
       </c>
       <c r="K333">
-        <v>58.94427823529686</v>
+        <v>0.08944278235296865</v>
       </c>
       <c r="L333">
         <v>0.005156391925450981</v>
@@ -25118,13 +25118,13 @@
         <v>0.07375000000000398</v>
       </c>
       <c r="U333">
-        <v>1.000031509957146</v>
+        <v>3.150995714640281E-05</v>
       </c>
       <c r="V333">
-        <v>1.000126033871603</v>
+        <v>0.0001260338716029263</v>
       </c>
       <c r="W333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:23">
@@ -25159,7 +25159,7 @@
         <v>1.435714090550299</v>
       </c>
       <c r="K334">
-        <v>58.94427823529686</v>
+        <v>0.08944278235296865</v>
       </c>
       <c r="L334">
         <v>0.005707548442060105</v>
@@ -25189,13 +25189,13 @@
         <v>0.07124999999999204</v>
       </c>
       <c r="U334">
-        <v>1.000023631723225</v>
+        <v>2.363172322539242E-05</v>
       </c>
       <c r="V334">
-        <v>1.000110265740434</v>
+        <v>0.0001102657404343788</v>
       </c>
       <c r="W334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:23">
@@ -25230,7 +25230,7 @@
         <v>1.625269177870138</v>
       </c>
       <c r="K335">
-        <v>61.9086679404322</v>
+        <v>0.1190866794043219</v>
       </c>
       <c r="L335">
         <v>0.006280965172044176</v>
@@ -25260,13 +25260,13 @@
         <v>0.07250000000000512</v>
       </c>
       <c r="U335">
-        <v>1.000039385274633</v>
+        <v>3.938527463343E-05</v>
       </c>
       <c r="V335">
-        <v>1.000173255630808</v>
+        <v>0.0001732556308078337</v>
       </c>
       <c r="W335">
-        <v>1.000472143531634</v>
+        <v>0.0004721435316337175</v>
       </c>
     </row>
     <row r="336" spans="1:23">
@@ -25301,7 +25301,7 @@
         <v>1.477832030699889</v>
       </c>
       <c r="K336">
-        <v>59.64213927295388</v>
+        <v>0.09642139272953876</v>
       </c>
       <c r="L336">
         <v>0.006722331467922544</v>
@@ -25331,13 +25331,13 @@
         <v>0.05499999999999261</v>
       </c>
       <c r="U336">
-        <v>1.000039383723495</v>
+        <v>3.938372349487906E-05</v>
       </c>
       <c r="V336">
-        <v>1.000157477834995</v>
+        <v>0.000157477834994868</v>
       </c>
       <c r="W336">
-        <v>0.9997640396413401</v>
+        <v>-0.0002359603586599146</v>
       </c>
     </row>
     <row r="337" spans="1:23">
@@ -25372,7 +25372,7 @@
         <v>1.764302110489296</v>
       </c>
       <c r="K337">
-        <v>63.82450397858306</v>
+        <v>0.1382450397858306</v>
       </c>
       <c r="L337">
         <v>0.007289211151921867</v>
@@ -25402,13 +25402,13 @@
         <v>0.04625000000000057</v>
       </c>
       <c r="U337">
-        <v>1.000070887910461</v>
+        <v>7.088791046050424E-05</v>
       </c>
       <c r="V337">
-        <v>1.000188943647557</v>
+        <v>0.0001889436475570605</v>
       </c>
       <c r="W337">
-        <v>1.000708048147274</v>
+        <v>0.0007080481472740985</v>
       </c>
     </row>
     <row r="338" spans="1:23">
@@ -25443,7 +25443,7 @@
         <v>1.6031592481291</v>
       </c>
       <c r="K338">
-        <v>61.58513926035437</v>
+        <v>0.1158513926035437</v>
       </c>
       <c r="L338">
         <v>0.007783320659125769</v>
@@ -25473,13 +25473,13 @@
         <v>0.03999999999999204</v>
       </c>
       <c r="U338">
-        <v>1.00006300700953</v>
+        <v>6.300700952999172E-05</v>
       </c>
       <c r="V338">
-        <v>1.000204650284149</v>
+        <v>0.0002046502841490661</v>
       </c>
       <c r="W338">
-        <v>0.9997641509433963</v>
+        <v>-0.0002358490566036764</v>
       </c>
     </row>
     <row r="339" spans="1:23">
@@ -25514,7 +25514,7 @@
         <v>1.795443851354191</v>
       </c>
       <c r="K339">
-        <v>64.22750542760599</v>
+        <v>0.1422750542760599</v>
       </c>
       <c r="L339">
         <v>0.008345528917010151</v>
@@ -25544,13 +25544,13 @@
         <v>0.03625000000000966</v>
       </c>
       <c r="U339">
-        <v>1.000086629179858</v>
+        <v>8.66291798580221E-05</v>
       </c>
       <c r="V339">
-        <v>1.000157391085369</v>
+        <v>0.0001573910853687188</v>
       </c>
       <c r="W339">
-        <v>1.000471809389007</v>
+        <v>0.0004718093890068165</v>
       </c>
     </row>
     <row r="340" spans="1:23">
@@ -25585,7 +25585,7 @@
         <v>1.997848696854358</v>
       </c>
       <c r="K340">
-        <v>66.64274614495055</v>
+        <v>0.1664274614495055</v>
       </c>
       <c r="L340">
         <v>0.009054736833496448</v>
@@ -25615,13 +25615,13 @@
         <v>0.03875000000000739</v>
       </c>
       <c r="U340">
-        <v>1.000094496373702</v>
+        <v>9.449637370151365E-05</v>
       </c>
       <c r="V340">
-        <v>1.000204576212508</v>
+        <v>0.000204576212507579</v>
       </c>
       <c r="W340">
-        <v>1.000471586889885</v>
+        <v>0.0004715868898845788</v>
       </c>
     </row>
     <row r="341" spans="1:23">
@@ -25656,7 +25656,7 @@
         <v>1.805509786636909</v>
       </c>
       <c r="K341">
-        <v>64.35585415659001</v>
+        <v>0.1435585415659001</v>
       </c>
       <c r="L341">
         <v>0.009688662841675513</v>
@@ -25686,13 +25686,13 @@
         <v>0.03874999999999318</v>
       </c>
       <c r="U341">
-        <v>1.000086613491232</v>
+        <v>8.661349123229023E-05</v>
       </c>
       <c r="V341">
-        <v>1.000141600717444</v>
+        <v>0.000141600717443513</v>
       </c>
       <c r="W341">
-        <v>0.9997643176997408</v>
+        <v>-0.0002356823002591657</v>
       </c>
     </row>
     <row r="342" spans="1:23">
@@ -25727,7 +25727,7 @@
         <v>1.906849798557726</v>
       </c>
       <c r="K342">
-        <v>65.59849771060878</v>
+        <v>0.1559849771060878</v>
       </c>
       <c r="L342">
         <v>0.01028721440376294</v>
@@ -25757,13 +25757,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U342">
-        <v>1.000094479261802</v>
+        <v>9.447926180206068E-05</v>
       </c>
       <c r="V342">
-        <v>1.000157311855022</v>
+        <v>0.0001573118550217689</v>
       </c>
       <c r="W342">
-        <v>1.0002357378595</v>
+        <v>0.0002357378595001514</v>
       </c>
     </row>
     <row r="343" spans="1:23">
@@ -25798,7 +25798,7 @@
         <v>1.723046101251471</v>
       </c>
       <c r="K343">
-        <v>63.27642049319639</v>
+        <v>0.1327642049319639</v>
       </c>
       <c r="L343">
         <v>0.01070260559656503</v>
@@ -25828,13 +25828,13 @@
         <v>0.04249999999998977</v>
       </c>
       <c r="U343">
-        <v>1.000078725280262</v>
+        <v>7.872528026187098E-05</v>
       </c>
       <c r="V343">
-        <v>1.000047186133568</v>
+        <v>4.718613356802237E-05</v>
       </c>
       <c r="W343">
-        <v>0.9997643176997408</v>
+        <v>-0.0002356823002591657</v>
       </c>
     </row>
     <row r="344" spans="1:23">
@@ -25869,7 +25869,7 @@
         <v>1.432375542636072</v>
       </c>
       <c r="K344">
-        <v>58.88792735860779</v>
+        <v>0.08887927358607794</v>
       </c>
       <c r="L344">
         <v>0.01076952556431358</v>
@@ -25899,13 +25899,13 @@
         <v>0.04874999999999829</v>
       </c>
       <c r="U344">
-        <v>1.00007871908308</v>
+        <v>7.871908308021425E-05</v>
       </c>
       <c r="V344">
-        <v>1.000047183907142</v>
+        <v>4.718390714186782E-05</v>
       </c>
       <c r="W344">
-        <v>0.9995285242809995</v>
+        <v>-0.0004714757190005248</v>
       </c>
     </row>
     <row r="345" spans="1:23">
@@ -25940,7 +25940,7 @@
         <v>1.432375542636073</v>
       </c>
       <c r="K345">
-        <v>58.88792735860779</v>
+        <v>0.08887927358607794</v>
       </c>
       <c r="L345">
         <v>0.01058186536131821</v>
@@ -25970,13 +25970,13 @@
         <v>0.04500000000000171</v>
       </c>
       <c r="U345">
-        <v>1.000070841598186</v>
+        <v>7.08415981864885E-05</v>
       </c>
       <c r="V345">
-        <v>1.000062908907901</v>
+        <v>6.290890790139336E-05</v>
       </c>
       <c r="W345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:23">
@@ -26011,7 +26011,7 @@
         <v>1.806216545370837</v>
       </c>
       <c r="K346">
-        <v>64.36483130107653</v>
+        <v>0.1436483130107653</v>
       </c>
       <c r="L346">
         <v>0.01055733601282721</v>
@@ -26041,13 +26041,13 @@
         <v>0.04749999999999943</v>
       </c>
       <c r="U346">
-        <v>1.000102319504459</v>
+        <v>0.0001023195044587144</v>
       </c>
       <c r="V346">
-        <v>1.000141536138894</v>
+        <v>0.0001415361388941161</v>
       </c>
       <c r="W346">
-        <v>1.000943396226415</v>
+        <v>0.0009433962264151496</v>
       </c>
     </row>
     <row r="347" spans="1:23">
@@ -26082,7 +26082,7 @@
         <v>1.806216545370837</v>
       </c>
       <c r="K347">
-        <v>64.36483130107653</v>
+        <v>0.1436483130107653</v>
       </c>
       <c r="L347">
         <v>0.01059464950855446</v>
@@ -26112,13 +26112,13 @@
         <v>0.04375000000000284</v>
       </c>
       <c r="U347">
-        <v>1.000110178962114</v>
+        <v>0.0001101789621142935</v>
       </c>
       <c r="V347">
-        <v>1.000125792097111</v>
+        <v>0.0001257920971113879</v>
       </c>
       <c r="W347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
